--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3AC669-E6D9-45AA-8DA4-7CA0A7F05654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C68120-92CA-4CA2-B9E3-3AB1A898FD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="1545" windowWidth="20745" windowHeight="13995" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
+    <workbookView xWindow="4815" yWindow="210" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,12 +169,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,16 +202,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,82 +655,85 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="8"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>427.75709999999998</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>D3*D2</f>
         <v>430751.39969999995</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>7804.7+1779</f>
         <v>9583.7000000000007</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>1780.8+13798.3+2552.2</f>
         <v>18131.3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <f>D4+D6-D5</f>
         <v>439298.99969999993</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <f>D2/Sheet2!M16</f>
         <v>49.588259601919233</v>
       </c>
@@ -742,75 +751,80 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomRight" activeCell="S1" sqref="S1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="2">
         <v>2020</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="2">
         <f>I1+1</f>
         <v>2021</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="2">
         <f t="shared" ref="K1:R1" si="0">J1+1</f>
         <v>2022</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-    </row>
-    <row r="2" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+    </row>
+    <row r="2" spans="1:118" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -843,374 +857,374 @@
         <v>83289.41055999996</v>
       </c>
     </row>
-    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>19168.2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>19715.3</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>21038.400000000001</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="1">
         <f>N2*(1-N21)</f>
         <v>23755.249230769234</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <f t="shared" ref="O3:R3" si="2">O2*(1-O21)</f>
         <v>26265.893563076919</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <f t="shared" si="2"/>
         <v>28896.978359827684</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="1">
         <f t="shared" si="2"/>
         <v>31606.458842270113</v>
       </c>
-      <c r="R3" s="2">
+      <c r="R3" s="1">
         <f t="shared" si="2"/>
         <v>34332.196341884992</v>
       </c>
     </row>
-    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="K4" s="2">
+      <c r="G4" s="4"/>
+      <c r="K4" s="1">
         <f>K2-K3</f>
         <v>12447.3</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <f t="shared" ref="L4:M4" si="3">L2-L3</f>
         <v>14008.000000000004</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <f t="shared" si="3"/>
         <v>17961.599999999999</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N4" s="1">
         <f t="shared" ref="N4" si="4">N2-N3</f>
         <v>22244.750769230766</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <f t="shared" ref="O4" si="5">O2-O3</f>
         <v>27094.106436923073</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <f t="shared" ref="P4" si="6">P2-P3</f>
         <v>33000.6216401723</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="1">
         <f t="shared" ref="Q4" si="7">Q2-Q3</f>
         <v>40194.757157729859</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R4" s="1">
         <f t="shared" ref="R4" si="8">R2-R3</f>
         <v>48957.214218114968</v>
       </c>
     </row>
-    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>2530.5</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>2657.8</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>2917.5</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="1">
         <f>M5*(1+N18)</f>
         <v>3441.1538461538462</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <f t="shared" ref="O5:R5" si="9">N5*(1+O18)</f>
         <v>3991.7384615384613</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <f t="shared" si="9"/>
         <v>4630.4166153846145</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="1">
         <f t="shared" si="9"/>
         <v>5371.283273846152</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <f t="shared" si="9"/>
         <v>6230.6885976615358</v>
       </c>
     </row>
-    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>2711</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>2675</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>2925</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="1">
         <f>M6*(1+N18)</f>
         <v>3450</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <f t="shared" ref="O6:R6" si="10">N6*(1+O18)</f>
         <v>4001.9999999999995</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <f t="shared" si="10"/>
         <v>4642.3199999999988</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="1">
         <f t="shared" si="10"/>
         <v>5385.091199999998</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="1">
         <f t="shared" si="10"/>
         <v>6246.705791999997</v>
       </c>
     </row>
-    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>1562</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>1720</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>1702</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="1">
         <f>M7*(1+N18)</f>
         <v>2007.4871794871794</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="1">
         <f t="shared" ref="O7:R7" si="11">N7*(1+O18)</f>
         <v>2328.685128205128</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="1">
         <f t="shared" si="11"/>
         <v>2701.2747487179481</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="1">
         <f t="shared" si="11"/>
         <v>3133.4787085128196</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="1">
         <f t="shared" si="11"/>
         <v>3634.8353018748703</v>
       </c>
     </row>
-    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f>SUM(K5:K7)</f>
         <v>6803.5</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <f t="shared" ref="L8:M8" si="12">SUM(L5:L7)</f>
         <v>7052.8</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f t="shared" si="12"/>
         <v>7544.5</v>
       </c>
-      <c r="N8" s="2">
+      <c r="N8" s="1">
         <f t="shared" ref="N8" si="13">SUM(N5:N7)</f>
         <v>8898.6410256410254</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <f t="shared" ref="O8" si="14">SUM(O5:O7)</f>
         <v>10322.423589743588</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="1">
         <f t="shared" ref="P8" si="15">SUM(P5:P7)</f>
         <v>11974.01136410256</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <f t="shared" ref="Q8" si="16">SUM(Q5:Q7)</f>
         <v>13889.853182358969</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="1">
         <f t="shared" ref="R8" si="17">SUM(R5:R7)</f>
         <v>16112.229691536402</v>
       </c>
     </row>
-    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>K4-K8</f>
         <v>5643.7999999999993</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <f t="shared" ref="L9:M9" si="18">L4-L8</f>
         <v>6955.2000000000035</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f t="shared" si="18"/>
         <v>10417.099999999999</v>
       </c>
-      <c r="N9" s="2">
+      <c r="N9" s="1">
         <f t="shared" ref="N9" si="19">N4-N8</f>
         <v>13346.109743589741</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <f t="shared" ref="O9" si="20">O4-O8</f>
         <v>16771.682847179487</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="1">
         <f t="shared" ref="P9" si="21">P4-P8</f>
         <v>21026.610276069739</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <f t="shared" ref="Q9" si="22">Q4-Q8</f>
         <v>26304.903975370889</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="1">
         <f t="shared" ref="R9" si="23">R4-R8</f>
         <v>32844.98452657857</v>
       </c>
     </row>
-    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>-706</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>-699</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>-718</v>
       </c>
     </row>
-    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>337</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>-48</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>266.7</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11" s="1">
         <f>M28*$U$17</f>
         <v>-512.85599999999988</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <f t="shared" ref="O11:R11" si="24">N28*$U$17</f>
         <v>110.84013193846152</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="1">
         <f t="shared" si="24"/>
         <v>931.33074872359373</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <f t="shared" si="24"/>
         <v>1998.4866825285499</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="1">
         <f t="shared" si="24"/>
         <v>3374.0314685024628</v>
       </c>
     </row>
-    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <f>K9+SUM(K10:K11)</f>
         <v>5274.7999999999993</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <f t="shared" ref="L12:M12" si="25">L9+SUM(L10:L11)</f>
         <v>6208.2000000000035</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <f t="shared" si="25"/>
         <v>9965.7999999999993</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12" s="1">
         <f t="shared" ref="N12" si="26">N9+SUM(N10:N11)</f>
         <v>12833.253743589741</v>
       </c>
-      <c r="O12" s="2">
+      <c r="O12" s="1">
         <f t="shared" ref="O12" si="27">O9+SUM(O10:O11)</f>
         <v>16882.522979117948</v>
       </c>
-      <c r="P12" s="2">
+      <c r="P12" s="1">
         <f t="shared" ref="P12" si="28">P9+SUM(P10:P11)</f>
         <v>21957.941024793334</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="1">
         <f t="shared" ref="Q12" si="29">Q9+SUM(Q10:Q11)</f>
         <v>28303.390657899439</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="1">
         <f t="shared" ref="R12" si="30">R9+SUM(R10:R11)</f>
         <v>36219.015995081034</v>
       </c>
     </row>
-    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>772</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>797.4</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>1254</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13" s="1">
         <f>N12*N19</f>
         <v>2438.3182112820509</v>
       </c>
-      <c r="O13" s="2">
+      <c r="O13" s="1">
         <f t="shared" ref="O13:R13" si="31">O12*O19</f>
         <v>3207.6793660324101</v>
       </c>
-      <c r="P13" s="2">
+      <c r="P13" s="1">
         <f t="shared" si="31"/>
         <v>4172.0087947107331</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="1">
         <f t="shared" si="31"/>
         <v>5377.6442250008931</v>
       </c>
-      <c r="R13" s="2">
+      <c r="R13" s="1">
         <f t="shared" si="31"/>
         <v>6881.6130390653962</v>
       </c>
     </row>
-    <row r="14" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:118" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1647,293 +1661,293 @@
         <v>79352.213234743103</v>
       </c>
     </row>
-    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>427.75709999999998</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>444</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>441</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>429</v>
       </c>
-      <c r="N15" s="2">
+      <c r="N15" s="1">
         <v>429</v>
       </c>
-      <c r="O15" s="2">
+      <c r="O15" s="1">
         <v>429</v>
       </c>
-      <c r="P15" s="2">
+      <c r="P15" s="1">
         <v>429</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="1">
         <v>429</v>
       </c>
-      <c r="R15" s="2">
+      <c r="R15" s="1">
         <v>429</v>
       </c>
     </row>
-    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <f>K14/K15</f>
         <v>10.14144144144144</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <f t="shared" ref="L16:R16" si="40">L14/L15</f>
         <v>12.26938775510205</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <f t="shared" si="40"/>
         <v>20.307226107226107</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <f t="shared" si="40"/>
         <v>24.230618956428184</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="5">
         <f t="shared" si="40"/>
         <v>31.876092338194724</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <f t="shared" si="40"/>
         <v>41.459049487372035</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="5">
         <f t="shared" si="40"/>
         <v>53.439968375054882</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="5">
         <f t="shared" si="40"/>
         <v>68.385554676027127</v>
       </c>
     </row>
-    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="T17" s="2" t="s">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="T17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="4">
         <v>0.06</v>
       </c>
     </row>
-    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <f>L2/K2-1</f>
         <v>6.6669829672154624E-2</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f>M2/L2-1</f>
         <v>0.15647045217994671</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f t="shared" ref="N18:R18" si="41">N2/M2-1</f>
         <v>0.17948717948717952</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <f t="shared" si="41"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <f t="shared" si="41"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <f t="shared" si="41"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <f t="shared" si="41"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="T18" s="2" t="s">
+      <c r="T18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="5">
+      <c r="U18" s="4">
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <f>K13/K12</f>
         <v>0.14635625995298401</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <f t="shared" ref="L19:M19" si="42">L13/L12</f>
         <v>0.1284430269643374</v>
       </c>
-      <c r="M19" s="5">
+      <c r="M19" s="4">
         <f t="shared" si="42"/>
         <v>0.12583033976198599</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>0.19</v>
       </c>
-      <c r="O19" s="5">
+      <c r="O19" s="4">
         <v>0.19</v>
       </c>
-      <c r="P19" s="5">
+      <c r="P19" s="4">
         <v>0.19</v>
       </c>
-      <c r="Q19" s="5">
+      <c r="Q19" s="4">
         <v>0.19</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="4">
         <v>0.19</v>
       </c>
-      <c r="T19" s="2" t="s">
+      <c r="T19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="U19" s="6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="T20" s="2" t="s">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="T20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="2">
+      <c r="U20" s="1">
         <f>NPV(U19,N26:XFD26)+Sheet1!D5-Sheet1!D6</f>
         <v>439563.13472375751</v>
       </c>
     </row>
-    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <f>K4/K2</f>
         <v>0.39370878208473692</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <f t="shared" ref="L21:M21" si="43">L4/L2</f>
         <v>0.415380463952223</v>
       </c>
-      <c r="M21" s="5">
+      <c r="M21" s="4">
         <f t="shared" si="43"/>
         <v>0.46055384615384609</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <f>M21*1.05</f>
         <v>0.4835815384615384</v>
       </c>
-      <c r="O21" s="5">
+      <c r="O21" s="4">
         <f t="shared" ref="O21:R21" si="44">N21*1.05</f>
         <v>0.50776061538461537</v>
       </c>
-      <c r="P21" s="5">
+      <c r="P21" s="4">
         <f t="shared" si="44"/>
         <v>0.53314864615384616</v>
       </c>
-      <c r="Q21" s="5">
+      <c r="Q21" s="4">
         <f t="shared" si="44"/>
         <v>0.55980607846153851</v>
       </c>
-      <c r="R21" s="5">
+      <c r="R21" s="4">
         <f t="shared" si="44"/>
         <v>0.58779638238461551</v>
       </c>
-      <c r="T21" s="2" t="s">
+      <c r="T21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U21" s="2">
+      <c r="U21" s="1">
         <f>U20/Sheet1!D3</f>
         <v>1027.5998568434225</v>
       </c>
     </row>
-    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="4">
         <f t="shared" ref="K22:R22" si="45">K9/K2</f>
         <v>0.17851370372127592</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <f t="shared" si="45"/>
         <v>0.20624316125646075</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="4">
         <f t="shared" si="45"/>
         <v>0.26710512820512816</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <f t="shared" si="45"/>
         <v>0.29013282051282047</v>
       </c>
-      <c r="O22" s="5">
+      <c r="O22" s="4">
         <f t="shared" si="45"/>
         <v>0.31431189743589749</v>
       </c>
-      <c r="P22" s="5">
+      <c r="P22" s="4">
         <f t="shared" si="45"/>
         <v>0.33969992820512823</v>
       </c>
-      <c r="Q22" s="5">
+      <c r="Q22" s="4">
         <f t="shared" si="45"/>
         <v>0.36635736051282058</v>
       </c>
-      <c r="R22" s="5">
+      <c r="R22" s="4">
         <f t="shared" si="45"/>
         <v>0.39434766443589758</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="T22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="U22" s="5">
+      <c r="U22" s="4">
         <f>U21/Sheet1!D2-1</f>
         <v>2.0456660221869427E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-    </row>
-    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>2026</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>7274</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>7361</v>
       </c>
     </row>
-    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <f>407+911</f>
         <v>1318</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <f>348+504</f>
         <v>852</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <f>439+1742</f>
         <v>2181</v>
       </c>
     </row>
-    <row r="26" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:118" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -2370,94 +2384,94 @@
         <v>99089.077553338546</v>
       </c>
     </row>
-    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="K27" s="5">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="K27" s="4">
         <f>K26/K14</f>
         <v>0.15723549791241009</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="4">
         <f>L26/L14</f>
         <v>1.1868854882826931</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="4">
         <f>M26/M14</f>
         <v>0.59459583553341455</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>1.2</v>
       </c>
-      <c r="O27" s="5">
+      <c r="O27" s="4">
         <f>N27*1.01</f>
         <v>1.212</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="4">
         <f t="shared" ref="P27:R27" si="50">O27*1.01</f>
         <v>1.2241199999999999</v>
       </c>
-      <c r="Q27" s="5">
+      <c r="Q27" s="4">
         <f t="shared" si="50"/>
         <v>1.2363611999999999</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R27" s="4">
         <f t="shared" si="50"/>
         <v>1.2487248119999999</v>
       </c>
     </row>
-    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="1">
         <f>E30-E32</f>
         <v>-8547.5999999999985</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <f>M30-M32</f>
         <v>-8547.5999999999985</v>
       </c>
-      <c r="N28" s="2">
+      <c r="N28" s="1">
         <f>M28+N14</f>
         <v>1847.3355323076921</v>
       </c>
-      <c r="O28" s="2">
+      <c r="O28" s="1">
         <f t="shared" ref="O28:R28" si="51">N28+O14</f>
         <v>15522.179145393229</v>
       </c>
-      <c r="P28" s="2">
+      <c r="P28" s="1">
         <f t="shared" si="51"/>
         <v>33308.111375475833</v>
       </c>
-      <c r="Q28" s="2">
+      <c r="Q28" s="1">
         <f t="shared" si="51"/>
         <v>56233.857808374378</v>
       </c>
-      <c r="R28" s="2">
+      <c r="R28" s="1">
         <f t="shared" si="51"/>
         <v>85571.260764390012</v>
       </c>
     </row>
-    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <f>7804.7+1779</f>
         <v>9583.7000000000007</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <f>7804.7+1779</f>
         <v>9583.7000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <f>1780.8+13798.3+2552.2</f>
         <v>18131.3</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <f>1780.8+13798.3+2552.2</f>
         <v>18131.3</v>
       </c>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C68120-92CA-4CA2-B9E3-3AB1A898FD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B22F39-BCC3-476F-93BB-CC787AF5A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4815" yWindow="210" windowWidth="21120" windowHeight="14670" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
+    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -672,8 +672,8 @@
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>1007</v>
+      <c r="D2" s="5">
+        <v>1185</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -693,7 +693,7 @@
       </c>
       <c r="D4" s="1">
         <f>D3*D2</f>
-        <v>430751.39969999995</v>
+        <v>506892.16349999997</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -726,7 +726,7 @@
       </c>
       <c r="D7" s="1">
         <f>D4+D6-D5</f>
-        <v>439298.99969999993</v>
+        <v>515439.76349999994</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
       </c>
       <c r="D8" s="9">
         <f>D2/Sheet2!M16</f>
-        <v>49.588259601919233</v>
+        <v>58.353612341881124</v>
       </c>
     </row>
   </sheetData>
@@ -751,7 +751,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S1" sqref="S1:W1"/>
+      <selection pane="bottomRight" activeCell="T22" sqref="T21:X22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1134,23 +1134,23 @@
       </c>
       <c r="N11" s="1">
         <f>M28*$U$17</f>
-        <v>-512.85599999999988</v>
+        <v>-341.90399999999994</v>
       </c>
       <c r="O11" s="1">
         <f t="shared" ref="O11:R11" si="24">N28*$U$17</f>
-        <v>110.84013193846152</v>
+        <v>79.4322660923077</v>
       </c>
       <c r="P11" s="1">
         <f t="shared" si="24"/>
-        <v>931.33074872359373</v>
+        <v>625.40839576231383</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="24"/>
-        <v>1998.4866825285499</v>
+        <v>1326.9338007296724</v>
       </c>
       <c r="R11" s="1">
         <f t="shared" si="24"/>
-        <v>3374.0314685024628</v>
+        <v>2222.2053446753307</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.2">
@@ -1171,23 +1171,23 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" ref="N12" si="26">N9+SUM(N10:N11)</f>
-        <v>12833.253743589741</v>
+        <v>13004.20574358974</v>
       </c>
       <c r="O12" s="1">
         <f t="shared" ref="O12" si="27">O9+SUM(O10:O11)</f>
-        <v>16882.522979117948</v>
+        <v>16851.115113271793</v>
       </c>
       <c r="P12" s="1">
         <f t="shared" ref="P12" si="28">P9+SUM(P10:P11)</f>
-        <v>21957.941024793334</v>
+        <v>21652.018671832055</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ref="Q12" si="29">Q9+SUM(Q10:Q11)</f>
-        <v>28303.390657899439</v>
+        <v>27631.837776100561</v>
       </c>
       <c r="R12" s="1">
         <f t="shared" ref="R12" si="30">R9+SUM(R10:R11)</f>
-        <v>36219.015995081034</v>
+        <v>35067.189871253897</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.2">
@@ -1205,23 +1205,23 @@
       </c>
       <c r="N13" s="1">
         <f>N12*N19</f>
-        <v>2438.3182112820509</v>
+        <v>2470.7990912820505</v>
       </c>
       <c r="O13" s="1">
         <f t="shared" ref="O13:R13" si="31">O12*O19</f>
-        <v>3207.6793660324101</v>
+        <v>3201.7118715216407</v>
       </c>
       <c r="P13" s="1">
         <f t="shared" si="31"/>
-        <v>4172.0087947107331</v>
+        <v>4113.8835476480908</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="31"/>
-        <v>5377.6442250008931</v>
+        <v>5250.0491774591064</v>
       </c>
       <c r="R13" s="1">
         <f t="shared" si="31"/>
-        <v>6881.6130390653962</v>
+        <v>6662.7660755382403</v>
       </c>
     </row>
     <row r="14" spans="1:118" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -1242,423 +1242,423 @@
       </c>
       <c r="N14" s="3">
         <f t="shared" ref="N14" si="33">N12-N13</f>
-        <v>10394.935532307691</v>
+        <v>10533.406652307691</v>
       </c>
       <c r="O14" s="3">
         <f t="shared" ref="O14" si="34">O12-O13</f>
-        <v>13674.843613085537</v>
+        <v>13649.403241750153</v>
       </c>
       <c r="P14" s="3">
         <f t="shared" ref="P14" si="35">P12-P13</f>
-        <v>17785.932230082602</v>
+        <v>17538.135124183966</v>
       </c>
       <c r="Q14" s="3">
         <f t="shared" ref="Q14" si="36">Q12-Q13</f>
-        <v>22925.746432898544</v>
+        <v>22381.788598641455</v>
       </c>
       <c r="R14" s="3">
         <f t="shared" ref="R14" si="37">R12-R13</f>
-        <v>29337.402956015638</v>
+        <v>28404.423795715658</v>
       </c>
       <c r="S14" s="3">
         <f>R14*(1+$U$18)</f>
-        <v>29630.776985575794</v>
+        <v>28972.51227162997</v>
       </c>
       <c r="T14" s="3">
         <f t="shared" ref="T14:CE14" si="38">S14*(1+$U$18)</f>
-        <v>29927.084755431551</v>
+        <v>29551.96251706257</v>
       </c>
       <c r="U14" s="3">
         <f t="shared" si="38"/>
-        <v>30226.355602985866</v>
+        <v>30143.001767403821</v>
       </c>
       <c r="V14" s="3">
         <f t="shared" si="38"/>
-        <v>30528.619159015725</v>
+        <v>30745.861802751897</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="38"/>
-        <v>30833.905350605881</v>
+        <v>31360.779038806937</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" si="38"/>
-        <v>31142.244404111942</v>
+        <v>31987.994619583078</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" si="38"/>
-        <v>31453.666848153061</v>
+        <v>32627.754511974741</v>
       </c>
       <c r="Z14" s="3">
         <f t="shared" si="38"/>
-        <v>31768.203516634592</v>
+        <v>33280.309602214234</v>
       </c>
       <c r="AA14" s="3">
         <f t="shared" si="38"/>
-        <v>32085.885551800937</v>
+        <v>33945.915794258523</v>
       </c>
       <c r="AB14" s="3">
         <f t="shared" si="38"/>
-        <v>32406.744407318947</v>
+        <v>34624.834110143696</v>
       </c>
       <c r="AC14" s="3">
         <f t="shared" si="38"/>
-        <v>32730.811851392136</v>
+        <v>35317.330792346569</v>
       </c>
       <c r="AD14" s="3">
         <f t="shared" si="38"/>
-        <v>33058.11996990606</v>
+        <v>36023.6774081935</v>
       </c>
       <c r="AE14" s="3">
         <f t="shared" si="38"/>
-        <v>33388.70116960512</v>
+        <v>36744.150956357371</v>
       </c>
       <c r="AF14" s="3">
         <f t="shared" si="38"/>
-        <v>33722.588181301173</v>
+        <v>37479.033975484519</v>
       </c>
       <c r="AG14" s="3">
         <f t="shared" si="38"/>
-        <v>34059.814063114187</v>
+        <v>38228.614654994213</v>
       </c>
       <c r="AH14" s="3">
         <f t="shared" si="38"/>
-        <v>34400.412203745327</v>
+        <v>38993.186948094095</v>
       </c>
       <c r="AI14" s="3">
         <f t="shared" si="38"/>
-        <v>34744.416325782782</v>
+        <v>39773.050687055977</v>
       </c>
       <c r="AJ14" s="3">
         <f t="shared" si="38"/>
-        <v>35091.860489040613</v>
+        <v>40568.511700797098</v>
       </c>
       <c r="AK14" s="3">
         <f t="shared" si="38"/>
-        <v>35442.779093931022</v>
+        <v>41379.881934813042</v>
       </c>
       <c r="AL14" s="3">
         <f t="shared" si="38"/>
-        <v>35797.206884870335</v>
+        <v>42207.479573509307</v>
       </c>
       <c r="AM14" s="3">
         <f t="shared" si="38"/>
-        <v>36155.178953719042</v>
+        <v>43051.629164979495</v>
       </c>
       <c r="AN14" s="3">
         <f t="shared" si="38"/>
-        <v>36516.73074325623</v>
+        <v>43912.661748279083</v>
       </c>
       <c r="AO14" s="3">
         <f t="shared" si="38"/>
-        <v>36881.898050688789</v>
+        <v>44790.914983244664</v>
       </c>
       <c r="AP14" s="3">
         <f t="shared" si="38"/>
-        <v>37250.71703119568</v>
+        <v>45686.733282909561</v>
       </c>
       <c r="AQ14" s="3">
         <f t="shared" si="38"/>
-        <v>37623.224201507634</v>
+        <v>46600.467948567755</v>
       </c>
       <c r="AR14" s="3">
         <f t="shared" si="38"/>
-        <v>37999.456443522708</v>
+        <v>47532.477307539113</v>
       </c>
       <c r="AS14" s="3">
         <f t="shared" si="38"/>
-        <v>38379.451007957934</v>
+        <v>48483.126853689893</v>
       </c>
       <c r="AT14" s="3">
         <f t="shared" si="38"/>
-        <v>38763.245518037511</v>
+        <v>49452.78939076369</v>
       </c>
       <c r="AU14" s="3">
         <f t="shared" si="38"/>
-        <v>39150.877973217888</v>
+        <v>50441.845178578966</v>
       </c>
       <c r="AV14" s="3">
         <f t="shared" si="38"/>
-        <v>39542.386752950064</v>
+        <v>51450.682082150546</v>
       </c>
       <c r="AW14" s="3">
         <f t="shared" si="38"/>
-        <v>39937.810620479562</v>
+        <v>52479.695723793557</v>
       </c>
       <c r="AX14" s="3">
         <f t="shared" si="38"/>
-        <v>40337.188726684355</v>
+        <v>53529.289638269431</v>
       </c>
       <c r="AY14" s="3">
         <f t="shared" si="38"/>
-        <v>40740.560613951202</v>
+        <v>54599.875431034823</v>
       </c>
       <c r="AZ14" s="3">
         <f t="shared" si="38"/>
-        <v>41147.966220090711</v>
+        <v>55691.872939655521</v>
       </c>
       <c r="BA14" s="3">
         <f t="shared" si="38"/>
-        <v>41559.44588229162</v>
+        <v>56805.710398448631</v>
       </c>
       <c r="BB14" s="3">
         <f t="shared" si="38"/>
-        <v>41975.040341114538</v>
+        <v>57941.824606417606</v>
       </c>
       <c r="BC14" s="3">
         <f t="shared" si="38"/>
-        <v>42394.790744525686</v>
+        <v>59100.661098545956</v>
       </c>
       <c r="BD14" s="3">
         <f t="shared" si="38"/>
-        <v>42818.73865197094</v>
+        <v>60282.674320516875</v>
       </c>
       <c r="BE14" s="3">
         <f t="shared" si="38"/>
-        <v>43246.926038490652</v>
+        <v>61488.327806927213</v>
       </c>
       <c r="BF14" s="3">
         <f t="shared" si="38"/>
-        <v>43679.395298875555</v>
+        <v>62718.094363065757</v>
       </c>
       <c r="BG14" s="3">
         <f t="shared" si="38"/>
-        <v>44116.189251864314</v>
+        <v>63972.456250327072</v>
       </c>
       <c r="BH14" s="3">
         <f t="shared" si="38"/>
-        <v>44557.351144382956</v>
+        <v>65251.905375333612</v>
       </c>
       <c r="BI14" s="3">
         <f t="shared" si="38"/>
-        <v>45002.924655826784</v>
+        <v>66556.943482840288</v>
       </c>
       <c r="BJ14" s="3">
         <f t="shared" si="38"/>
-        <v>45452.953902385052</v>
+        <v>67888.082352497091</v>
       </c>
       <c r="BK14" s="3">
         <f t="shared" si="38"/>
-        <v>45907.483441408905</v>
+        <v>69245.84399954704</v>
       </c>
       <c r="BL14" s="3">
         <f t="shared" si="38"/>
-        <v>46366.558275822994</v>
+        <v>70630.760879537978</v>
       </c>
       <c r="BM14" s="3">
         <f t="shared" si="38"/>
-        <v>46830.223858581223</v>
+        <v>72043.376097128741</v>
       </c>
       <c r="BN14" s="3">
         <f t="shared" si="38"/>
-        <v>47298.526097167036</v>
+        <v>73484.24361907132</v>
       </c>
       <c r="BO14" s="3">
         <f t="shared" si="38"/>
-        <v>47771.511358138705</v>
+        <v>74953.928491452752</v>
       </c>
       <c r="BP14" s="3">
         <f t="shared" si="38"/>
-        <v>48249.226471720096</v>
+        <v>76453.007061281809</v>
       </c>
       <c r="BQ14" s="3">
         <f t="shared" si="38"/>
-        <v>48731.718736437295</v>
+        <v>77982.067202507445</v>
       </c>
       <c r="BR14" s="3">
         <f t="shared" si="38"/>
-        <v>49219.035923801668</v>
+        <v>79541.708546557595</v>
       </c>
       <c r="BS14" s="3">
         <f t="shared" si="38"/>
-        <v>49711.226283039687</v>
+        <v>81132.542717488745</v>
       </c>
       <c r="BT14" s="3">
         <f t="shared" si="38"/>
-        <v>50208.338545870087</v>
+        <v>82755.193571838521</v>
       </c>
       <c r="BU14" s="3">
         <f t="shared" si="38"/>
-        <v>50710.42193132879</v>
+        <v>84410.297443275296</v>
       </c>
       <c r="BV14" s="3">
         <f t="shared" si="38"/>
-        <v>51217.526150642079</v>
+        <v>86098.503392140803</v>
       </c>
       <c r="BW14" s="3">
         <f t="shared" si="38"/>
-        <v>51729.701412148497</v>
+        <v>87820.473459983623</v>
       </c>
       <c r="BX14" s="3">
         <f t="shared" si="38"/>
-        <v>52246.99842626998</v>
+        <v>89576.882929183295</v>
       </c>
       <c r="BY14" s="3">
         <f t="shared" si="38"/>
-        <v>52769.468410532681</v>
+        <v>91368.420587766959</v>
       </c>
       <c r="BZ14" s="3">
         <f t="shared" si="38"/>
-        <v>53297.16309463801</v>
+        <v>93195.788999522294</v>
       </c>
       <c r="CA14" s="3">
         <f t="shared" si="38"/>
-        <v>53830.134725584394</v>
+        <v>95059.704779512744</v>
       </c>
       <c r="CB14" s="3">
         <f t="shared" si="38"/>
-        <v>54368.436072840239</v>
+        <v>96960.898875102997</v>
       </c>
       <c r="CC14" s="3">
         <f t="shared" si="38"/>
-        <v>54912.120433568642</v>
+        <v>98900.116852605061</v>
       </c>
       <c r="CD14" s="3">
         <f t="shared" si="38"/>
-        <v>55461.241637904328</v>
+        <v>100878.11918965717</v>
       </c>
       <c r="CE14" s="3">
         <f t="shared" si="38"/>
-        <v>56015.854054283373</v>
+        <v>102895.68157345032</v>
       </c>
       <c r="CF14" s="3">
         <f t="shared" ref="CF14:DN14" si="39">CE14*(1+$U$18)</f>
-        <v>56576.012594826207</v>
+        <v>104953.59520491933</v>
       </c>
       <c r="CG14" s="3">
         <f t="shared" si="39"/>
-        <v>57141.772720774468</v>
+        <v>107052.66710901771</v>
       </c>
       <c r="CH14" s="3">
         <f t="shared" si="39"/>
-        <v>57713.190447982211</v>
+        <v>109193.72045119807</v>
       </c>
       <c r="CI14" s="3">
         <f t="shared" si="39"/>
-        <v>58290.322352462033</v>
+        <v>111377.59486022203</v>
       </c>
       <c r="CJ14" s="3">
         <f t="shared" si="39"/>
-        <v>58873.225575986653</v>
+        <v>113605.14675742647</v>
       </c>
       <c r="CK14" s="3">
         <f t="shared" si="39"/>
-        <v>59461.95783174652</v>
+        <v>115877.249692575</v>
       </c>
       <c r="CL14" s="3">
         <f t="shared" si="39"/>
-        <v>60056.577410063983</v>
+        <v>118194.79468642651</v>
       </c>
       <c r="CM14" s="3">
         <f t="shared" si="39"/>
-        <v>60657.143184164626</v>
+        <v>120558.69058015505</v>
       </c>
       <c r="CN14" s="3">
         <f t="shared" si="39"/>
-        <v>61263.714616006277</v>
+        <v>122969.86439175815</v>
       </c>
       <c r="CO14" s="3">
         <f t="shared" si="39"/>
-        <v>61876.351762166341</v>
+        <v>125429.26167959331</v>
       </c>
       <c r="CP14" s="3">
         <f t="shared" si="39"/>
-        <v>62495.115279788006</v>
+        <v>127937.84691318519</v>
       </c>
       <c r="CQ14" s="3">
         <f t="shared" si="39"/>
-        <v>63120.066432585889</v>
+        <v>130496.60385144889</v>
       </c>
       <c r="CR14" s="3">
         <f t="shared" si="39"/>
-        <v>63751.267096911746</v>
+        <v>133106.53592847788</v>
       </c>
       <c r="CS14" s="3">
         <f t="shared" si="39"/>
-        <v>64388.779767880864</v>
+        <v>135768.66664704744</v>
       </c>
       <c r="CT14" s="3">
         <f t="shared" si="39"/>
-        <v>65032.66756555967</v>
+        <v>138484.03997998839</v>
       </c>
       <c r="CU14" s="3">
         <f t="shared" si="39"/>
-        <v>65682.994241215274</v>
+        <v>141253.72077958815</v>
       </c>
       <c r="CV14" s="3">
         <f t="shared" si="39"/>
-        <v>66339.824183627425</v>
+        <v>144078.79519517993</v>
       </c>
       <c r="CW14" s="3">
         <f t="shared" si="39"/>
-        <v>67003.222425463697</v>
+        <v>146960.37109908354</v>
       </c>
       <c r="CX14" s="3">
         <f t="shared" si="39"/>
-        <v>67673.254649718336</v>
+        <v>149899.57852106521</v>
       </c>
       <c r="CY14" s="3">
         <f t="shared" si="39"/>
-        <v>68349.987196215516</v>
+        <v>152897.57009148653</v>
       </c>
       <c r="CZ14" s="3">
         <f t="shared" si="39"/>
-        <v>69033.487068177667</v>
+        <v>155955.52149331625</v>
       </c>
       <c r="DA14" s="3">
         <f t="shared" si="39"/>
-        <v>69723.821938859444</v>
+        <v>159074.63192318258</v>
       </c>
       <c r="DB14" s="3">
         <f t="shared" si="39"/>
-        <v>70421.060158248045</v>
+        <v>162256.12456164623</v>
       </c>
       <c r="DC14" s="3">
         <f t="shared" si="39"/>
-        <v>71125.270759830528</v>
+        <v>165501.24705287916</v>
       </c>
       <c r="DD14" s="3">
         <f t="shared" si="39"/>
-        <v>71836.523467428837</v>
+        <v>168811.27199393674</v>
       </c>
       <c r="DE14" s="3">
         <f t="shared" si="39"/>
-        <v>72554.888702103126</v>
+        <v>172187.49743381547</v>
       </c>
       <c r="DF14" s="3">
         <f t="shared" si="39"/>
-        <v>73280.437589124151</v>
+        <v>175631.2473824918</v>
       </c>
       <c r="DG14" s="3">
         <f t="shared" si="39"/>
-        <v>74013.24196501539</v>
+        <v>179143.87233014163</v>
       </c>
       <c r="DH14" s="3">
         <f t="shared" si="39"/>
-        <v>74753.374384665542</v>
+        <v>182726.74977674446</v>
       </c>
       <c r="DI14" s="3">
         <f t="shared" si="39"/>
-        <v>75500.908128512194</v>
+        <v>186381.28477227935</v>
       </c>
       <c r="DJ14" s="3">
         <f t="shared" si="39"/>
-        <v>76255.917209797321</v>
+        <v>190108.91046772496</v>
       </c>
       <c r="DK14" s="3">
         <f t="shared" si="39"/>
-        <v>77018.476381895292</v>
+        <v>193911.08867707945</v>
       </c>
       <c r="DL14" s="3">
         <f t="shared" si="39"/>
-        <v>77788.661145714243</v>
+        <v>197789.31045062104</v>
       </c>
       <c r="DM14" s="3">
         <f t="shared" si="39"/>
-        <v>78566.547757171385</v>
+        <v>201745.09665963345</v>
       </c>
       <c r="DN14" s="3">
         <f t="shared" si="39"/>
-        <v>79352.213234743103</v>
+        <v>205779.99859282613</v>
       </c>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.2">
@@ -1711,31 +1711,31 @@
       </c>
       <c r="N16" s="5">
         <f t="shared" si="40"/>
-        <v>24.230618956428184</v>
+        <v>24.553395459924687</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="40"/>
-        <v>31.876092338194724</v>
+        <v>31.81679077331038</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" si="40"/>
-        <v>41.459049487372035</v>
+        <v>40.881433855906678</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" si="40"/>
-        <v>53.439968375054882</v>
+        <v>52.172001395434627</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" si="40"/>
-        <v>68.385554676027127</v>
+        <v>66.210778078591275</v>
       </c>
     </row>
     <row r="17" spans="1:118" x14ac:dyDescent="0.2">
       <c r="T17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U17" s="4">
-        <v>0.06</v>
+      <c r="U17" s="6">
+        <v>0.04</v>
       </c>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.2">
@@ -1773,8 +1773,8 @@
       <c r="T18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="4">
-        <v>0.01</v>
+      <c r="U18" s="6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.2">
@@ -1812,7 +1812,7 @@
         <v>33</v>
       </c>
       <c r="U19" s="6">
-        <v>0.08</v>
+        <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.2">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="U20" s="1">
         <f>NPV(U19,N26:XFD26)+Sheet1!D5-Sheet1!D6</f>
-        <v>439563.13472375751</v>
+        <v>446912.05725859012</v>
       </c>
     </row>
     <row r="21" spans="1:118" x14ac:dyDescent="0.2">
@@ -1863,9 +1863,9 @@
       <c r="T21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U21" s="5">
         <f>U20/Sheet1!D3</f>
-        <v>1027.5998568434225</v>
+        <v>1044.7799867228157</v>
       </c>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.2">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="U22" s="4">
         <f>U21/Sheet1!D2-1</f>
-        <v>2.0456660221869427E-2</v>
+        <v>-0.11832912512842553</v>
       </c>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.2">
@@ -1965,423 +1965,423 @@
       </c>
       <c r="N26" s="3">
         <f>N27*N14</f>
-        <v>12473.922638769229</v>
+        <v>12640.087982769228</v>
       </c>
       <c r="O26" s="3">
         <f t="shared" ref="O26:R26" si="47">O27*O14</f>
-        <v>16573.910459059669</v>
+        <v>16543.076729001186</v>
       </c>
       <c r="P26" s="3">
         <f t="shared" si="47"/>
-        <v>21772.115361488712</v>
+        <v>21468.781968216073</v>
       </c>
       <c r="Q26" s="3">
         <f t="shared" si="47"/>
-        <v>28344.503370674163</v>
+        <v>27671.975009962665</v>
       </c>
       <c r="R26" s="3">
         <f t="shared" si="47"/>
-        <v>36634.34299081887</v>
+        <v>35469.308764273359</v>
       </c>
       <c r="S26" s="3">
         <f>R26*(1+$U$18)</f>
-        <v>37000.686420727056</v>
+        <v>36178.694939558824</v>
       </c>
       <c r="T26" s="3">
         <f t="shared" ref="T26:CE26" si="48">S26*(1+$U$18)</f>
-        <v>37370.693284934328</v>
+        <v>36902.268838349999</v>
       </c>
       <c r="U26" s="3">
         <f t="shared" si="48"/>
-        <v>37744.400217783674</v>
+        <v>37640.314215117003</v>
       </c>
       <c r="V26" s="3">
         <f t="shared" si="48"/>
-        <v>38121.844219961509</v>
+        <v>38393.120499419347</v>
       </c>
       <c r="W26" s="3">
         <f t="shared" si="48"/>
-        <v>38503.062662161123</v>
+        <v>39160.982909407736</v>
       </c>
       <c r="X26" s="3">
         <f t="shared" si="48"/>
-        <v>38888.093288782737</v>
+        <v>39944.202567595894</v>
       </c>
       <c r="Y26" s="3">
         <f t="shared" si="48"/>
-        <v>39276.974221670564</v>
+        <v>40743.086618947811</v>
       </c>
       <c r="Z26" s="3">
         <f t="shared" si="48"/>
-        <v>39669.743963887267</v>
+        <v>41557.94835132677</v>
       </c>
       <c r="AA26" s="3">
         <f t="shared" si="48"/>
-        <v>40066.441403526143</v>
+        <v>42389.107318353308</v>
       </c>
       <c r="AB26" s="3">
         <f t="shared" si="48"/>
-        <v>40467.105817561402</v>
+        <v>43236.889464720378</v>
       </c>
       <c r="AC26" s="3">
         <f t="shared" si="48"/>
-        <v>40871.776875737014</v>
+        <v>44101.627254014784</v>
       </c>
       <c r="AD26" s="3">
         <f t="shared" si="48"/>
-        <v>41280.494644494385</v>
+        <v>44983.659799095083</v>
       </c>
       <c r="AE26" s="3">
         <f t="shared" si="48"/>
-        <v>41693.299590939328</v>
+        <v>45883.332995076984</v>
       </c>
       <c r="AF26" s="3">
         <f t="shared" si="48"/>
-        <v>42110.232586848724</v>
+        <v>46800.999654978521</v>
       </c>
       <c r="AG26" s="3">
         <f t="shared" si="48"/>
-        <v>42531.334912717211</v>
+        <v>47737.019648078094</v>
       </c>
       <c r="AH26" s="3">
         <f t="shared" si="48"/>
-        <v>42956.648261844384</v>
+        <v>48691.760041039655</v>
       </c>
       <c r="AI26" s="3">
         <f t="shared" si="48"/>
-        <v>43386.214744462828</v>
+        <v>49665.59524186045</v>
       </c>
       <c r="AJ26" s="3">
         <f t="shared" si="48"/>
-        <v>43820.076891907454</v>
+        <v>50658.90714669766</v>
       </c>
       <c r="AK26" s="3">
         <f t="shared" si="48"/>
-        <v>44258.277660826527</v>
+        <v>51672.085289631614</v>
       </c>
       <c r="AL26" s="3">
         <f t="shared" si="48"/>
-        <v>44700.860437434792</v>
+        <v>52705.526995424247</v>
       </c>
       <c r="AM26" s="3">
         <f t="shared" si="48"/>
-        <v>45147.869041809143</v>
+        <v>53759.637535332731</v>
       </c>
       <c r="AN26" s="3">
         <f t="shared" si="48"/>
-        <v>45599.347732227237</v>
+        <v>54834.830286039389</v>
       </c>
       <c r="AO26" s="3">
         <f t="shared" si="48"/>
-        <v>46055.341209549508</v>
+        <v>55931.526891760179</v>
       </c>
       <c r="AP26" s="3">
         <f t="shared" si="48"/>
-        <v>46515.894621645006</v>
+        <v>57050.157429595383</v>
       </c>
       <c r="AQ26" s="3">
         <f t="shared" si="48"/>
-        <v>46981.053567861454</v>
+        <v>58191.160578187293</v>
       </c>
       <c r="AR26" s="3">
         <f t="shared" si="48"/>
-        <v>47450.864103540072</v>
+        <v>59354.983789751037</v>
       </c>
       <c r="AS26" s="3">
         <f t="shared" si="48"/>
-        <v>47925.37274457547</v>
+        <v>60542.083465546057</v>
       </c>
       <c r="AT26" s="3">
         <f t="shared" si="48"/>
-        <v>48404.626472021228</v>
+        <v>61752.925134856981</v>
       </c>
       <c r="AU26" s="3">
         <f t="shared" si="48"/>
-        <v>48888.672736741442</v>
+        <v>62987.98363755412</v>
       </c>
       <c r="AV26" s="3">
         <f t="shared" si="48"/>
-        <v>49377.559464108854</v>
+        <v>64247.743310305203</v>
       </c>
       <c r="AW26" s="3">
         <f t="shared" si="48"/>
-        <v>49871.335058749944</v>
+        <v>65532.698176511309</v>
       </c>
       <c r="AX26" s="3">
         <f t="shared" si="48"/>
-        <v>50370.048409337447</v>
+        <v>66843.352140041534</v>
       </c>
       <c r="AY26" s="3">
         <f t="shared" si="48"/>
-        <v>50873.74889343082</v>
+        <v>68180.219182842367</v>
       </c>
       <c r="AZ26" s="3">
         <f t="shared" si="48"/>
-        <v>51382.486382365132</v>
+        <v>69543.82356649921</v>
       </c>
       <c r="BA26" s="3">
         <f t="shared" si="48"/>
-        <v>51896.311246188787</v>
+        <v>70934.7000378292</v>
       </c>
       <c r="BB26" s="3">
         <f t="shared" si="48"/>
-        <v>52415.274358650677</v>
+        <v>72353.394038585786</v>
       </c>
       <c r="BC26" s="3">
         <f t="shared" si="48"/>
-        <v>52939.427102237183</v>
+        <v>73800.461919357505</v>
       </c>
       <c r="BD26" s="3">
         <f t="shared" si="48"/>
-        <v>53468.821373259554</v>
+        <v>75276.471157744658</v>
       </c>
       <c r="BE26" s="3">
         <f t="shared" si="48"/>
-        <v>54003.50958699215</v>
+        <v>76782.000580899548</v>
       </c>
       <c r="BF26" s="3">
         <f t="shared" si="48"/>
-        <v>54543.54468286207</v>
+        <v>78317.640592517535</v>
       </c>
       <c r="BG26" s="3">
         <f t="shared" si="48"/>
-        <v>55088.980129690688</v>
+        <v>79883.99340436788</v>
       </c>
       <c r="BH26" s="3">
         <f t="shared" si="48"/>
-        <v>55639.869930987596</v>
+        <v>81481.673272455242</v>
       </c>
       <c r="BI26" s="3">
         <f t="shared" si="48"/>
-        <v>56196.268630297469</v>
+        <v>83111.30673790435</v>
       </c>
       <c r="BJ26" s="3">
         <f t="shared" si="48"/>
-        <v>56758.231316600446</v>
+        <v>84773.532872662443</v>
       </c>
       <c r="BK26" s="3">
         <f t="shared" si="48"/>
-        <v>57325.813629766453</v>
+        <v>86469.00353011569</v>
       </c>
       <c r="BL26" s="3">
         <f t="shared" si="48"/>
-        <v>57899.071766064117</v>
+        <v>88198.383600718007</v>
       </c>
       <c r="BM26" s="3">
         <f t="shared" si="48"/>
-        <v>58478.06248372476</v>
+        <v>89962.351272732369</v>
       </c>
       <c r="BN26" s="3">
         <f t="shared" si="48"/>
-        <v>59062.84310856201</v>
+        <v>91761.598298187018</v>
       </c>
       <c r="BO26" s="3">
         <f t="shared" si="48"/>
-        <v>59653.471539647631</v>
+        <v>93596.830264150762</v>
       </c>
       <c r="BP26" s="3">
         <f t="shared" si="48"/>
-        <v>60250.006255044107</v>
+        <v>95468.766869433777</v>
       </c>
       <c r="BQ26" s="3">
         <f t="shared" si="48"/>
-        <v>60852.506317594547</v>
+        <v>97378.142206822449</v>
       </c>
       <c r="BR26" s="3">
         <f t="shared" si="48"/>
-        <v>61461.031380770495</v>
+        <v>99325.705050958903</v>
       </c>
       <c r="BS26" s="3">
         <f t="shared" si="48"/>
-        <v>62075.641694578204</v>
+        <v>101312.21915197808</v>
       </c>
       <c r="BT26" s="3">
         <f t="shared" si="48"/>
-        <v>62696.398111523988</v>
+        <v>103338.46353501764</v>
       </c>
       <c r="BU26" s="3">
         <f t="shared" si="48"/>
-        <v>63323.362092639225</v>
+        <v>105405.232805718</v>
       </c>
       <c r="BV26" s="3">
         <f t="shared" si="48"/>
-        <v>63956.595713565621</v>
+        <v>107513.33746183236</v>
       </c>
       <c r="BW26" s="3">
         <f t="shared" si="48"/>
-        <v>64596.16167070128</v>
+        <v>109663.604211069</v>
       </c>
       <c r="BX26" s="3">
         <f t="shared" si="48"/>
-        <v>65242.123287408293</v>
+        <v>111856.87629529038</v>
       </c>
       <c r="BY26" s="3">
         <f t="shared" si="48"/>
-        <v>65894.544520282376</v>
+        <v>114094.01382119619</v>
       </c>
       <c r="BZ26" s="3">
         <f t="shared" si="48"/>
-        <v>66553.489965485205</v>
+        <v>116375.89409762011</v>
       </c>
       <c r="CA26" s="3">
         <f t="shared" si="48"/>
-        <v>67219.024865140062</v>
+        <v>118703.41197957251</v>
       </c>
       <c r="CB26" s="3">
         <f t="shared" si="48"/>
-        <v>67891.215113791462</v>
+        <v>121077.48021916396</v>
       </c>
       <c r="CC26" s="3">
         <f t="shared" si="48"/>
-        <v>68570.127264929382</v>
+        <v>123499.02982354724</v>
       </c>
       <c r="CD26" s="3">
         <f t="shared" si="48"/>
-        <v>69255.82853757868</v>
+        <v>125969.0104200182</v>
       </c>
       <c r="CE26" s="3">
         <f t="shared" si="48"/>
-        <v>69948.386822954461</v>
+        <v>128488.39062841857</v>
       </c>
       <c r="CF26" s="3">
         <f t="shared" ref="CF26:DN26" si="49">CE26*(1+$U$18)</f>
-        <v>70647.870691184013</v>
+        <v>131058.15844098694</v>
       </c>
       <c r="CG26" s="3">
         <f t="shared" si="49"/>
-        <v>71354.349398095859</v>
+        <v>133679.32160980668</v>
       </c>
       <c r="CH26" s="3">
         <f t="shared" si="49"/>
-        <v>72067.892892076823</v>
+        <v>136352.90804200282</v>
       </c>
       <c r="CI26" s="3">
         <f t="shared" si="49"/>
-        <v>72788.571820997589</v>
+        <v>139079.96620284289</v>
       </c>
       <c r="CJ26" s="3">
         <f t="shared" si="49"/>
-        <v>73516.457539207564</v>
+        <v>141861.56552689974</v>
       </c>
       <c r="CK26" s="3">
         <f t="shared" si="49"/>
-        <v>74251.622114599639</v>
+        <v>144698.79683743772</v>
       </c>
       <c r="CL26" s="3">
         <f t="shared" si="49"/>
-        <v>74994.138335745636</v>
+        <v>147592.77277418648</v>
       </c>
       <c r="CM26" s="3">
         <f t="shared" si="49"/>
-        <v>75744.079719103087</v>
+        <v>150544.62822967023</v>
       </c>
       <c r="CN26" s="3">
         <f t="shared" si="49"/>
-        <v>76501.520516294113</v>
+        <v>153555.52079426363</v>
       </c>
       <c r="CO26" s="3">
         <f t="shared" si="49"/>
-        <v>77266.535721457054</v>
+        <v>156626.63121014892</v>
       </c>
       <c r="CP26" s="3">
         <f t="shared" si="49"/>
-        <v>78039.201078671627</v>
+        <v>159759.1638343519</v>
       </c>
       <c r="CQ26" s="3">
         <f t="shared" si="49"/>
-        <v>78819.593089458343</v>
+        <v>162954.34711103895</v>
       </c>
       <c r="CR26" s="3">
         <f t="shared" si="49"/>
-        <v>79607.789020352924</v>
+        <v>166213.43405325973</v>
       </c>
       <c r="CS26" s="3">
         <f t="shared" si="49"/>
-        <v>80403.866910556448</v>
+        <v>169537.70273432494</v>
       </c>
       <c r="CT26" s="3">
         <f t="shared" si="49"/>
-        <v>81207.905579662009</v>
+        <v>172928.45678901143</v>
       </c>
       <c r="CU26" s="3">
         <f t="shared" si="49"/>
-        <v>82019.984635458633</v>
+        <v>176387.02592479167</v>
       </c>
       <c r="CV26" s="3">
         <f t="shared" si="49"/>
-        <v>82840.184481813223</v>
+        <v>179914.76644328752</v>
       </c>
       <c r="CW26" s="3">
         <f t="shared" si="49"/>
-        <v>83668.586326631354</v>
+        <v>183513.06177215328</v>
       </c>
       <c r="CX26" s="3">
         <f t="shared" si="49"/>
-        <v>84505.272189897674</v>
+        <v>187183.32300759634</v>
       </c>
       <c r="CY26" s="3">
         <f t="shared" si="49"/>
-        <v>85350.324911796648</v>
+        <v>190926.98946774827</v>
       </c>
       <c r="CZ26" s="3">
         <f t="shared" si="49"/>
-        <v>86203.828160914622</v>
+        <v>194745.52925710325</v>
       </c>
       <c r="DA26" s="3">
         <f t="shared" si="49"/>
-        <v>87065.866442523766</v>
+        <v>198640.43984224531</v>
       </c>
       <c r="DB26" s="3">
         <f t="shared" si="49"/>
-        <v>87936.525106949004</v>
+        <v>202613.24863909022</v>
       </c>
       <c r="DC26" s="3">
         <f t="shared" si="49"/>
-        <v>88815.8903580185</v>
+        <v>206665.51361187204</v>
       </c>
       <c r="DD26" s="3">
         <f t="shared" si="49"/>
-        <v>89704.049261598688</v>
+        <v>210798.82388410947</v>
       </c>
       <c r="DE26" s="3">
         <f t="shared" si="49"/>
-        <v>90601.08975421467</v>
+        <v>215014.80036179165</v>
       </c>
       <c r="DF26" s="3">
         <f t="shared" si="49"/>
-        <v>91507.100651756817</v>
+        <v>219315.09636902748</v>
       </c>
       <c r="DG26" s="3">
         <f t="shared" si="49"/>
-        <v>92422.171658274383</v>
+        <v>223701.39829640804</v>
       </c>
       <c r="DH26" s="3">
         <f t="shared" si="49"/>
-        <v>93346.393374857129</v>
+        <v>228175.4262623362</v>
       </c>
       <c r="DI26" s="3">
         <f t="shared" si="49"/>
-        <v>94279.8573086057</v>
+        <v>232738.93478758293</v>
       </c>
       <c r="DJ26" s="3">
         <f t="shared" si="49"/>
-        <v>95222.655881691753</v>
+        <v>237393.71348333458</v>
       </c>
       <c r="DK26" s="3">
         <f t="shared" si="49"/>
-        <v>96174.882440508678</v>
+        <v>242141.58775300128</v>
       </c>
       <c r="DL26" s="3">
         <f t="shared" si="49"/>
-        <v>97136.631264913769</v>
+        <v>246984.41950806131</v>
       </c>
       <c r="DM26" s="3">
         <f t="shared" si="49"/>
-        <v>98107.997577562914</v>
+        <v>251924.10789822254</v>
       </c>
       <c r="DN26" s="3">
         <f t="shared" si="49"/>
-        <v>99089.077553338546</v>
+        <v>256962.59005618701</v>
       </c>
     </row>
     <row r="27" spans="1:118" x14ac:dyDescent="0.2">
@@ -2431,23 +2431,23 @@
       </c>
       <c r="N28" s="1">
         <f>M28+N14</f>
-        <v>1847.3355323076921</v>
+        <v>1985.8066523076923</v>
       </c>
       <c r="O28" s="1">
         <f t="shared" ref="O28:R28" si="51">N28+O14</f>
-        <v>15522.179145393229</v>
+        <v>15635.209894057845</v>
       </c>
       <c r="P28" s="1">
         <f t="shared" si="51"/>
-        <v>33308.111375475833</v>
+        <v>33173.345018241809</v>
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="51"/>
-        <v>56233.857808374378</v>
+        <v>55555.133616883264</v>
       </c>
       <c r="R28" s="1">
         <f t="shared" si="51"/>
-        <v>85571.260764390012</v>
+        <v>83959.557412598922</v>
       </c>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.2">

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B22F39-BCC3-476F-93BB-CC787AF5A5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA8F24-CF46-474B-8BF6-D2D8B5D9556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6045" yWindow="780" windowWidth="17745" windowHeight="14595" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
-  <si>
-    <t>NFLX</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Price</t>
   </si>
@@ -132,9 +129,6 @@
     <t>Net Cash</t>
   </si>
   <si>
-    <t>Tax Rate</t>
-  </si>
-  <si>
     <t>NPV</t>
   </si>
   <si>
@@ -150,10 +144,19 @@
     <t>ROIC</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>Operating Margin</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>R&amp;D y/y</t>
+  </si>
+  <si>
+    <t>S&amp;M y/y</t>
+  </si>
+  <si>
+    <t>G&amp;A y/y</t>
   </si>
 </sst>
 </file>
@@ -169,14 +172,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -235,15 +238,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
+      <xdr:colOff>588352</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>35902</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>597877</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>8060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -258,8 +261,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7896225" y="28575"/>
-          <a:ext cx="9525" cy="7000875"/>
+          <a:off x="8398852" y="35902"/>
+          <a:ext cx="9525" cy="6258658"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -292,7 +295,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -652,90 +655,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA4D5C2-B026-4303-AE35-0CC5202B93AC}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="I1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O2" s="8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C2" s="8" t="s">
+      <c r="P2" s="5">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="8" t="s">
+      <c r="P3" s="1">
+        <v>425.6832</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
-        <v>427.75709999999998</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="8" t="s">
+      <c r="P4" s="1">
+        <f>P3*P2</f>
+        <v>533381.04960000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
-        <f>D3*D2</f>
-        <v>506892.16349999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C5" s="8" t="s">
+      <c r="P5" s="1">
+        <f>7119.84+1171.1</f>
+        <v>8290.94</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <f>7804.7+1779</f>
-        <v>9583.7000000000007</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" s="8" t="s">
+      <c r="P6" s="1">
+        <f>14011+2633.3+1697</f>
+        <v>18341.3</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <f>1780.8+13798.3+2552.2</f>
-        <v>18131.3</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1">
-        <f>D4+D6-D5</f>
-        <v>515439.76349999994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="9">
-        <f>D2/Sheet2!M16</f>
-        <v>58.353612341881124</v>
+      <c r="P7" s="1">
+        <f>P4+P6-P5</f>
+        <v>543431.40960000013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P8" s="9">
+        <f>P2/Model!M16</f>
+        <v>61.702174062765444</v>
       </c>
     </row>
   </sheetData>
@@ -745,16 +743,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDAC2DB-D73B-4DDE-B84C-DD792E845260}">
-  <dimension ref="A1:DN32"/>
+  <dimension ref="A1:DN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T22" sqref="T21:X22"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.85546875" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="1"/>
@@ -762,22 +760,22 @@
   <sheetData>
     <row r="1" spans="1:118" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="I1" s="2">
         <v>2020</v>
@@ -787,7 +785,7 @@
         <v>2021</v>
       </c>
       <c r="K1" s="2">
-        <f t="shared" ref="K1:R1" si="0">J1+1</f>
+        <f t="shared" ref="K1:S1" si="0">J1+1</f>
         <v>2022</v>
       </c>
       <c r="L1" s="2">
@@ -818,15 +816,18 @@
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="S1" s="2"/>
+      <c r="S1" s="2">
+        <f t="shared" si="0"/>
+        <v>2030</v>
+      </c>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
     </row>
-    <row r="2" spans="1:118" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" s="3">
         <v>31615.5</v>
@@ -845,7 +846,7 @@
         <v>53359.999999999993</v>
       </c>
       <c r="P2" s="3">
-        <f t="shared" ref="P2:R2" si="1">O2*1.16</f>
+        <f t="shared" ref="P2:S2" si="1">O2*1.16</f>
         <v>61897.599999999984</v>
       </c>
       <c r="Q2" s="3">
@@ -856,10 +857,14 @@
         <f t="shared" si="1"/>
         <v>83289.41055999996</v>
       </c>
+      <c r="S2" s="3">
+        <f t="shared" si="1"/>
+        <v>96615.716249599951</v>
+      </c>
     </row>
     <row r="3" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K3" s="1">
         <v>19168.2</v>
@@ -871,29 +876,33 @@
         <v>21038.400000000001</v>
       </c>
       <c r="N3" s="1">
-        <f>N2*(1-N21)</f>
+        <f>N2*(1-N20)</f>
         <v>23755.249230769234</v>
       </c>
       <c r="O3" s="1">
-        <f t="shared" ref="O3:R3" si="2">O2*(1-O21)</f>
+        <f>O2*(1-O20)</f>
         <v>26265.893563076919</v>
       </c>
       <c r="P3" s="1">
-        <f t="shared" si="2"/>
+        <f>P2*(1-P20)</f>
         <v>28896.978359827684</v>
       </c>
       <c r="Q3" s="1">
-        <f t="shared" si="2"/>
+        <f>Q2*(1-Q20)</f>
         <v>31606.458842270113</v>
       </c>
       <c r="R3" s="1">
-        <f t="shared" si="2"/>
+        <f>R2*(1-R20)</f>
         <v>34332.196341884992</v>
+      </c>
+      <c r="S3" s="1">
+        <f>S2*(1-S20)</f>
+        <v>36985.829331935922</v>
       </c>
     </row>
     <row r="4" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="4"/>
       <c r="K4" s="1">
@@ -901,37 +910,41 @@
         <v>12447.3</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:M4" si="3">L2-L3</f>
+        <f t="shared" ref="L4:M4" si="2">L2-L3</f>
         <v>14008.000000000004</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17961.599999999999</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4" si="4">N2-N3</f>
+        <f t="shared" ref="N4" si="3">N2-N3</f>
         <v>22244.750769230766</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4" si="5">O2-O3</f>
+        <f t="shared" ref="O4" si="4">O2-O3</f>
         <v>27094.106436923073</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4" si="6">P2-P3</f>
+        <f t="shared" ref="P4" si="5">P2-P3</f>
         <v>33000.6216401723</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4" si="7">Q2-Q3</f>
+        <f t="shared" ref="Q4" si="6">Q2-Q3</f>
         <v>40194.757157729859</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4" si="8">R2-R3</f>
+        <f t="shared" ref="R4:S4" si="7">R2-R3</f>
         <v>48957.214218114968</v>
+      </c>
+      <c r="S4" s="1">
+        <f t="shared" si="7"/>
+        <v>59629.886917664029</v>
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K5" s="1">
         <v>2530.5</v>
@@ -943,29 +956,33 @@
         <v>2917.5</v>
       </c>
       <c r="N5" s="1">
-        <f>M5*(1+N18)</f>
-        <v>3441.1538461538462</v>
+        <f>M5*1.1</f>
+        <v>3209.2500000000005</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:R5" si="9">N5*(1+O18)</f>
-        <v>3991.7384615384613</v>
+        <f t="shared" ref="O5:S5" si="8">N5*1.1</f>
+        <v>3530.1750000000006</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="9"/>
-        <v>4630.4166153846145</v>
+        <f t="shared" si="8"/>
+        <v>3883.192500000001</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="9"/>
-        <v>5371.283273846152</v>
+        <f t="shared" si="8"/>
+        <v>4271.5117500000015</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="9"/>
-        <v>6230.6885976615358</v>
+        <f t="shared" si="8"/>
+        <v>4698.6629250000024</v>
+      </c>
+      <c r="S5" s="1">
+        <f t="shared" si="8"/>
+        <v>5168.5292175000031</v>
       </c>
     </row>
     <row r="6" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K6" s="1">
         <v>2711</v>
@@ -977,29 +994,33 @@
         <v>2925</v>
       </c>
       <c r="N6" s="1">
-        <f>M6*(1+N18)</f>
-        <v>3450</v>
+        <f>M6*1.1</f>
+        <v>3217.5000000000005</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:R6" si="10">N6*(1+O18)</f>
-        <v>4001.9999999999995</v>
+        <f t="shared" ref="O6:S6" si="9">N6*1.1</f>
+        <v>3539.2500000000009</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="10"/>
-        <v>4642.3199999999988</v>
+        <f t="shared" si="9"/>
+        <v>3893.1750000000011</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="10"/>
-        <v>5385.091199999998</v>
+        <f t="shared" si="9"/>
+        <v>4282.4925000000012</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="10"/>
-        <v>6246.705791999997</v>
+        <f t="shared" si="9"/>
+        <v>4710.741750000002</v>
+      </c>
+      <c r="S6" s="1">
+        <f t="shared" si="9"/>
+        <v>5181.8159250000026</v>
       </c>
     </row>
     <row r="7" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K7" s="1">
         <v>1562</v>
@@ -1011,103 +1032,115 @@
         <v>1702</v>
       </c>
       <c r="N7" s="1">
-        <f>M7*(1+N18)</f>
-        <v>2007.4871794871794</v>
+        <f>M7*1.09</f>
+        <v>1855.18</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:R7" si="11">N7*(1+O18)</f>
-        <v>2328.685128205128</v>
+        <f t="shared" ref="O7:S7" si="10">N7*1.09</f>
+        <v>2022.1462000000001</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="11"/>
-        <v>2701.2747487179481</v>
+        <f t="shared" si="10"/>
+        <v>2204.1393580000004</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="11"/>
-        <v>3133.4787085128196</v>
+        <f t="shared" si="10"/>
+        <v>2402.5119002200004</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="11"/>
-        <v>3634.8353018748703</v>
+        <f t="shared" si="10"/>
+        <v>2618.7379712398006</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" si="10"/>
+        <v>2854.4243886513827</v>
       </c>
     </row>
     <row r="8" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K8" s="1">
         <f>SUM(K5:K7)</f>
         <v>6803.5</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:M8" si="12">SUM(L5:L7)</f>
+        <f t="shared" ref="L8:M8" si="11">SUM(L5:L7)</f>
         <v>7052.8</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>7544.5</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N8" si="13">SUM(N5:N7)</f>
-        <v>8898.6410256410254</v>
+        <f t="shared" ref="N8" si="12">SUM(N5:N7)</f>
+        <v>8281.93</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8" si="14">SUM(O5:O7)</f>
-        <v>10322.423589743588</v>
+        <f t="shared" ref="O8" si="13">SUM(O5:O7)</f>
+        <v>9091.5712000000021</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" ref="P8" si="15">SUM(P5:P7)</f>
-        <v>11974.01136410256</v>
+        <f t="shared" ref="P8" si="14">SUM(P5:P7)</f>
+        <v>9980.5068580000025</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" ref="Q8" si="16">SUM(Q5:Q7)</f>
-        <v>13889.853182358969</v>
+        <f t="shared" ref="Q8" si="15">SUM(Q5:Q7)</f>
+        <v>10956.516150220003</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" ref="R8" si="17">SUM(R5:R7)</f>
-        <v>16112.229691536402</v>
+        <f t="shared" ref="R8:S8" si="16">SUM(R5:R7)</f>
+        <v>12028.142646239805</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="16"/>
+        <v>13204.769531151389</v>
       </c>
     </row>
     <row r="9" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1">
         <f>K4-K8</f>
         <v>5643.7999999999993</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ref="L9:M9" si="18">L4-L8</f>
+        <f t="shared" ref="L9:M9" si="17">L4-L8</f>
         <v>6955.2000000000035</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>10417.099999999999</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9" si="19">N4-N8</f>
-        <v>13346.109743589741</v>
+        <f t="shared" ref="N9" si="18">N4-N8</f>
+        <v>13962.820769230766</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" ref="O9" si="20">O4-O8</f>
-        <v>16771.682847179487</v>
+        <f t="shared" ref="O9" si="19">O4-O8</f>
+        <v>18002.535236923071</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" ref="P9" si="21">P4-P8</f>
-        <v>21026.610276069739</v>
+        <f t="shared" ref="P9" si="20">P4-P8</f>
+        <v>23020.114782172299</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" ref="Q9" si="22">Q4-Q8</f>
-        <v>26304.903975370889</v>
+        <f t="shared" ref="Q9" si="21">Q4-Q8</f>
+        <v>29238.241007509856</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" ref="R9" si="23">R4-R8</f>
-        <v>32844.98452657857</v>
+        <f t="shared" ref="R9:S9" si="22">R4-R8</f>
+        <v>36929.07157187516</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" si="22"/>
+        <v>46425.11738651264</v>
       </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" s="1">
         <v>-706</v>
@@ -1121,7 +1154,7 @@
     </row>
     <row r="11" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="1">
         <v>337</v>
@@ -1133,66 +1166,74 @@
         <v>266.7</v>
       </c>
       <c r="N11" s="1">
-        <f>M28*$U$17</f>
-        <v>-341.90399999999994</v>
+        <f>M30*$V$19</f>
+        <v>-170.95199999999997</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" ref="O11:R11" si="24">N28*$U$17</f>
-        <v>79.4322660923077</v>
+        <f>N30*$V$19</f>
+        <v>49.71790030769229</v>
       </c>
       <c r="P11" s="1">
-        <f t="shared" si="24"/>
-        <v>625.40839576231383</v>
+        <f>O30*$V$19</f>
+        <v>338.55395050338456</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="24"/>
-        <v>1326.9338007296724</v>
+        <f>P30*$V$19</f>
+        <v>712.29265022619541</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="24"/>
-        <v>2222.2053446753307</v>
+        <f>Q30*$V$19</f>
+        <v>1191.5011887499722</v>
+      </c>
+      <c r="S11" s="1">
+        <f>R30*$V$19</f>
+        <v>1801.4303529199742</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1">
         <f>K9+SUM(K10:K11)</f>
         <v>5274.7999999999993</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" ref="L12:M12" si="25">L9+SUM(L10:L11)</f>
+        <f t="shared" ref="L12:M12" si="23">L9+SUM(L10:L11)</f>
         <v>6208.2000000000035</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>9965.7999999999993</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12" si="26">N9+SUM(N10:N11)</f>
-        <v>13004.20574358974</v>
+        <f t="shared" ref="N12" si="24">N9+SUM(N10:N11)</f>
+        <v>13791.868769230767</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" ref="O12" si="27">O9+SUM(O10:O11)</f>
-        <v>16851.115113271793</v>
+        <f t="shared" ref="O12" si="25">O9+SUM(O10:O11)</f>
+        <v>18052.253137230764</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" ref="P12" si="28">P9+SUM(P10:P11)</f>
-        <v>21652.018671832055</v>
+        <f t="shared" ref="P12" si="26">P9+SUM(P10:P11)</f>
+        <v>23358.668732675684</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" ref="Q12" si="29">Q9+SUM(Q10:Q11)</f>
-        <v>27631.837776100561</v>
+        <f t="shared" ref="Q12" si="27">Q9+SUM(Q10:Q11)</f>
+        <v>29950.53365773605</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" ref="R12" si="30">R9+SUM(R10:R11)</f>
-        <v>35067.189871253897</v>
+        <f t="shared" ref="R12:S12" si="28">R9+SUM(R10:R11)</f>
+        <v>38120.572760625131</v>
+      </c>
+      <c r="S12" s="1">
+        <f t="shared" si="28"/>
+        <v>48226.547739432615</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="1">
         <v>772</v>
@@ -1204,466 +1245,470 @@
         <v>1254</v>
       </c>
       <c r="N13" s="1">
-        <f>N12*N19</f>
-        <v>2470.7990912820505</v>
+        <f>N12*0.2</f>
+        <v>2758.3737538461537</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" ref="O13:R13" si="31">O12*O19</f>
-        <v>3201.7118715216407</v>
+        <f t="shared" ref="O13:S13" si="29">O12*0.2</f>
+        <v>3610.4506274461528</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="31"/>
-        <v>4113.8835476480908</v>
+        <f t="shared" si="29"/>
+        <v>4671.7337465351366</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="31"/>
-        <v>5250.0491774591064</v>
+        <f t="shared" si="29"/>
+        <v>5990.1067315472101</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="31"/>
-        <v>6662.7660755382403</v>
-      </c>
-    </row>
-    <row r="14" spans="1:118" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <f t="shared" si="29"/>
+        <v>7624.1145521250264</v>
+      </c>
+      <c r="S13" s="1">
+        <f t="shared" si="29"/>
+        <v>9645.3095478865234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K14" s="3">
         <f>K12-K13</f>
         <v>4502.7999999999993</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14:M14" si="32">L12-L13</f>
+        <f t="shared" ref="L14:M14" si="30">L12-L13</f>
         <v>5410.8000000000038</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>8711.7999999999993</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ref="N14" si="33">N12-N13</f>
-        <v>10533.406652307691</v>
+        <f t="shared" ref="N14" si="31">N12-N13</f>
+        <v>11033.495015384613</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14" si="34">O12-O13</f>
-        <v>13649.403241750153</v>
+        <f t="shared" ref="O14" si="32">O12-O13</f>
+        <v>14441.802509784611</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="P14" si="35">P12-P13</f>
-        <v>17538.135124183966</v>
+        <f t="shared" ref="P14" si="33">P12-P13</f>
+        <v>18686.934986140546</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" ref="Q14" si="36">Q12-Q13</f>
-        <v>22381.788598641455</v>
+        <f t="shared" ref="Q14" si="34">Q12-Q13</f>
+        <v>23960.42692618884</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" ref="R14" si="37">R12-R13</f>
-        <v>28404.423795715658</v>
+        <f t="shared" ref="R14:S14" si="35">R12-R13</f>
+        <v>30496.458208500106</v>
       </c>
       <c r="S14" s="3">
-        <f>R14*(1+$U$18)</f>
-        <v>28972.51227162997</v>
+        <f t="shared" si="35"/>
+        <v>38581.238191546094</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" ref="T14:CE14" si="38">S14*(1+$U$18)</f>
-        <v>29551.96251706257</v>
+        <f>S14*(1+$V$20)</f>
+        <v>38967.050573461558</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="38"/>
-        <v>30143.001767403821</v>
+        <f>T14*(1+$V$20)</f>
+        <v>39356.721079196177</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="38"/>
-        <v>30745.861802751897</v>
+        <f>U14*(1+$V$20)</f>
+        <v>39750.288289988137</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="38"/>
-        <v>31360.779038806937</v>
+        <f>V14*(1+$V$20)</f>
+        <v>40147.791172888021</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="38"/>
-        <v>31987.994619583078</v>
+        <f>W14*(1+$V$20)</f>
+        <v>40549.269084616899</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="38"/>
-        <v>32627.754511974741</v>
+        <f>X14*(1+$V$20)</f>
+        <v>40954.76177546307</v>
       </c>
       <c r="Z14" s="3">
-        <f t="shared" si="38"/>
-        <v>33280.309602214234</v>
+        <f>Y14*(1+$V$20)</f>
+        <v>41364.3093932177</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" si="38"/>
-        <v>33945.915794258523</v>
+        <f>Z14*(1+$V$20)</f>
+        <v>41777.95248714988</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="38"/>
-        <v>34624.834110143696</v>
+        <f>AA14*(1+$V$20)</f>
+        <v>42195.732012021377</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="38"/>
-        <v>35317.330792346569</v>
+        <f>AB14*(1+$V$20)</f>
+        <v>42617.689332141592</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="38"/>
-        <v>36023.6774081935</v>
+        <f>AC14*(1+$V$20)</f>
+        <v>43043.866225463011</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="38"/>
-        <v>36744.150956357371</v>
+        <f>AD14*(1+$V$20)</f>
+        <v>43474.304887717641</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="38"/>
-        <v>37479.033975484519</v>
+        <f>AE14*(1+$V$20)</f>
+        <v>43909.047936594819</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="38"/>
-        <v>38228.614654994213</v>
+        <f>AF14*(1+$V$20)</f>
+        <v>44348.13841596077</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="38"/>
-        <v>38993.186948094095</v>
+        <f>AG14*(1+$V$20)</f>
+        <v>44791.619800120381</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="38"/>
-        <v>39773.050687055977</v>
+        <f>AH14*(1+$V$20)</f>
+        <v>45239.535998121588</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="38"/>
-        <v>40568.511700797098</v>
+        <f>AI14*(1+$V$20)</f>
+        <v>45691.931358102804</v>
       </c>
       <c r="AK14" s="3">
-        <f t="shared" si="38"/>
-        <v>41379.881934813042</v>
+        <f>AJ14*(1+$V$20)</f>
+        <v>46148.850671683831</v>
       </c>
       <c r="AL14" s="3">
-        <f t="shared" si="38"/>
-        <v>42207.479573509307</v>
+        <f>AK14*(1+$V$20)</f>
+        <v>46610.339178400667</v>
       </c>
       <c r="AM14" s="3">
-        <f t="shared" si="38"/>
-        <v>43051.629164979495</v>
+        <f>AL14*(1+$V$20)</f>
+        <v>47076.442570184678</v>
       </c>
       <c r="AN14" s="3">
-        <f t="shared" si="38"/>
-        <v>43912.661748279083</v>
+        <f>AM14*(1+$V$20)</f>
+        <v>47547.206995886525</v>
       </c>
       <c r="AO14" s="3">
-        <f t="shared" si="38"/>
-        <v>44790.914983244664</v>
+        <f>AN14*(1+$V$20)</f>
+        <v>48022.67906584539</v>
       </c>
       <c r="AP14" s="3">
-        <f t="shared" si="38"/>
-        <v>45686.733282909561</v>
+        <f>AO14*(1+$V$20)</f>
+        <v>48502.905856503843</v>
       </c>
       <c r="AQ14" s="3">
-        <f t="shared" si="38"/>
-        <v>46600.467948567755</v>
+        <f>AP14*(1+$V$20)</f>
+        <v>48987.934915068879</v>
       </c>
       <c r="AR14" s="3">
-        <f t="shared" si="38"/>
-        <v>47532.477307539113</v>
+        <f>AQ14*(1+$V$20)</f>
+        <v>49477.814264219567</v>
       </c>
       <c r="AS14" s="3">
-        <f t="shared" si="38"/>
-        <v>48483.126853689893</v>
+        <f>AR14*(1+$V$20)</f>
+        <v>49972.592406861761</v>
       </c>
       <c r="AT14" s="3">
-        <f t="shared" si="38"/>
-        <v>49452.78939076369</v>
+        <f>AS14*(1+$V$20)</f>
+        <v>50472.318330930379</v>
       </c>
       <c r="AU14" s="3">
-        <f t="shared" si="38"/>
-        <v>50441.845178578966</v>
+        <f>AT14*(1+$V$20)</f>
+        <v>50977.041514239681</v>
       </c>
       <c r="AV14" s="3">
-        <f t="shared" si="38"/>
-        <v>51450.682082150546</v>
+        <f>AU14*(1+$V$20)</f>
+        <v>51486.811929382078</v>
       </c>
       <c r="AW14" s="3">
-        <f t="shared" si="38"/>
-        <v>52479.695723793557</v>
+        <f>AV14*(1+$V$20)</f>
+        <v>52001.680048675902</v>
       </c>
       <c r="AX14" s="3">
-        <f t="shared" si="38"/>
-        <v>53529.289638269431</v>
+        <f>AW14*(1+$V$20)</f>
+        <v>52521.696849162661</v>
       </c>
       <c r="AY14" s="3">
-        <f t="shared" si="38"/>
-        <v>54599.875431034823</v>
+        <f>AX14*(1+$V$20)</f>
+        <v>53046.913817654291</v>
       </c>
       <c r="AZ14" s="3">
-        <f t="shared" si="38"/>
-        <v>55691.872939655521</v>
+        <f>AY14*(1+$V$20)</f>
+        <v>53577.382955830835</v>
       </c>
       <c r="BA14" s="3">
-        <f t="shared" si="38"/>
-        <v>56805.710398448631</v>
+        <f>AZ14*(1+$V$20)</f>
+        <v>54113.156785389147</v>
       </c>
       <c r="BB14" s="3">
-        <f t="shared" si="38"/>
-        <v>57941.824606417606</v>
+        <f>BA14*(1+$V$20)</f>
+        <v>54654.288353243035</v>
       </c>
       <c r="BC14" s="3">
-        <f t="shared" si="38"/>
-        <v>59100.661098545956</v>
+        <f>BB14*(1+$V$20)</f>
+        <v>55200.831236775462</v>
       </c>
       <c r="BD14" s="3">
-        <f t="shared" si="38"/>
-        <v>60282.674320516875</v>
+        <f>BC14*(1+$V$20)</f>
+        <v>55752.839549143217</v>
       </c>
       <c r="BE14" s="3">
-        <f t="shared" si="38"/>
-        <v>61488.327806927213</v>
+        <f>BD14*(1+$V$20)</f>
+        <v>56310.36794463465</v>
       </c>
       <c r="BF14" s="3">
-        <f t="shared" si="38"/>
-        <v>62718.094363065757</v>
+        <f>BE14*(1+$V$20)</f>
+        <v>56873.471624080994</v>
       </c>
       <c r="BG14" s="3">
-        <f t="shared" si="38"/>
-        <v>63972.456250327072</v>
+        <f>BF14*(1+$V$20)</f>
+        <v>57442.206340321805</v>
       </c>
       <c r="BH14" s="3">
-        <f t="shared" si="38"/>
-        <v>65251.905375333612</v>
+        <f>BG14*(1+$V$20)</f>
+        <v>58016.628403725023</v>
       </c>
       <c r="BI14" s="3">
-        <f t="shared" si="38"/>
-        <v>66556.943482840288</v>
+        <f>BH14*(1+$V$20)</f>
+        <v>58596.794687762274</v>
       </c>
       <c r="BJ14" s="3">
-        <f t="shared" si="38"/>
-        <v>67888.082352497091</v>
+        <f>BI14*(1+$V$20)</f>
+        <v>59182.762634639897</v>
       </c>
       <c r="BK14" s="3">
-        <f t="shared" si="38"/>
-        <v>69245.84399954704</v>
+        <f>BJ14*(1+$V$20)</f>
+        <v>59774.590260986297</v>
       </c>
       <c r="BL14" s="3">
-        <f t="shared" si="38"/>
-        <v>70630.760879537978</v>
+        <f>BK14*(1+$V$20)</f>
+        <v>60372.336163596163</v>
       </c>
       <c r="BM14" s="3">
-        <f t="shared" si="38"/>
-        <v>72043.376097128741</v>
+        <f>BL14*(1+$V$20)</f>
+        <v>60976.059525232122</v>
       </c>
       <c r="BN14" s="3">
-        <f t="shared" si="38"/>
-        <v>73484.24361907132</v>
+        <f>BM14*(1+$V$20)</f>
+        <v>61585.820120484444</v>
       </c>
       <c r="BO14" s="3">
-        <f t="shared" si="38"/>
-        <v>74953.928491452752</v>
+        <f>BN14*(1+$V$20)</f>
+        <v>62201.678321689287</v>
       </c>
       <c r="BP14" s="3">
-        <f t="shared" si="38"/>
-        <v>76453.007061281809</v>
+        <f>BO14*(1+$V$20)</f>
+        <v>62823.695104906183</v>
       </c>
       <c r="BQ14" s="3">
-        <f t="shared" si="38"/>
-        <v>77982.067202507445</v>
+        <f>BP14*(1+$V$20)</f>
+        <v>63451.932055955243</v>
       </c>
       <c r="BR14" s="3">
-        <f t="shared" si="38"/>
-        <v>79541.708546557595</v>
+        <f>BQ14*(1+$V$20)</f>
+        <v>64086.451376514793</v>
       </c>
       <c r="BS14" s="3">
-        <f t="shared" si="38"/>
-        <v>81132.542717488745</v>
+        <f>BR14*(1+$V$20)</f>
+        <v>64727.315890279941</v>
       </c>
       <c r="BT14" s="3">
-        <f t="shared" si="38"/>
-        <v>82755.193571838521</v>
+        <f>BS14*(1+$V$20)</f>
+        <v>65374.589049182738</v>
       </c>
       <c r="BU14" s="3">
-        <f t="shared" si="38"/>
-        <v>84410.297443275296</v>
+        <f>BT14*(1+$V$20)</f>
+        <v>66028.334939674562</v>
       </c>
       <c r="BV14" s="3">
-        <f t="shared" si="38"/>
-        <v>86098.503392140803</v>
+        <f>BU14*(1+$V$20)</f>
+        <v>66688.61828907131</v>
       </c>
       <c r="BW14" s="3">
-        <f t="shared" si="38"/>
-        <v>87820.473459983623</v>
+        <f>BV14*(1+$V$20)</f>
+        <v>67355.50447196202</v>
       </c>
       <c r="BX14" s="3">
-        <f t="shared" si="38"/>
-        <v>89576.882929183295</v>
+        <f>BW14*(1+$V$20)</f>
+        <v>68029.059516681635</v>
       </c>
       <c r="BY14" s="3">
-        <f t="shared" si="38"/>
-        <v>91368.420587766959</v>
+        <f>BX14*(1+$V$20)</f>
+        <v>68709.350111848456</v>
       </c>
       <c r="BZ14" s="3">
-        <f t="shared" si="38"/>
-        <v>93195.788999522294</v>
+        <f>BY14*(1+$V$20)</f>
+        <v>69396.443612966948</v>
       </c>
       <c r="CA14" s="3">
-        <f t="shared" si="38"/>
-        <v>95059.704779512744</v>
+        <f>BZ14*(1+$V$20)</f>
+        <v>70090.408049096615</v>
       </c>
       <c r="CB14" s="3">
-        <f t="shared" si="38"/>
-        <v>96960.898875102997</v>
+        <f>CA14*(1+$V$20)</f>
+        <v>70791.312129587575</v>
       </c>
       <c r="CC14" s="3">
-        <f t="shared" si="38"/>
-        <v>98900.116852605061</v>
+        <f>CB14*(1+$V$20)</f>
+        <v>71499.22525088345</v>
       </c>
       <c r="CD14" s="3">
-        <f t="shared" si="38"/>
-        <v>100878.11918965717</v>
+        <f>CC14*(1+$V$20)</f>
+        <v>72214.217503392283</v>
       </c>
       <c r="CE14" s="3">
-        <f t="shared" si="38"/>
-        <v>102895.68157345032</v>
+        <f>CD14*(1+$V$20)</f>
+        <v>72936.359678426204</v>
       </c>
       <c r="CF14" s="3">
-        <f t="shared" ref="CF14:DN14" si="39">CE14*(1+$U$18)</f>
-        <v>104953.59520491933</v>
+        <f>CE14*(1+$V$20)</f>
+        <v>73665.723275210461</v>
       </c>
       <c r="CG14" s="3">
-        <f t="shared" si="39"/>
-        <v>107052.66710901771</v>
+        <f>CF14*(1+$V$20)</f>
+        <v>74402.38050796256</v>
       </c>
       <c r="CH14" s="3">
-        <f t="shared" si="39"/>
-        <v>109193.72045119807</v>
+        <f>CG14*(1+$V$20)</f>
+        <v>75146.404313042192</v>
       </c>
       <c r="CI14" s="3">
-        <f t="shared" si="39"/>
-        <v>111377.59486022203</v>
+        <f>CH14*(1+$V$20)</f>
+        <v>75897.868356172621</v>
       </c>
       <c r="CJ14" s="3">
-        <f t="shared" si="39"/>
-        <v>113605.14675742647</v>
+        <f>CI14*(1+$V$20)</f>
+        <v>76656.847039734348</v>
       </c>
       <c r="CK14" s="3">
-        <f t="shared" si="39"/>
-        <v>115877.249692575</v>
+        <f>CJ14*(1+$V$20)</f>
+        <v>77423.415510131686</v>
       </c>
       <c r="CL14" s="3">
-        <f t="shared" si="39"/>
-        <v>118194.79468642651</v>
+        <f>CK14*(1+$V$20)</f>
+        <v>78197.64966523301</v>
       </c>
       <c r="CM14" s="3">
-        <f t="shared" si="39"/>
-        <v>120558.69058015505</v>
+        <f>CL14*(1+$V$20)</f>
+        <v>78979.626161885346</v>
       </c>
       <c r="CN14" s="3">
-        <f t="shared" si="39"/>
-        <v>122969.86439175815</v>
+        <f>CM14*(1+$V$20)</f>
+        <v>79769.422423504206</v>
       </c>
       <c r="CO14" s="3">
-        <f t="shared" si="39"/>
-        <v>125429.26167959331</v>
+        <f>CN14*(1+$V$20)</f>
+        <v>80567.116647739254</v>
       </c>
       <c r="CP14" s="3">
-        <f t="shared" si="39"/>
-        <v>127937.84691318519</v>
+        <f>CO14*(1+$V$20)</f>
+        <v>81372.787814216645</v>
       </c>
       <c r="CQ14" s="3">
-        <f t="shared" si="39"/>
-        <v>130496.60385144889</v>
+        <f>CP14*(1+$V$20)</f>
+        <v>82186.515692358807</v>
       </c>
       <c r="CR14" s="3">
-        <f t="shared" si="39"/>
-        <v>133106.53592847788</v>
+        <f>CQ14*(1+$V$20)</f>
+        <v>83008.380849282403</v>
       </c>
       <c r="CS14" s="3">
-        <f t="shared" si="39"/>
-        <v>135768.66664704744</v>
+        <f>CR14*(1+$V$20)</f>
+        <v>83838.464657775228</v>
       </c>
       <c r="CT14" s="3">
-        <f t="shared" si="39"/>
-        <v>138484.03997998839</v>
+        <f>CS14*(1+$V$20)</f>
+        <v>84676.849304352974</v>
       </c>
       <c r="CU14" s="3">
-        <f t="shared" si="39"/>
-        <v>141253.72077958815</v>
+        <f>CT14*(1+$V$20)</f>
+        <v>85523.61779739651</v>
       </c>
       <c r="CV14" s="3">
-        <f t="shared" si="39"/>
-        <v>144078.79519517993</v>
+        <f>CU14*(1+$V$20)</f>
+        <v>86378.853975370483</v>
       </c>
       <c r="CW14" s="3">
-        <f t="shared" si="39"/>
-        <v>146960.37109908354</v>
+        <f>CV14*(1+$V$20)</f>
+        <v>87242.642515124186</v>
       </c>
       <c r="CX14" s="3">
-        <f t="shared" si="39"/>
-        <v>149899.57852106521</v>
+        <f>CW14*(1+$V$20)</f>
+        <v>88115.068940275421</v>
       </c>
       <c r="CY14" s="3">
-        <f t="shared" si="39"/>
-        <v>152897.57009148653</v>
+        <f>CX14*(1+$V$20)</f>
+        <v>88996.219629678177</v>
       </c>
       <c r="CZ14" s="3">
-        <f t="shared" si="39"/>
-        <v>155955.52149331625</v>
+        <f>CY14*(1+$V$20)</f>
+        <v>89886.181825974956</v>
       </c>
       <c r="DA14" s="3">
-        <f t="shared" si="39"/>
-        <v>159074.63192318258</v>
+        <f>CZ14*(1+$V$20)</f>
+        <v>90785.043644234713</v>
       </c>
       <c r="DB14" s="3">
-        <f t="shared" si="39"/>
-        <v>162256.12456164623</v>
+        <f>DA14*(1+$V$20)</f>
+        <v>91692.894080677055</v>
       </c>
       <c r="DC14" s="3">
-        <f t="shared" si="39"/>
-        <v>165501.24705287916</v>
+        <f>DB14*(1+$V$20)</f>
+        <v>92609.823021483826</v>
       </c>
       <c r="DD14" s="3">
-        <f t="shared" si="39"/>
-        <v>168811.27199393674</v>
+        <f>DC14*(1+$V$20)</f>
+        <v>93535.921251698659</v>
       </c>
       <c r="DE14" s="3">
-        <f t="shared" si="39"/>
-        <v>172187.49743381547</v>
+        <f>DD14*(1+$V$20)</f>
+        <v>94471.280464215641</v>
       </c>
       <c r="DF14" s="3">
-        <f t="shared" si="39"/>
-        <v>175631.2473824918</v>
+        <f>DE14*(1+$V$20)</f>
+        <v>95415.993268857797</v>
       </c>
       <c r="DG14" s="3">
-        <f t="shared" si="39"/>
-        <v>179143.87233014163</v>
+        <f>DF14*(1+$V$20)</f>
+        <v>96370.153201546374</v>
       </c>
       <c r="DH14" s="3">
-        <f t="shared" si="39"/>
-        <v>182726.74977674446</v>
+        <f>DG14*(1+$V$20)</f>
+        <v>97333.854733561835</v>
       </c>
       <c r="DI14" s="3">
-        <f t="shared" si="39"/>
-        <v>186381.28477227935</v>
+        <f>DH14*(1+$V$20)</f>
+        <v>98307.193280897452</v>
       </c>
       <c r="DJ14" s="3">
-        <f t="shared" si="39"/>
-        <v>190108.91046772496</v>
+        <f>DI14*(1+$V$20)</f>
+        <v>99290.265213706429</v>
       </c>
       <c r="DK14" s="3">
-        <f t="shared" si="39"/>
-        <v>193911.08867707945</v>
+        <f>DJ14*(1+$V$20)</f>
+        <v>100283.1678658435</v>
       </c>
       <c r="DL14" s="3">
-        <f t="shared" si="39"/>
-        <v>197789.31045062104</v>
+        <f>DK14*(1+$V$20)</f>
+        <v>101285.99954450193</v>
       </c>
       <c r="DM14" s="3">
-        <f t="shared" si="39"/>
-        <v>201745.09665963345</v>
+        <f>DL14*(1+$V$20)</f>
+        <v>102298.85953994695</v>
       </c>
       <c r="DN14" s="3">
-        <f t="shared" si="39"/>
-        <v>205779.99859282613</v>
+        <f>DM14*(1+$V$20)</f>
+        <v>103321.84813534642</v>
       </c>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
         <v>427.75709999999998</v>
@@ -1692,55 +1737,54 @@
       <c r="R15" s="1">
         <v>429</v>
       </c>
+      <c r="S15" s="1">
+        <v>429</v>
+      </c>
     </row>
     <row r="16" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="5">
         <f>K14/K15</f>
         <v>10.14144144144144</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:R16" si="40">L14/L15</f>
+        <f t="shared" ref="L16:R16" si="36">L14/L15</f>
         <v>12.26938775510205</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="40"/>
+        <f t="shared" si="36"/>
         <v>20.307226107226107</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="40"/>
-        <v>24.553395459924687</v>
+        <f t="shared" si="36"/>
+        <v>25.719102599964131</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="40"/>
-        <v>31.81679077331038</v>
+        <f t="shared" si="36"/>
+        <v>33.663875314183244</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="40"/>
-        <v>40.881433855906678</v>
+        <f t="shared" si="36"/>
+        <v>43.559289011982628</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="40"/>
-        <v>52.172001395434627</v>
+        <f t="shared" si="36"/>
+        <v>55.851811016757203</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="40"/>
-        <v>66.210778078591275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="T17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.04</v>
+        <f t="shared" si="36"/>
+        <v>71.087315171328925</v>
+      </c>
+      <c r="S16" s="5">
+        <f t="shared" ref="S16" si="37">S14/S15</f>
+        <v>89.932956157450107</v>
       </c>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L18" s="4">
         <f>L2/K2-1</f>
@@ -1751,727 +1795,838 @@
         <v>0.15647045217994671</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18:R18" si="41">N2/M2-1</f>
+        <f t="shared" ref="N18:S18" si="38">N2/M2-1</f>
         <v>0.17948717948717952</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="41"/>
+        <f t="shared" si="38"/>
         <v>0.15999999999999992</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="S18" s="4">
+        <f t="shared" si="38"/>
+        <v>0.15999999999999992</v>
+      </c>
+    </row>
+    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="U19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U18" s="6">
+      <c r="V19" s="6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="19" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="4">
-        <f>K13/K12</f>
-        <v>0.14635625995298401</v>
-      </c>
-      <c r="L19" s="4">
-        <f t="shared" ref="L19:M19" si="42">L13/L12</f>
-        <v>0.1284430269643374</v>
-      </c>
-      <c r="M19" s="4">
-        <f t="shared" si="42"/>
-        <v>0.12583033976198599</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="P19" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="Q19" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="R19" s="4">
-        <v>0.19</v>
-      </c>
-      <c r="T19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="6">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="T20" s="1" t="s">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="4">
+        <f>K4/K2</f>
+        <v>0.39370878208473692</v>
+      </c>
+      <c r="L20" s="4">
+        <f>L4/L2</f>
+        <v>0.415380463952223</v>
+      </c>
+      <c r="M20" s="4">
+        <f>M4/M2</f>
+        <v>0.46055384615384609</v>
+      </c>
+      <c r="N20" s="4">
+        <f>M20*1.05</f>
+        <v>0.4835815384615384</v>
+      </c>
+      <c r="O20" s="4">
+        <f t="shared" ref="O20:S20" si="39">N20*1.05</f>
+        <v>0.50776061538461537</v>
+      </c>
+      <c r="P20" s="4">
+        <f t="shared" si="39"/>
+        <v>0.53314864615384616</v>
+      </c>
+      <c r="Q20" s="4">
+        <f t="shared" si="39"/>
+        <v>0.55980607846153851</v>
+      </c>
+      <c r="R20" s="4">
+        <f t="shared" si="39"/>
+        <v>0.58779638238461551</v>
+      </c>
+      <c r="S20" s="4">
+        <f t="shared" si="39"/>
+        <v>0.61718620150384629</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U20" s="1">
-        <f>NPV(U19,N26:XFD26)+Sheet1!D5-Sheet1!D6</f>
-        <v>446912.05725859012</v>
+      <c r="V20" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="21" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K21" s="4">
-        <f>K4/K2</f>
-        <v>0.39370878208473692</v>
+        <f>K9/K2</f>
+        <v>0.17851370372127592</v>
       </c>
       <c r="L21" s="4">
-        <f t="shared" ref="L21:M21" si="43">L4/L2</f>
-        <v>0.415380463952223</v>
+        <f>L9/L2</f>
+        <v>0.20624316125646075</v>
       </c>
       <c r="M21" s="4">
-        <f t="shared" si="43"/>
-        <v>0.46055384615384609</v>
+        <f>M9/M2</f>
+        <v>0.26710512820512816</v>
       </c>
       <c r="N21" s="4">
-        <f>M21*1.05</f>
-        <v>0.4835815384615384</v>
+        <f>N9/N2</f>
+        <v>0.30353958193979924</v>
       </c>
       <c r="O21" s="4">
-        <f t="shared" ref="O21:R21" si="44">N21*1.05</f>
-        <v>0.50776061538461537</v>
+        <f>O9/O2</f>
+        <v>0.33737884626917303</v>
       </c>
       <c r="P21" s="4">
-        <f t="shared" si="44"/>
-        <v>0.53314864615384616</v>
+        <f>P9/P2</f>
+        <v>0.37190641934699092</v>
       </c>
       <c r="Q21" s="4">
-        <f t="shared" si="44"/>
-        <v>0.55980607846153851</v>
+        <f>Q9/Q2</f>
+        <v>0.40721094483288234</v>
       </c>
       <c r="R21" s="4">
-        <f t="shared" si="44"/>
-        <v>0.58779638238461551</v>
-      </c>
-      <c r="T21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U21" s="5">
-        <f>U20/Sheet1!D3</f>
-        <v>1044.7799867228157</v>
+        <f>R9/R2</f>
+        <v>0.44338255395951237</v>
+      </c>
+      <c r="S21" s="4">
+        <f>S9/S2</f>
+        <v>0.4805131006489316</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V21" s="6">
+        <v>0.08</v>
       </c>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K22" s="4">
-        <f t="shared" ref="K22:R22" si="45">K9/K2</f>
-        <v>0.17851370372127592</v>
-      </c>
+      <c r="K22" s="4"/>
       <c r="L22" s="4">
-        <f t="shared" si="45"/>
-        <v>0.20624316125646075</v>
+        <f>L5/K5-1</f>
+        <v>5.0306263584271926E-2</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" si="45"/>
-        <v>0.26710512820512816</v>
+        <f>M5/L5-1</f>
+        <v>9.771239370908269E-2</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" si="45"/>
-        <v>0.29013282051282047</v>
+        <f t="shared" ref="N22:S22" si="40">N5/M5-1</f>
+        <v>0.10000000000000009</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="45"/>
-        <v>0.31431189743589749</v>
+        <f t="shared" si="40"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="45"/>
-        <v>0.33969992820512823</v>
+        <f t="shared" si="40"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="45"/>
-        <v>0.36635736051282058</v>
+        <f t="shared" si="40"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="R22" s="4">
-        <f t="shared" si="45"/>
-        <v>0.39434766443589758</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U22" s="4">
-        <f>U21/Sheet1!D2-1</f>
-        <v>-0.11832912512842553</v>
+        <f t="shared" si="40"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S22" s="4">
+        <f t="shared" si="40"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V22" s="1">
+        <f>NPV(V21,N28:XFD28)+Main!P5-Main!P6</f>
+        <v>530487.70433187962</v>
       </c>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4">
+        <f>L6/K6-1</f>
+        <v>-1.3279232755440851E-2</v>
+      </c>
+      <c r="M23" s="4">
+        <f>M6/L6-1</f>
+        <v>9.3457943925233655E-2</v>
+      </c>
+      <c r="N23" s="4">
+        <f t="shared" ref="N23:S23" si="41">N6/M6-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O23" s="4">
+        <f t="shared" si="41"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P23" s="4">
+        <f t="shared" si="41"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q23" s="4">
+        <f t="shared" si="41"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R23" s="4">
+        <f t="shared" si="41"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="S23" s="4">
+        <f t="shared" si="41"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <f>V22/Main!P3</f>
+        <v>1246.2030550697787</v>
+      </c>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4">
+        <f>L7/K7-1</f>
+        <v>0.10115236875800249</v>
+      </c>
+      <c r="M24" s="4">
+        <f>M7/L7-1</f>
+        <v>-1.0465116279069764E-2</v>
+      </c>
+      <c r="N24" s="4">
+        <f t="shared" ref="N24:S24" si="42">N7/M7-1</f>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="O24" s="4">
+        <f t="shared" si="42"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="P24" s="4">
+        <f t="shared" si="42"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="Q24" s="4">
+        <f t="shared" si="42"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="R24" s="4">
+        <f t="shared" si="42"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="S24" s="4">
+        <f t="shared" si="42"/>
+        <v>9.000000000000008E-2</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V24" s="4">
+        <f>V23/Main!P2-1</f>
+        <v>-5.4245370552444827E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="1">
+        <v>2026</v>
+      </c>
+      <c r="L26" s="1">
+        <v>7274</v>
+      </c>
+      <c r="M26" s="1">
+        <v>7361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="1">
-        <v>2026</v>
-      </c>
-      <c r="L24" s="1">
-        <v>7274</v>
-      </c>
-      <c r="M24" s="1">
-        <v>7361</v>
-      </c>
-    </row>
-    <row r="25" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="1">
+      <c r="K27" s="1">
         <f>407+911</f>
         <v>1318</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L27" s="1">
         <f>348+504</f>
         <v>852</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M27" s="1">
         <f>439+1742</f>
         <v>2181</v>
       </c>
     </row>
-    <row r="26" spans="1:118" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" s="3">
-        <f>K24-K25</f>
+    <row r="28" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="3">
+        <f>K26-K27</f>
         <v>708</v>
       </c>
-      <c r="L26" s="3">
-        <f t="shared" ref="L26:M26" si="46">L24-L25</f>
+      <c r="L28" s="3">
+        <f t="shared" ref="L28:M28" si="43">L26-L27</f>
         <v>6422</v>
       </c>
-      <c r="M26" s="3">
-        <f t="shared" si="46"/>
+      <c r="M28" s="3">
+        <f t="shared" si="43"/>
         <v>5180</v>
       </c>
-      <c r="N26" s="3">
-        <f>N27*N14</f>
-        <v>12640.087982769228</v>
-      </c>
-      <c r="O26" s="3">
-        <f t="shared" ref="O26:R26" si="47">O27*O14</f>
-        <v>16543.076729001186</v>
-      </c>
-      <c r="P26" s="3">
-        <f t="shared" si="47"/>
-        <v>21468.781968216073</v>
-      </c>
-      <c r="Q26" s="3">
-        <f t="shared" si="47"/>
-        <v>27671.975009962665</v>
-      </c>
-      <c r="R26" s="3">
-        <f t="shared" si="47"/>
-        <v>35469.308764273359</v>
-      </c>
-      <c r="S26" s="3">
-        <f>R26*(1+$U$18)</f>
-        <v>36178.694939558824</v>
-      </c>
-      <c r="T26" s="3">
-        <f t="shared" ref="T26:CE26" si="48">S26*(1+$U$18)</f>
-        <v>36902.268838349999</v>
-      </c>
-      <c r="U26" s="3">
-        <f t="shared" si="48"/>
-        <v>37640.314215117003</v>
-      </c>
-      <c r="V26" s="3">
-        <f t="shared" si="48"/>
-        <v>38393.120499419347</v>
-      </c>
-      <c r="W26" s="3">
-        <f t="shared" si="48"/>
-        <v>39160.982909407736</v>
-      </c>
-      <c r="X26" s="3">
-        <f t="shared" si="48"/>
-        <v>39944.202567595894</v>
-      </c>
-      <c r="Y26" s="3">
-        <f t="shared" si="48"/>
-        <v>40743.086618947811</v>
-      </c>
-      <c r="Z26" s="3">
-        <f t="shared" si="48"/>
-        <v>41557.94835132677</v>
-      </c>
-      <c r="AA26" s="3">
-        <f t="shared" si="48"/>
-        <v>42389.107318353308</v>
-      </c>
-      <c r="AB26" s="3">
-        <f t="shared" si="48"/>
-        <v>43236.889464720378</v>
-      </c>
-      <c r="AC26" s="3">
-        <f t="shared" si="48"/>
-        <v>44101.627254014784</v>
-      </c>
-      <c r="AD26" s="3">
-        <f t="shared" si="48"/>
-        <v>44983.659799095083</v>
-      </c>
-      <c r="AE26" s="3">
-        <f t="shared" si="48"/>
-        <v>45883.332995076984</v>
-      </c>
-      <c r="AF26" s="3">
-        <f t="shared" si="48"/>
-        <v>46800.999654978521</v>
-      </c>
-      <c r="AG26" s="3">
-        <f t="shared" si="48"/>
-        <v>47737.019648078094</v>
-      </c>
-      <c r="AH26" s="3">
-        <f t="shared" si="48"/>
-        <v>48691.760041039655</v>
-      </c>
-      <c r="AI26" s="3">
-        <f t="shared" si="48"/>
-        <v>49665.59524186045</v>
-      </c>
-      <c r="AJ26" s="3">
-        <f t="shared" si="48"/>
-        <v>50658.90714669766</v>
-      </c>
-      <c r="AK26" s="3">
-        <f t="shared" si="48"/>
-        <v>51672.085289631614</v>
-      </c>
-      <c r="AL26" s="3">
-        <f t="shared" si="48"/>
-        <v>52705.526995424247</v>
-      </c>
-      <c r="AM26" s="3">
-        <f t="shared" si="48"/>
-        <v>53759.637535332731</v>
-      </c>
-      <c r="AN26" s="3">
-        <f t="shared" si="48"/>
-        <v>54834.830286039389</v>
-      </c>
-      <c r="AO26" s="3">
-        <f t="shared" si="48"/>
-        <v>55931.526891760179</v>
-      </c>
-      <c r="AP26" s="3">
-        <f t="shared" si="48"/>
-        <v>57050.157429595383</v>
-      </c>
-      <c r="AQ26" s="3">
-        <f t="shared" si="48"/>
-        <v>58191.160578187293</v>
-      </c>
-      <c r="AR26" s="3">
-        <f t="shared" si="48"/>
-        <v>59354.983789751037</v>
-      </c>
-      <c r="AS26" s="3">
-        <f t="shared" si="48"/>
-        <v>60542.083465546057</v>
-      </c>
-      <c r="AT26" s="3">
-        <f t="shared" si="48"/>
-        <v>61752.925134856981</v>
-      </c>
-      <c r="AU26" s="3">
-        <f t="shared" si="48"/>
-        <v>62987.98363755412</v>
-      </c>
-      <c r="AV26" s="3">
-        <f t="shared" si="48"/>
-        <v>64247.743310305203</v>
-      </c>
-      <c r="AW26" s="3">
-        <f t="shared" si="48"/>
-        <v>65532.698176511309</v>
-      </c>
-      <c r="AX26" s="3">
-        <f t="shared" si="48"/>
-        <v>66843.352140041534</v>
-      </c>
-      <c r="AY26" s="3">
-        <f t="shared" si="48"/>
-        <v>68180.219182842367</v>
-      </c>
-      <c r="AZ26" s="3">
-        <f t="shared" si="48"/>
-        <v>69543.82356649921</v>
-      </c>
-      <c r="BA26" s="3">
-        <f t="shared" si="48"/>
-        <v>70934.7000378292</v>
-      </c>
-      <c r="BB26" s="3">
-        <f t="shared" si="48"/>
-        <v>72353.394038585786</v>
-      </c>
-      <c r="BC26" s="3">
-        <f t="shared" si="48"/>
-        <v>73800.461919357505</v>
-      </c>
-      <c r="BD26" s="3">
-        <f t="shared" si="48"/>
-        <v>75276.471157744658</v>
-      </c>
-      <c r="BE26" s="3">
-        <f t="shared" si="48"/>
-        <v>76782.000580899548</v>
-      </c>
-      <c r="BF26" s="3">
-        <f t="shared" si="48"/>
-        <v>78317.640592517535</v>
-      </c>
-      <c r="BG26" s="3">
-        <f t="shared" si="48"/>
-        <v>79883.99340436788</v>
-      </c>
-      <c r="BH26" s="3">
-        <f t="shared" si="48"/>
-        <v>81481.673272455242</v>
-      </c>
-      <c r="BI26" s="3">
-        <f t="shared" si="48"/>
-        <v>83111.30673790435</v>
-      </c>
-      <c r="BJ26" s="3">
-        <f t="shared" si="48"/>
-        <v>84773.532872662443</v>
-      </c>
-      <c r="BK26" s="3">
-        <f t="shared" si="48"/>
-        <v>86469.00353011569</v>
-      </c>
-      <c r="BL26" s="3">
-        <f t="shared" si="48"/>
-        <v>88198.383600718007</v>
-      </c>
-      <c r="BM26" s="3">
-        <f t="shared" si="48"/>
-        <v>89962.351272732369</v>
-      </c>
-      <c r="BN26" s="3">
-        <f t="shared" si="48"/>
-        <v>91761.598298187018</v>
-      </c>
-      <c r="BO26" s="3">
-        <f t="shared" si="48"/>
-        <v>93596.830264150762</v>
-      </c>
-      <c r="BP26" s="3">
-        <f t="shared" si="48"/>
-        <v>95468.766869433777</v>
-      </c>
-      <c r="BQ26" s="3">
-        <f t="shared" si="48"/>
-        <v>97378.142206822449</v>
-      </c>
-      <c r="BR26" s="3">
-        <f t="shared" si="48"/>
-        <v>99325.705050958903</v>
-      </c>
-      <c r="BS26" s="3">
-        <f t="shared" si="48"/>
-        <v>101312.21915197808</v>
-      </c>
-      <c r="BT26" s="3">
-        <f t="shared" si="48"/>
-        <v>103338.46353501764</v>
-      </c>
-      <c r="BU26" s="3">
-        <f t="shared" si="48"/>
-        <v>105405.232805718</v>
-      </c>
-      <c r="BV26" s="3">
-        <f t="shared" si="48"/>
-        <v>107513.33746183236</v>
-      </c>
-      <c r="BW26" s="3">
-        <f t="shared" si="48"/>
-        <v>109663.604211069</v>
-      </c>
-      <c r="BX26" s="3">
-        <f t="shared" si="48"/>
-        <v>111856.87629529038</v>
-      </c>
-      <c r="BY26" s="3">
-        <f t="shared" si="48"/>
-        <v>114094.01382119619</v>
-      </c>
-      <c r="BZ26" s="3">
-        <f t="shared" si="48"/>
-        <v>116375.89409762011</v>
-      </c>
-      <c r="CA26" s="3">
-        <f t="shared" si="48"/>
-        <v>118703.41197957251</v>
-      </c>
-      <c r="CB26" s="3">
-        <f t="shared" si="48"/>
-        <v>121077.48021916396</v>
-      </c>
-      <c r="CC26" s="3">
-        <f t="shared" si="48"/>
-        <v>123499.02982354724</v>
-      </c>
-      <c r="CD26" s="3">
-        <f t="shared" si="48"/>
-        <v>125969.0104200182</v>
-      </c>
-      <c r="CE26" s="3">
-        <f t="shared" si="48"/>
-        <v>128488.39062841857</v>
-      </c>
-      <c r="CF26" s="3">
-        <f t="shared" ref="CF26:DN26" si="49">CE26*(1+$U$18)</f>
-        <v>131058.15844098694</v>
-      </c>
-      <c r="CG26" s="3">
-        <f t="shared" si="49"/>
-        <v>133679.32160980668</v>
-      </c>
-      <c r="CH26" s="3">
-        <f t="shared" si="49"/>
-        <v>136352.90804200282</v>
-      </c>
-      <c r="CI26" s="3">
-        <f t="shared" si="49"/>
-        <v>139079.96620284289</v>
-      </c>
-      <c r="CJ26" s="3">
-        <f t="shared" si="49"/>
-        <v>141861.56552689974</v>
-      </c>
-      <c r="CK26" s="3">
-        <f t="shared" si="49"/>
-        <v>144698.79683743772</v>
-      </c>
-      <c r="CL26" s="3">
-        <f t="shared" si="49"/>
-        <v>147592.77277418648</v>
-      </c>
-      <c r="CM26" s="3">
-        <f t="shared" si="49"/>
-        <v>150544.62822967023</v>
-      </c>
-      <c r="CN26" s="3">
-        <f t="shared" si="49"/>
-        <v>153555.52079426363</v>
-      </c>
-      <c r="CO26" s="3">
-        <f t="shared" si="49"/>
-        <v>156626.63121014892</v>
-      </c>
-      <c r="CP26" s="3">
-        <f t="shared" si="49"/>
-        <v>159759.1638343519</v>
-      </c>
-      <c r="CQ26" s="3">
-        <f t="shared" si="49"/>
-        <v>162954.34711103895</v>
-      </c>
-      <c r="CR26" s="3">
-        <f t="shared" si="49"/>
-        <v>166213.43405325973</v>
-      </c>
-      <c r="CS26" s="3">
-        <f t="shared" si="49"/>
-        <v>169537.70273432494</v>
-      </c>
-      <c r="CT26" s="3">
-        <f t="shared" si="49"/>
-        <v>172928.45678901143</v>
-      </c>
-      <c r="CU26" s="3">
-        <f t="shared" si="49"/>
-        <v>176387.02592479167</v>
-      </c>
-      <c r="CV26" s="3">
-        <f t="shared" si="49"/>
-        <v>179914.76644328752</v>
-      </c>
-      <c r="CW26" s="3">
-        <f t="shared" si="49"/>
-        <v>183513.06177215328</v>
-      </c>
-      <c r="CX26" s="3">
-        <f t="shared" si="49"/>
-        <v>187183.32300759634</v>
-      </c>
-      <c r="CY26" s="3">
-        <f t="shared" si="49"/>
-        <v>190926.98946774827</v>
-      </c>
-      <c r="CZ26" s="3">
-        <f t="shared" si="49"/>
-        <v>194745.52925710325</v>
-      </c>
-      <c r="DA26" s="3">
-        <f t="shared" si="49"/>
-        <v>198640.43984224531</v>
-      </c>
-      <c r="DB26" s="3">
-        <f t="shared" si="49"/>
-        <v>202613.24863909022</v>
-      </c>
-      <c r="DC26" s="3">
-        <f t="shared" si="49"/>
-        <v>206665.51361187204</v>
-      </c>
-      <c r="DD26" s="3">
-        <f t="shared" si="49"/>
-        <v>210798.82388410947</v>
-      </c>
-      <c r="DE26" s="3">
-        <f t="shared" si="49"/>
-        <v>215014.80036179165</v>
-      </c>
-      <c r="DF26" s="3">
-        <f t="shared" si="49"/>
-        <v>219315.09636902748</v>
-      </c>
-      <c r="DG26" s="3">
-        <f t="shared" si="49"/>
-        <v>223701.39829640804</v>
-      </c>
-      <c r="DH26" s="3">
-        <f t="shared" si="49"/>
-        <v>228175.4262623362</v>
-      </c>
-      <c r="DI26" s="3">
-        <f t="shared" si="49"/>
-        <v>232738.93478758293</v>
-      </c>
-      <c r="DJ26" s="3">
-        <f t="shared" si="49"/>
-        <v>237393.71348333458</v>
-      </c>
-      <c r="DK26" s="3">
-        <f t="shared" si="49"/>
-        <v>242141.58775300128</v>
-      </c>
-      <c r="DL26" s="3">
-        <f t="shared" si="49"/>
-        <v>246984.41950806131</v>
-      </c>
-      <c r="DM26" s="3">
-        <f t="shared" si="49"/>
-        <v>251924.10789822254</v>
-      </c>
-      <c r="DN26" s="3">
-        <f t="shared" si="49"/>
-        <v>256962.59005618701</v>
-      </c>
-    </row>
-    <row r="27" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="K27" s="4">
-        <f>K26/K14</f>
+      <c r="N28" s="3">
+        <f>N29*N14</f>
+        <v>13240.194018461536</v>
+      </c>
+      <c r="O28" s="3">
+        <f>O29*O14</f>
+        <v>17330.163011741533</v>
+      </c>
+      <c r="P28" s="3">
+        <f>P29*P14</f>
+        <v>22424.321983368656</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>Q29*Q14</f>
+        <v>28752.512311426606</v>
+      </c>
+      <c r="R28" s="3">
+        <f>R29*R14</f>
+        <v>36595.749850200125</v>
+      </c>
+      <c r="S28" s="3">
+        <f>S29*S14</f>
+        <v>46297.485829855308</v>
+      </c>
+      <c r="T28" s="3">
+        <f>S28*(1+$V$20)</f>
+        <v>46760.460688153864</v>
+      </c>
+      <c r="U28" s="3">
+        <f>T28*(1+$V$20)</f>
+        <v>47228.065295035405</v>
+      </c>
+      <c r="V28" s="3">
+        <f>U28*(1+$V$20)</f>
+        <v>47700.345947985763</v>
+      </c>
+      <c r="W28" s="3">
+        <f>V28*(1+$V$20)</f>
+        <v>48177.349407465619</v>
+      </c>
+      <c r="X28" s="3">
+        <f>W28*(1+$V$20)</f>
+        <v>48659.122901540279</v>
+      </c>
+      <c r="Y28" s="3">
+        <f>X28*(1+$V$20)</f>
+        <v>49145.71413055568</v>
+      </c>
+      <c r="Z28" s="3">
+        <f>Y28*(1+$V$20)</f>
+        <v>49637.17127186124</v>
+      </c>
+      <c r="AA28" s="3">
+        <f>Z28*(1+$V$20)</f>
+        <v>50133.54298457985</v>
+      </c>
+      <c r="AB28" s="3">
+        <f>AA28*(1+$V$20)</f>
+        <v>50634.87841442565</v>
+      </c>
+      <c r="AC28" s="3">
+        <f>AB28*(1+$V$20)</f>
+        <v>51141.227198569904</v>
+      </c>
+      <c r="AD28" s="3">
+        <f>AC28*(1+$V$20)</f>
+        <v>51652.639470555601</v>
+      </c>
+      <c r="AE28" s="3">
+        <f>AD28*(1+$V$20)</f>
+        <v>52169.165865261159</v>
+      </c>
+      <c r="AF28" s="3">
+        <f>AE28*(1+$V$20)</f>
+        <v>52690.857523913772</v>
+      </c>
+      <c r="AG28" s="3">
+        <f>AF28*(1+$V$20)</f>
+        <v>53217.766099152912</v>
+      </c>
+      <c r="AH28" s="3">
+        <f>AG28*(1+$V$20)</f>
+        <v>53749.943760144444</v>
+      </c>
+      <c r="AI28" s="3">
+        <f>AH28*(1+$V$20)</f>
+        <v>54287.443197745888</v>
+      </c>
+      <c r="AJ28" s="3">
+        <f>AI28*(1+$V$20)</f>
+        <v>54830.317629723344</v>
+      </c>
+      <c r="AK28" s="3">
+        <f>AJ28*(1+$V$20)</f>
+        <v>55378.620806020575</v>
+      </c>
+      <c r="AL28" s="3">
+        <f>AK28*(1+$V$20)</f>
+        <v>55932.407014080782</v>
+      </c>
+      <c r="AM28" s="3">
+        <f>AL28*(1+$V$20)</f>
+        <v>56491.731084221588</v>
+      </c>
+      <c r="AN28" s="3">
+        <f>AM28*(1+$V$20)</f>
+        <v>57056.648395063807</v>
+      </c>
+      <c r="AO28" s="3">
+        <f>AN28*(1+$V$20)</f>
+        <v>57627.214879014442</v>
+      </c>
+      <c r="AP28" s="3">
+        <f>AO28*(1+$V$20)</f>
+        <v>58203.487027804586</v>
+      </c>
+      <c r="AQ28" s="3">
+        <f>AP28*(1+$V$20)</f>
+        <v>58785.521898082632</v>
+      </c>
+      <c r="AR28" s="3">
+        <f>AQ28*(1+$V$20)</f>
+        <v>59373.377117063457</v>
+      </c>
+      <c r="AS28" s="3">
+        <f>AR28*(1+$V$20)</f>
+        <v>59967.110888234092</v>
+      </c>
+      <c r="AT28" s="3">
+        <f>AS28*(1+$V$20)</f>
+        <v>60566.781997116435</v>
+      </c>
+      <c r="AU28" s="3">
+        <f>AT28*(1+$V$20)</f>
+        <v>61172.449817087603</v>
+      </c>
+      <c r="AV28" s="3">
+        <f>AU28*(1+$V$20)</f>
+        <v>61784.174315258482</v>
+      </c>
+      <c r="AW28" s="3">
+        <f>AV28*(1+$V$20)</f>
+        <v>62402.016058411071</v>
+      </c>
+      <c r="AX28" s="3">
+        <f>AW28*(1+$V$20)</f>
+        <v>63026.036218995185</v>
+      </c>
+      <c r="AY28" s="3">
+        <f>AX28*(1+$V$20)</f>
+        <v>63656.296581185139</v>
+      </c>
+      <c r="AZ28" s="3">
+        <f>AY28*(1+$V$20)</f>
+        <v>64292.859546996988</v>
+      </c>
+      <c r="BA28" s="3">
+        <f>AZ28*(1+$V$20)</f>
+        <v>64935.788142466961</v>
+      </c>
+      <c r="BB28" s="3">
+        <f>BA28*(1+$V$20)</f>
+        <v>65585.146023891633</v>
+      </c>
+      <c r="BC28" s="3">
+        <f>BB28*(1+$V$20)</f>
+        <v>66240.997484130552</v>
+      </c>
+      <c r="BD28" s="3">
+        <f>BC28*(1+$V$20)</f>
+        <v>66903.407458971851</v>
+      </c>
+      <c r="BE28" s="3">
+        <f>BD28*(1+$V$20)</f>
+        <v>67572.441533561563</v>
+      </c>
+      <c r="BF28" s="3">
+        <f>BE28*(1+$V$20)</f>
+        <v>68248.165948897178</v>
+      </c>
+      <c r="BG28" s="3">
+        <f>BF28*(1+$V$20)</f>
+        <v>68930.647608386149</v>
+      </c>
+      <c r="BH28" s="3">
+        <f>BG28*(1+$V$20)</f>
+        <v>69619.95408447001</v>
+      </c>
+      <c r="BI28" s="3">
+        <f>BH28*(1+$V$20)</f>
+        <v>70316.153625314706</v>
+      </c>
+      <c r="BJ28" s="3">
+        <f>BI28*(1+$V$20)</f>
+        <v>71019.315161567851</v>
+      </c>
+      <c r="BK28" s="3">
+        <f>BJ28*(1+$V$20)</f>
+        <v>71729.508313183527</v>
+      </c>
+      <c r="BL28" s="3">
+        <f>BK28*(1+$V$20)</f>
+        <v>72446.803396315358</v>
+      </c>
+      <c r="BM28" s="3">
+        <f>BL28*(1+$V$20)</f>
+        <v>73171.271430278517</v>
+      </c>
+      <c r="BN28" s="3">
+        <f>BM28*(1+$V$20)</f>
+        <v>73902.984144581307</v>
+      </c>
+      <c r="BO28" s="3">
+        <f>BN28*(1+$V$20)</f>
+        <v>74642.013986027116</v>
+      </c>
+      <c r="BP28" s="3">
+        <f>BO28*(1+$V$20)</f>
+        <v>75388.43412588739</v>
+      </c>
+      <c r="BQ28" s="3">
+        <f>BP28*(1+$V$20)</f>
+        <v>76142.318467146266</v>
+      </c>
+      <c r="BR28" s="3">
+        <f>BQ28*(1+$V$20)</f>
+        <v>76903.741651817734</v>
+      </c>
+      <c r="BS28" s="3">
+        <f>BR28*(1+$V$20)</f>
+        <v>77672.779068335905</v>
+      </c>
+      <c r="BT28" s="3">
+        <f>BS28*(1+$V$20)</f>
+        <v>78449.506859019268</v>
+      </c>
+      <c r="BU28" s="3">
+        <f>BT28*(1+$V$20)</f>
+        <v>79234.001927609468</v>
+      </c>
+      <c r="BV28" s="3">
+        <f>BU28*(1+$V$20)</f>
+        <v>80026.341946885557</v>
+      </c>
+      <c r="BW28" s="3">
+        <f>BV28*(1+$V$20)</f>
+        <v>80826.605366354415</v>
+      </c>
+      <c r="BX28" s="3">
+        <f>BW28*(1+$V$20)</f>
+        <v>81634.871420017953</v>
+      </c>
+      <c r="BY28" s="3">
+        <f>BX28*(1+$V$20)</f>
+        <v>82451.220134218136</v>
+      </c>
+      <c r="BZ28" s="3">
+        <f>BY28*(1+$V$20)</f>
+        <v>83275.732335560315</v>
+      </c>
+      <c r="CA28" s="3">
+        <f>BZ28*(1+$V$20)</f>
+        <v>84108.489658915918</v>
+      </c>
+      <c r="CB28" s="3">
+        <f>CA28*(1+$V$20)</f>
+        <v>84949.574555505082</v>
+      </c>
+      <c r="CC28" s="3">
+        <f>CB28*(1+$V$20)</f>
+        <v>85799.070301060128</v>
+      </c>
+      <c r="CD28" s="3">
+        <f>CC28*(1+$V$20)</f>
+        <v>86657.061004070725</v>
+      </c>
+      <c r="CE28" s="3">
+        <f>CD28*(1+$V$20)</f>
+        <v>87523.631614111437</v>
+      </c>
+      <c r="CF28" s="3">
+        <f>CE28*(1+$V$20)</f>
+        <v>88398.867930252556</v>
+      </c>
+      <c r="CG28" s="3">
+        <f>CF28*(1+$V$20)</f>
+        <v>89282.856609555078</v>
+      </c>
+      <c r="CH28" s="3">
+        <f>CG28*(1+$V$20)</f>
+        <v>90175.685175650622</v>
+      </c>
+      <c r="CI28" s="3">
+        <f>CH28*(1+$V$20)</f>
+        <v>91077.442027407131</v>
+      </c>
+      <c r="CJ28" s="3">
+        <f>CI28*(1+$V$20)</f>
+        <v>91988.216447681203</v>
+      </c>
+      <c r="CK28" s="3">
+        <f>CJ28*(1+$V$20)</f>
+        <v>92908.098612158021</v>
+      </c>
+      <c r="CL28" s="3">
+        <f>CK28*(1+$V$20)</f>
+        <v>93837.179598279603</v>
+      </c>
+      <c r="CM28" s="3">
+        <f>CL28*(1+$V$20)</f>
+        <v>94775.551394262395</v>
+      </c>
+      <c r="CN28" s="3">
+        <f>CM28*(1+$V$20)</f>
+        <v>95723.306908205021</v>
+      </c>
+      <c r="CO28" s="3">
+        <f>CN28*(1+$V$20)</f>
+        <v>96680.539977287073</v>
+      </c>
+      <c r="CP28" s="3">
+        <f>CO28*(1+$V$20)</f>
+        <v>97647.345377059944</v>
+      </c>
+      <c r="CQ28" s="3">
+        <f>CP28*(1+$V$20)</f>
+        <v>98623.81883083054</v>
+      </c>
+      <c r="CR28" s="3">
+        <f>CQ28*(1+$V$20)</f>
+        <v>99610.05701913884</v>
+      </c>
+      <c r="CS28" s="3">
+        <f>CR28*(1+$V$20)</f>
+        <v>100606.15758933024</v>
+      </c>
+      <c r="CT28" s="3">
+        <f>CS28*(1+$V$20)</f>
+        <v>101612.21916522353</v>
+      </c>
+      <c r="CU28" s="3">
+        <f>CT28*(1+$V$20)</f>
+        <v>102628.34135687577</v>
+      </c>
+      <c r="CV28" s="3">
+        <f>CU28*(1+$V$20)</f>
+        <v>103654.62477044453</v>
+      </c>
+      <c r="CW28" s="3">
+        <f>CV28*(1+$V$20)</f>
+        <v>104691.17101814898</v>
+      </c>
+      <c r="CX28" s="3">
+        <f>CW28*(1+$V$20)</f>
+        <v>105738.08272833047</v>
+      </c>
+      <c r="CY28" s="3">
+        <f>CX28*(1+$V$20)</f>
+        <v>106795.46355561378</v>
+      </c>
+      <c r="CZ28" s="3">
+        <f>CY28*(1+$V$20)</f>
+        <v>107863.41819116991</v>
+      </c>
+      <c r="DA28" s="3">
+        <f>CZ28*(1+$V$20)</f>
+        <v>108942.05237308161</v>
+      </c>
+      <c r="DB28" s="3">
+        <f>DA28*(1+$V$20)</f>
+        <v>110031.47289681243</v>
+      </c>
+      <c r="DC28" s="3">
+        <f>DB28*(1+$V$20)</f>
+        <v>111131.78762578055</v>
+      </c>
+      <c r="DD28" s="3">
+        <f>DC28*(1+$V$20)</f>
+        <v>112243.10550203835</v>
+      </c>
+      <c r="DE28" s="3">
+        <f>DD28*(1+$V$20)</f>
+        <v>113365.53655705873</v>
+      </c>
+      <c r="DF28" s="3">
+        <f>DE28*(1+$V$20)</f>
+        <v>114499.19192262932</v>
+      </c>
+      <c r="DG28" s="3">
+        <f>DF28*(1+$V$20)</f>
+        <v>115644.18384185561</v>
+      </c>
+      <c r="DH28" s="3">
+        <f>DG28*(1+$V$20)</f>
+        <v>116800.62568027417</v>
+      </c>
+      <c r="DI28" s="3">
+        <f>DH28*(1+$V$20)</f>
+        <v>117968.63193707692</v>
+      </c>
+      <c r="DJ28" s="3">
+        <f>DI28*(1+$V$20)</f>
+        <v>119148.31825644769</v>
+      </c>
+      <c r="DK28" s="3">
+        <f>DJ28*(1+$V$20)</f>
+        <v>120339.80143901217</v>
+      </c>
+      <c r="DL28" s="3">
+        <f>DK28*(1+$V$20)</f>
+        <v>121543.1994534023</v>
+      </c>
+      <c r="DM28" s="3">
+        <f>DL28*(1+$V$20)</f>
+        <v>122758.63144793632</v>
+      </c>
+      <c r="DN28" s="3">
+        <f>DM28*(1+$V$20)</f>
+        <v>123986.21776241569</v>
+      </c>
+    </row>
+    <row r="29" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="K29" s="4">
+        <f>K28/K14</f>
         <v>0.15723549791241009</v>
       </c>
-      <c r="L27" s="4">
-        <f>L26/L14</f>
+      <c r="L29" s="4">
+        <f>L28/L14</f>
         <v>1.1868854882826931</v>
       </c>
-      <c r="M27" s="4">
-        <f>M26/M14</f>
+      <c r="M29" s="4">
+        <f>M28/M14</f>
         <v>0.59459583553341455</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N29" s="4">
         <v>1.2</v>
       </c>
-      <c r="O27" s="4">
-        <f>N27*1.01</f>
-        <v>1.212</v>
-      </c>
-      <c r="P27" s="4">
-        <f t="shared" ref="P27:R27" si="50">O27*1.01</f>
-        <v>1.2241199999999999</v>
-      </c>
-      <c r="Q27" s="4">
-        <f t="shared" si="50"/>
-        <v>1.2363611999999999</v>
-      </c>
-      <c r="R27" s="4">
-        <f t="shared" si="50"/>
-        <v>1.2487248119999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="1">
-        <f>E30-E32</f>
-        <v>-8547.5999999999985</v>
-      </c>
-      <c r="M28" s="1">
-        <f>M30-M32</f>
-        <v>-8547.5999999999985</v>
-      </c>
-      <c r="N28" s="1">
-        <f>M28+N14</f>
-        <v>1985.8066523076923</v>
-      </c>
-      <c r="O28" s="1">
-        <f t="shared" ref="O28:R28" si="51">N28+O14</f>
-        <v>15635.209894057845</v>
-      </c>
-      <c r="P28" s="1">
-        <f t="shared" si="51"/>
-        <v>33173.345018241809</v>
-      </c>
-      <c r="Q28" s="1">
-        <f t="shared" si="51"/>
-        <v>55555.133616883264</v>
-      </c>
-      <c r="R28" s="1">
-        <f t="shared" si="51"/>
-        <v>83959.557412598922</v>
+      <c r="O29" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P29" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R29" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S29" s="4">
+        <v>1.2</v>
       </c>
     </row>
     <row r="30" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E30" s="1">
+        <f>E32-E34</f>
+        <v>-8547.5999999999985</v>
+      </c>
+      <c r="M30" s="1">
+        <f>M32-M34</f>
+        <v>-8547.5999999999985</v>
+      </c>
+      <c r="N30" s="1">
+        <f>M30+N14</f>
+        <v>2485.8950153846145</v>
+      </c>
+      <c r="O30" s="1">
+        <f>N30+O14</f>
+        <v>16927.697525169227</v>
+      </c>
+      <c r="P30" s="1">
+        <f>O30+P14</f>
+        <v>35614.63251130977</v>
+      </c>
+      <c r="Q30" s="1">
+        <f>P30+Q14</f>
+        <v>59575.05943749861</v>
+      </c>
+      <c r="R30" s="1">
+        <f>Q30+R14</f>
+        <v>90071.517645998712</v>
+      </c>
+      <c r="S30" s="1">
+        <f>R30+S14</f>
+        <v>128652.7558375448</v>
+      </c>
+    </row>
+    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1">
         <f>7804.7+1779</f>
         <v>9583.7000000000007</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M32" s="1">
         <f>7804.7+1779</f>
         <v>9583.7000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="1">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
         <f>1780.8+13798.3+2552.2</f>
         <v>18131.3</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M34" s="1">
         <f>1780.8+13798.3+2552.2</f>
         <v>18131.3</v>
       </c>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BA8F24-CF46-474B-8BF6-D2D8B5D9556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE5BED4-95E5-44C0-ADD6-0980D53D4226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
+    <workbookView xWindow="1425" yWindow="1185" windowWidth="23595" windowHeight="13935" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Price</t>
   </si>
@@ -148,15 +148,6 @@
   </si>
   <si>
     <t>Q125</t>
-  </si>
-  <si>
-    <t>R&amp;D y/y</t>
-  </si>
-  <si>
-    <t>S&amp;M y/y</t>
-  </si>
-  <si>
-    <t>G&amp;A y/y</t>
   </si>
 </sst>
 </file>
@@ -245,7 +236,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>597877</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>8060</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -295,7 +286,7 @@
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -743,10 +734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDAC2DB-D73B-4DDE-B84C-DD792E845260}">
-  <dimension ref="A1:DN34"/>
+  <dimension ref="A1:DN31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
@@ -876,28 +867,28 @@
         <v>21038.400000000001</v>
       </c>
       <c r="N3" s="1">
-        <f>N2*(1-N20)</f>
-        <v>23755.249230769234</v>
+        <f t="shared" ref="N3:S3" si="2">N2*(1-N20)</f>
+        <v>24390.813538461545</v>
       </c>
       <c r="O3" s="1">
-        <f>O2*(1-O20)</f>
-        <v>26265.893563076919</v>
+        <f t="shared" si="2"/>
+        <v>27792.01057870769</v>
       </c>
       <c r="P3" s="1">
-        <f>P2*(1-P20)</f>
-        <v>28896.978359827684</v>
+        <f t="shared" si="2"/>
+        <v>31645.554916726938</v>
       </c>
       <c r="Q3" s="1">
-        <f>Q2*(1-Q20)</f>
-        <v>31606.458842270113</v>
+        <f t="shared" si="2"/>
+        <v>36006.996257471299</v>
       </c>
       <c r="R3" s="1">
-        <f>R2*(1-R20)</f>
-        <v>34332.196341884992</v>
+        <f t="shared" si="2"/>
+        <v>40937.689760640045</v>
       </c>
       <c r="S3" s="1">
-        <f>S2*(1-S20)</f>
-        <v>36985.829331935922</v>
+        <f t="shared" si="2"/>
+        <v>46505.160199797298</v>
       </c>
     </row>
     <row r="4" spans="1:118" x14ac:dyDescent="0.2">
@@ -910,36 +901,36 @@
         <v>12447.3</v>
       </c>
       <c r="L4" s="1">
-        <f t="shared" ref="L4:M4" si="2">L2-L3</f>
+        <f t="shared" ref="L4:M4" si="3">L2-L3</f>
         <v>14008.000000000004</v>
       </c>
       <c r="M4" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17961.599999999999</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" ref="N4" si="3">N2-N3</f>
-        <v>22244.750769230766</v>
+        <f t="shared" ref="N4" si="4">N2-N3</f>
+        <v>21609.186461538455</v>
       </c>
       <c r="O4" s="1">
-        <f t="shared" ref="O4" si="4">O2-O3</f>
-        <v>27094.106436923073</v>
+        <f t="shared" ref="O4" si="5">O2-O3</f>
+        <v>25567.989421292303</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" ref="P4" si="5">P2-P3</f>
-        <v>33000.6216401723</v>
+        <f t="shared" ref="P4" si="6">P2-P3</f>
+        <v>30252.045083273046</v>
       </c>
       <c r="Q4" s="1">
-        <f t="shared" ref="Q4" si="6">Q2-Q3</f>
-        <v>40194.757157729859</v>
+        <f t="shared" ref="Q4" si="7">Q2-Q3</f>
+        <v>35794.219742528672</v>
       </c>
       <c r="R4" s="1">
-        <f t="shared" ref="R4:S4" si="7">R2-R3</f>
-        <v>48957.214218114968</v>
+        <f t="shared" ref="R4:S4" si="8">R2-R3</f>
+        <v>42351.720799359915</v>
       </c>
       <c r="S4" s="1">
-        <f t="shared" si="7"/>
-        <v>59629.886917664029</v>
+        <f t="shared" si="8"/>
+        <v>50110.556049802653</v>
       </c>
     </row>
     <row r="5" spans="1:118" x14ac:dyDescent="0.2">
@@ -960,23 +951,23 @@
         <v>3209.2500000000005</v>
       </c>
       <c r="O5" s="1">
-        <f t="shared" ref="O5:S5" si="8">N5*1.1</f>
+        <f t="shared" ref="O5:S5" si="9">N5*1.1</f>
         <v>3530.1750000000006</v>
       </c>
       <c r="P5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3883.192500000001</v>
       </c>
       <c r="Q5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4271.5117500000015</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4698.6629250000024</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5168.5292175000031</v>
       </c>
     </row>
@@ -998,23 +989,23 @@
         <v>3217.5000000000005</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6:S6" si="9">N6*1.1</f>
+        <f t="shared" ref="O6:S6" si="10">N6*1.1</f>
         <v>3539.2500000000009</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3893.1750000000011</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4282.4925000000012</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4710.741750000002</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5181.8159250000026</v>
       </c>
     </row>
@@ -1036,23 +1027,23 @@
         <v>1855.18</v>
       </c>
       <c r="O7" s="1">
-        <f t="shared" ref="O7:S7" si="10">N7*1.09</f>
+        <f t="shared" ref="O7:S7" si="11">N7*1.09</f>
         <v>2022.1462000000001</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2204.1393580000004</v>
       </c>
       <c r="Q7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2402.5119002200004</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2618.7379712398006</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2854.4243886513827</v>
       </c>
     </row>
@@ -1065,35 +1056,35 @@
         <v>6803.5</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:M8" si="11">SUM(L5:L7)</f>
+        <f t="shared" ref="L8:M8" si="12">SUM(L5:L7)</f>
         <v>7052.8</v>
       </c>
       <c r="M8" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7544.5</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" ref="N8" si="12">SUM(N5:N7)</f>
+        <f t="shared" ref="N8" si="13">SUM(N5:N7)</f>
         <v>8281.93</v>
       </c>
       <c r="O8" s="1">
-        <f t="shared" ref="O8" si="13">SUM(O5:O7)</f>
+        <f t="shared" ref="O8" si="14">SUM(O5:O7)</f>
         <v>9091.5712000000021</v>
       </c>
       <c r="P8" s="1">
-        <f t="shared" ref="P8" si="14">SUM(P5:P7)</f>
+        <f t="shared" ref="P8" si="15">SUM(P5:P7)</f>
         <v>9980.5068580000025</v>
       </c>
       <c r="Q8" s="1">
-        <f t="shared" ref="Q8" si="15">SUM(Q5:Q7)</f>
+        <f t="shared" ref="Q8" si="16">SUM(Q5:Q7)</f>
         <v>10956.516150220003</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" ref="R8:S8" si="16">SUM(R5:R7)</f>
+        <f t="shared" ref="R8:S8" si="17">SUM(R5:R7)</f>
         <v>12028.142646239805</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>13204.769531151389</v>
       </c>
     </row>
@@ -1106,36 +1097,36 @@
         <v>5643.7999999999993</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" ref="L9:M9" si="17">L4-L8</f>
+        <f t="shared" ref="L9:M9" si="18">L4-L8</f>
         <v>6955.2000000000035</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10417.099999999999</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N9" si="18">N4-N8</f>
-        <v>13962.820769230766</v>
+        <f t="shared" ref="N9" si="19">N4-N8</f>
+        <v>13327.256461538454</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" ref="O9" si="19">O4-O8</f>
-        <v>18002.535236923071</v>
+        <f t="shared" ref="O9" si="20">O4-O8</f>
+        <v>16476.418221292301</v>
       </c>
       <c r="P9" s="1">
-        <f t="shared" ref="P9" si="20">P4-P8</f>
-        <v>23020.114782172299</v>
+        <f t="shared" ref="P9" si="21">P4-P8</f>
+        <v>20271.538225273041</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" ref="Q9" si="21">Q4-Q8</f>
-        <v>29238.241007509856</v>
+        <f t="shared" ref="Q9" si="22">Q4-Q8</f>
+        <v>24837.70359230867</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" ref="R9:S9" si="22">R4-R8</f>
-        <v>36929.07157187516</v>
+        <f t="shared" ref="R9:S9" si="23">R4-R8</f>
+        <v>30323.57815312011</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="22"/>
-        <v>46425.11738651264</v>
+        <f t="shared" si="23"/>
+        <v>36905.786518651264</v>
       </c>
     </row>
     <row r="10" spans="1:118" x14ac:dyDescent="0.2">
@@ -1166,28 +1157,28 @@
         <v>266.7</v>
       </c>
       <c r="N11" s="1">
-        <f>M30*$V$19</f>
+        <f>M27*$V$17</f>
         <v>-170.95199999999997</v>
       </c>
       <c r="O11" s="1">
-        <f>N30*$V$19</f>
-        <v>49.71790030769229</v>
+        <f>N27*$V$17</f>
+        <v>39.548871384615303</v>
       </c>
       <c r="P11" s="1">
-        <f>O30*$V$19</f>
-        <v>338.55395050338456</v>
+        <f>O27*$V$17</f>
+        <v>303.80434486744599</v>
       </c>
       <c r="Q11" s="1">
-        <f>P30*$V$19</f>
-        <v>712.29265022619541</v>
+        <f>P27*$V$17</f>
+        <v>633.00982598969381</v>
       </c>
       <c r="R11" s="1">
-        <f>Q30*$V$19</f>
-        <v>1191.5011887499722</v>
+        <f>Q27*$V$17</f>
+        <v>1040.5412406824676</v>
       </c>
       <c r="S11" s="1">
-        <f>R30*$V$19</f>
-        <v>1801.4303529199742</v>
+        <f>R27*$V$17</f>
+        <v>1542.3671509833091</v>
       </c>
     </row>
     <row r="12" spans="1:118" x14ac:dyDescent="0.2">
@@ -1199,36 +1190,36 @@
         <v>5274.7999999999993</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" ref="L12:M12" si="23">L9+SUM(L10:L11)</f>
+        <f t="shared" ref="L12:M12" si="24">L9+SUM(L10:L11)</f>
         <v>6208.2000000000035</v>
       </c>
       <c r="M12" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>9965.7999999999993</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" ref="N12" si="24">N9+SUM(N10:N11)</f>
-        <v>13791.868769230767</v>
+        <f t="shared" ref="N12" si="25">N9+SUM(N10:N11)</f>
+        <v>13156.304461538455</v>
       </c>
       <c r="O12" s="1">
-        <f t="shared" ref="O12" si="25">O9+SUM(O10:O11)</f>
-        <v>18052.253137230764</v>
+        <f t="shared" ref="O12" si="26">O9+SUM(O10:O11)</f>
+        <v>16515.967092676918</v>
       </c>
       <c r="P12" s="1">
-        <f t="shared" ref="P12" si="26">P9+SUM(P10:P11)</f>
-        <v>23358.668732675684</v>
+        <f t="shared" ref="P12" si="27">P9+SUM(P10:P11)</f>
+        <v>20575.342570140489</v>
       </c>
       <c r="Q12" s="1">
-        <f t="shared" ref="Q12" si="27">Q9+SUM(Q10:Q11)</f>
-        <v>29950.53365773605</v>
+        <f t="shared" ref="Q12" si="28">Q9+SUM(Q10:Q11)</f>
+        <v>25470.713418298365</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" ref="R12:S12" si="28">R9+SUM(R10:R11)</f>
-        <v>38120.572760625131</v>
+        <f t="shared" ref="R12:S12" si="29">R9+SUM(R10:R11)</f>
+        <v>31364.119393802579</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="28"/>
-        <v>48226.547739432615</v>
+        <f t="shared" si="29"/>
+        <v>38448.153669634572</v>
       </c>
     </row>
     <row r="13" spans="1:118" x14ac:dyDescent="0.2">
@@ -1246,27 +1237,27 @@
       </c>
       <c r="N13" s="1">
         <f>N12*0.2</f>
-        <v>2758.3737538461537</v>
+        <v>2631.2608923076914</v>
       </c>
       <c r="O13" s="1">
-        <f t="shared" ref="O13:S13" si="29">O12*0.2</f>
-        <v>3610.4506274461528</v>
+        <f t="shared" ref="O13:S13" si="30">O12*0.2</f>
+        <v>3303.1934185353839</v>
       </c>
       <c r="P13" s="1">
-        <f t="shared" si="29"/>
-        <v>4671.7337465351366</v>
+        <f t="shared" si="30"/>
+        <v>4115.0685140280975</v>
       </c>
       <c r="Q13" s="1">
-        <f t="shared" si="29"/>
-        <v>5990.1067315472101</v>
+        <f t="shared" si="30"/>
+        <v>5094.1426836596729</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="29"/>
-        <v>7624.1145521250264</v>
+        <f t="shared" si="30"/>
+        <v>6272.823878760516</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="29"/>
-        <v>9645.3095478865234</v>
+        <f t="shared" si="30"/>
+        <v>7689.6307339269151</v>
       </c>
     </row>
     <row r="14" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1278,432 +1269,432 @@
         <v>4502.7999999999993</v>
       </c>
       <c r="L14" s="3">
-        <f t="shared" ref="L14:M14" si="30">L12-L13</f>
+        <f t="shared" ref="L14:M14" si="31">L12-L13</f>
         <v>5410.8000000000038</v>
       </c>
       <c r="M14" s="3">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>8711.7999999999993</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ref="N14" si="31">N12-N13</f>
-        <v>11033.495015384613</v>
+        <f t="shared" ref="N14" si="32">N12-N13</f>
+        <v>10525.043569230764</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" ref="O14" si="32">O12-O13</f>
-        <v>14441.802509784611</v>
+        <f t="shared" ref="O14" si="33">O12-O13</f>
+        <v>13212.773674141534</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="P14" si="33">P12-P13</f>
-        <v>18686.934986140546</v>
+        <f t="shared" ref="P14" si="34">P12-P13</f>
+        <v>16460.27405611239</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" ref="Q14" si="34">Q12-Q13</f>
-        <v>23960.42692618884</v>
+        <f t="shared" ref="Q14" si="35">Q12-Q13</f>
+        <v>20376.570734638692</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" ref="R14:S14" si="35">R12-R13</f>
-        <v>30496.458208500106</v>
+        <f t="shared" ref="R14:S14" si="36">R12-R13</f>
+        <v>25091.295515042064</v>
       </c>
       <c r="S14" s="3">
-        <f t="shared" si="35"/>
-        <v>38581.238191546094</v>
+        <f t="shared" si="36"/>
+        <v>30758.522935707657</v>
       </c>
       <c r="T14" s="3">
-        <f>S14*(1+$V$20)</f>
-        <v>38967.050573461558</v>
+        <f>S14*(1+$V$18)</f>
+        <v>31066.108165064732</v>
       </c>
       <c r="U14" s="3">
-        <f>T14*(1+$V$20)</f>
-        <v>39356.721079196177</v>
+        <f>T14*(1+$V$18)</f>
+        <v>31376.769246715379</v>
       </c>
       <c r="V14" s="3">
-        <f>U14*(1+$V$20)</f>
-        <v>39750.288289988137</v>
+        <f>U14*(1+$V$18)</f>
+        <v>31690.536939182533</v>
       </c>
       <c r="W14" s="3">
-        <f>V14*(1+$V$20)</f>
-        <v>40147.791172888021</v>
+        <f>V14*(1+$V$18)</f>
+        <v>32007.442308574358</v>
       </c>
       <c r="X14" s="3">
-        <f>W14*(1+$V$20)</f>
-        <v>40549.269084616899</v>
+        <f>W14*(1+$V$18)</f>
+        <v>32327.516731660104</v>
       </c>
       <c r="Y14" s="3">
-        <f>X14*(1+$V$20)</f>
-        <v>40954.76177546307</v>
+        <f>X14*(1+$V$18)</f>
+        <v>32650.791898976706</v>
       </c>
       <c r="Z14" s="3">
-        <f>Y14*(1+$V$20)</f>
-        <v>41364.3093932177</v>
+        <f>Y14*(1+$V$18)</f>
+        <v>32977.299817966472</v>
       </c>
       <c r="AA14" s="3">
-        <f>Z14*(1+$V$20)</f>
-        <v>41777.95248714988</v>
+        <f>Z14*(1+$V$18)</f>
+        <v>33307.072816146137</v>
       </c>
       <c r="AB14" s="3">
-        <f>AA14*(1+$V$20)</f>
-        <v>42195.732012021377</v>
+        <f>AA14*(1+$V$18)</f>
+        <v>33640.143544307597</v>
       </c>
       <c r="AC14" s="3">
-        <f>AB14*(1+$V$20)</f>
-        <v>42617.689332141592</v>
+        <f>AB14*(1+$V$18)</f>
+        <v>33976.544979750674</v>
       </c>
       <c r="AD14" s="3">
-        <f>AC14*(1+$V$20)</f>
-        <v>43043.866225463011</v>
+        <f>AC14*(1+$V$18)</f>
+        <v>34316.310429548183</v>
       </c>
       <c r="AE14" s="3">
-        <f>AD14*(1+$V$20)</f>
-        <v>43474.304887717641</v>
+        <f>AD14*(1+$V$18)</f>
+        <v>34659.473533843666</v>
       </c>
       <c r="AF14" s="3">
-        <f>AE14*(1+$V$20)</f>
-        <v>43909.047936594819</v>
+        <f>AE14*(1+$V$18)</f>
+        <v>35006.068269182106</v>
       </c>
       <c r="AG14" s="3">
-        <f>AF14*(1+$V$20)</f>
-        <v>44348.13841596077</v>
+        <f>AF14*(1+$V$18)</f>
+        <v>35356.128951873929</v>
       </c>
       <c r="AH14" s="3">
-        <f>AG14*(1+$V$20)</f>
-        <v>44791.619800120381</v>
+        <f>AG14*(1+$V$18)</f>
+        <v>35709.690241392665</v>
       </c>
       <c r="AI14" s="3">
-        <f>AH14*(1+$V$20)</f>
-        <v>45239.535998121588</v>
+        <f>AH14*(1+$V$18)</f>
+        <v>36066.787143806592</v>
       </c>
       <c r="AJ14" s="3">
-        <f>AI14*(1+$V$20)</f>
-        <v>45691.931358102804</v>
+        <f>AI14*(1+$V$18)</f>
+        <v>36427.455015244661</v>
       </c>
       <c r="AK14" s="3">
-        <f>AJ14*(1+$V$20)</f>
-        <v>46148.850671683831</v>
+        <f>AJ14*(1+$V$18)</f>
+        <v>36791.729565397109</v>
       </c>
       <c r="AL14" s="3">
-        <f>AK14*(1+$V$20)</f>
-        <v>46610.339178400667</v>
+        <f>AK14*(1+$V$18)</f>
+        <v>37159.646861051078</v>
       </c>
       <c r="AM14" s="3">
-        <f>AL14*(1+$V$20)</f>
-        <v>47076.442570184678</v>
+        <f>AL14*(1+$V$18)</f>
+        <v>37531.243329661593</v>
       </c>
       <c r="AN14" s="3">
-        <f>AM14*(1+$V$20)</f>
-        <v>47547.206995886525</v>
+        <f>AM14*(1+$V$18)</f>
+        <v>37906.555762958211</v>
       </c>
       <c r="AO14" s="3">
-        <f>AN14*(1+$V$20)</f>
-        <v>48022.67906584539</v>
+        <f>AN14*(1+$V$18)</f>
+        <v>38285.621320587794</v>
       </c>
       <c r="AP14" s="3">
-        <f>AO14*(1+$V$20)</f>
-        <v>48502.905856503843</v>
+        <f>AO14*(1+$V$18)</f>
+        <v>38668.477533793674</v>
       </c>
       <c r="AQ14" s="3">
-        <f>AP14*(1+$V$20)</f>
-        <v>48987.934915068879</v>
+        <f>AP14*(1+$V$18)</f>
+        <v>39055.162309131614</v>
       </c>
       <c r="AR14" s="3">
-        <f>AQ14*(1+$V$20)</f>
-        <v>49477.814264219567</v>
+        <f>AQ14*(1+$V$18)</f>
+        <v>39445.713932222934</v>
       </c>
       <c r="AS14" s="3">
-        <f>AR14*(1+$V$20)</f>
-        <v>49972.592406861761</v>
+        <f>AR14*(1+$V$18)</f>
+        <v>39840.171071545163</v>
       </c>
       <c r="AT14" s="3">
-        <f>AS14*(1+$V$20)</f>
-        <v>50472.318330930379</v>
+        <f>AS14*(1+$V$18)</f>
+        <v>40238.572782260613</v>
       </c>
       <c r="AU14" s="3">
-        <f>AT14*(1+$V$20)</f>
-        <v>50977.041514239681</v>
+        <f>AT14*(1+$V$18)</f>
+        <v>40640.958510083219</v>
       </c>
       <c r="AV14" s="3">
-        <f>AU14*(1+$V$20)</f>
-        <v>51486.811929382078</v>
+        <f>AU14*(1+$V$18)</f>
+        <v>41047.368095184051</v>
       </c>
       <c r="AW14" s="3">
-        <f>AV14*(1+$V$20)</f>
-        <v>52001.680048675902</v>
+        <f>AV14*(1+$V$18)</f>
+        <v>41457.841776135894</v>
       </c>
       <c r="AX14" s="3">
-        <f>AW14*(1+$V$20)</f>
-        <v>52521.696849162661</v>
+        <f>AW14*(1+$V$18)</f>
+        <v>41872.420193897255</v>
       </c>
       <c r="AY14" s="3">
-        <f>AX14*(1+$V$20)</f>
-        <v>53046.913817654291</v>
+        <f>AX14*(1+$V$18)</f>
+        <v>42291.144395836229</v>
       </c>
       <c r="AZ14" s="3">
-        <f>AY14*(1+$V$20)</f>
-        <v>53577.382955830835</v>
+        <f>AY14*(1+$V$18)</f>
+        <v>42714.055839794593</v>
       </c>
       <c r="BA14" s="3">
-        <f>AZ14*(1+$V$20)</f>
-        <v>54113.156785389147</v>
+        <f>AZ14*(1+$V$18)</f>
+        <v>43141.196398192536</v>
       </c>
       <c r="BB14" s="3">
-        <f>BA14*(1+$V$20)</f>
-        <v>54654.288353243035</v>
+        <f>BA14*(1+$V$18)</f>
+        <v>43572.608362174462</v>
       </c>
       <c r="BC14" s="3">
-        <f>BB14*(1+$V$20)</f>
-        <v>55200.831236775462</v>
+        <f>BB14*(1+$V$18)</f>
+        <v>44008.334445796208</v>
       </c>
       <c r="BD14" s="3">
-        <f>BC14*(1+$V$20)</f>
-        <v>55752.839549143217</v>
+        <f>BC14*(1+$V$18)</f>
+        <v>44448.417790254171</v>
       </c>
       <c r="BE14" s="3">
-        <f>BD14*(1+$V$20)</f>
-        <v>56310.36794463465</v>
+        <f>BD14*(1+$V$18)</f>
+        <v>44892.901968156715</v>
       </c>
       <c r="BF14" s="3">
-        <f>BE14*(1+$V$20)</f>
-        <v>56873.471624080994</v>
+        <f>BE14*(1+$V$18)</f>
+        <v>45341.830987838286</v>
       </c>
       <c r="BG14" s="3">
-        <f>BF14*(1+$V$20)</f>
-        <v>57442.206340321805</v>
+        <f>BF14*(1+$V$18)</f>
+        <v>45795.249297716669</v>
       </c>
       <c r="BH14" s="3">
-        <f>BG14*(1+$V$20)</f>
-        <v>58016.628403725023</v>
+        <f>BG14*(1+$V$18)</f>
+        <v>46253.201790693834</v>
       </c>
       <c r="BI14" s="3">
-        <f>BH14*(1+$V$20)</f>
-        <v>58596.794687762274</v>
+        <f>BH14*(1+$V$18)</f>
+        <v>46715.733808600773</v>
       </c>
       <c r="BJ14" s="3">
-        <f>BI14*(1+$V$20)</f>
-        <v>59182.762634639897</v>
+        <f>BI14*(1+$V$18)</f>
+        <v>47182.891146686779</v>
       </c>
       <c r="BK14" s="3">
-        <f>BJ14*(1+$V$20)</f>
-        <v>59774.590260986297</v>
+        <f>BJ14*(1+$V$18)</f>
+        <v>47654.720058153645</v>
       </c>
       <c r="BL14" s="3">
-        <f>BK14*(1+$V$20)</f>
-        <v>60372.336163596163</v>
+        <f>BK14*(1+$V$18)</f>
+        <v>48131.267258735184</v>
       </c>
       <c r="BM14" s="3">
-        <f>BL14*(1+$V$20)</f>
-        <v>60976.059525232122</v>
+        <f>BL14*(1+$V$18)</f>
+        <v>48612.579931322536</v>
       </c>
       <c r="BN14" s="3">
-        <f>BM14*(1+$V$20)</f>
-        <v>61585.820120484444</v>
+        <f>BM14*(1+$V$18)</f>
+        <v>49098.70573063576</v>
       </c>
       <c r="BO14" s="3">
-        <f>BN14*(1+$V$20)</f>
-        <v>62201.678321689287</v>
+        <f>BN14*(1+$V$18)</f>
+        <v>49589.69278794212</v>
       </c>
       <c r="BP14" s="3">
-        <f>BO14*(1+$V$20)</f>
-        <v>62823.695104906183</v>
+        <f>BO14*(1+$V$18)</f>
+        <v>50085.589715821545</v>
       </c>
       <c r="BQ14" s="3">
-        <f>BP14*(1+$V$20)</f>
-        <v>63451.932055955243</v>
+        <f>BP14*(1+$V$18)</f>
+        <v>50586.445612979762</v>
       </c>
       <c r="BR14" s="3">
-        <f>BQ14*(1+$V$20)</f>
-        <v>64086.451376514793</v>
+        <f>BQ14*(1+$V$18)</f>
+        <v>51092.310069109561</v>
       </c>
       <c r="BS14" s="3">
-        <f>BR14*(1+$V$20)</f>
-        <v>64727.315890279941</v>
+        <f>BR14*(1+$V$18)</f>
+        <v>51603.23316980066</v>
       </c>
       <c r="BT14" s="3">
-        <f>BS14*(1+$V$20)</f>
-        <v>65374.589049182738</v>
+        <f>BS14*(1+$V$18)</f>
+        <v>52119.265501498667</v>
       </c>
       <c r="BU14" s="3">
-        <f>BT14*(1+$V$20)</f>
-        <v>66028.334939674562</v>
+        <f>BT14*(1+$V$18)</f>
+        <v>52640.458156513654</v>
       </c>
       <c r="BV14" s="3">
-        <f>BU14*(1+$V$20)</f>
-        <v>66688.61828907131</v>
+        <f>BU14*(1+$V$18)</f>
+        <v>53166.862738078788</v>
       </c>
       <c r="BW14" s="3">
-        <f>BV14*(1+$V$20)</f>
-        <v>67355.50447196202</v>
+        <f>BV14*(1+$V$18)</f>
+        <v>53698.531365459574</v>
       </c>
       <c r="BX14" s="3">
-        <f>BW14*(1+$V$20)</f>
-        <v>68029.059516681635</v>
+        <f>BW14*(1+$V$18)</f>
+        <v>54235.516679114167</v>
       </c>
       <c r="BY14" s="3">
-        <f>BX14*(1+$V$20)</f>
-        <v>68709.350111848456</v>
+        <f>BX14*(1+$V$18)</f>
+        <v>54777.871845905313</v>
       </c>
       <c r="BZ14" s="3">
-        <f>BY14*(1+$V$20)</f>
-        <v>69396.443612966948</v>
+        <f>BY14*(1+$V$18)</f>
+        <v>55325.650564364369</v>
       </c>
       <c r="CA14" s="3">
-        <f>BZ14*(1+$V$20)</f>
-        <v>70090.408049096615</v>
+        <f>BZ14*(1+$V$18)</f>
+        <v>55878.907070008012</v>
       </c>
       <c r="CB14" s="3">
-        <f>CA14*(1+$V$20)</f>
-        <v>70791.312129587575</v>
+        <f>CA14*(1+$V$18)</f>
+        <v>56437.696140708089</v>
       </c>
       <c r="CC14" s="3">
-        <f>CB14*(1+$V$20)</f>
-        <v>71499.22525088345</v>
+        <f>CB14*(1+$V$18)</f>
+        <v>57002.073102115173</v>
       </c>
       <c r="CD14" s="3">
-        <f>CC14*(1+$V$20)</f>
-        <v>72214.217503392283</v>
+        <f>CC14*(1+$V$18)</f>
+        <v>57572.093833136329</v>
       </c>
       <c r="CE14" s="3">
-        <f>CD14*(1+$V$20)</f>
-        <v>72936.359678426204</v>
+        <f>CD14*(1+$V$18)</f>
+        <v>58147.814771467689</v>
       </c>
       <c r="CF14" s="3">
-        <f>CE14*(1+$V$20)</f>
-        <v>73665.723275210461</v>
+        <f>CE14*(1+$V$18)</f>
+        <v>58729.292919182364</v>
       </c>
       <c r="CG14" s="3">
-        <f>CF14*(1+$V$20)</f>
-        <v>74402.38050796256</v>
+        <f>CF14*(1+$V$18)</f>
+        <v>59316.58584837419</v>
       </c>
       <c r="CH14" s="3">
-        <f>CG14*(1+$V$20)</f>
-        <v>75146.404313042192</v>
+        <f>CG14*(1+$V$18)</f>
+        <v>59909.751706857933</v>
       </c>
       <c r="CI14" s="3">
-        <f>CH14*(1+$V$20)</f>
-        <v>75897.868356172621</v>
+        <f>CH14*(1+$V$18)</f>
+        <v>60508.849223926511</v>
       </c>
       <c r="CJ14" s="3">
-        <f>CI14*(1+$V$20)</f>
-        <v>76656.847039734348</v>
+        <f>CI14*(1+$V$18)</f>
+        <v>61113.937716165776</v>
       </c>
       <c r="CK14" s="3">
-        <f>CJ14*(1+$V$20)</f>
-        <v>77423.415510131686</v>
+        <f>CJ14*(1+$V$18)</f>
+        <v>61725.077093327433</v>
       </c>
       <c r="CL14" s="3">
-        <f>CK14*(1+$V$20)</f>
-        <v>78197.64966523301</v>
+        <f>CK14*(1+$V$18)</f>
+        <v>62342.327864260704</v>
       </c>
       <c r="CM14" s="3">
-        <f>CL14*(1+$V$20)</f>
-        <v>78979.626161885346</v>
+        <f>CL14*(1+$V$18)</f>
+        <v>62965.751142903311</v>
       </c>
       <c r="CN14" s="3">
-        <f>CM14*(1+$V$20)</f>
-        <v>79769.422423504206</v>
+        <f>CM14*(1+$V$18)</f>
+        <v>63595.408654332343</v>
       </c>
       <c r="CO14" s="3">
-        <f>CN14*(1+$V$20)</f>
-        <v>80567.116647739254</v>
+        <f>CN14*(1+$V$18)</f>
+        <v>64231.362740875666</v>
       </c>
       <c r="CP14" s="3">
-        <f>CO14*(1+$V$20)</f>
-        <v>81372.787814216645</v>
+        <f>CO14*(1+$V$18)</f>
+        <v>64873.676368284425</v>
       </c>
       <c r="CQ14" s="3">
-        <f>CP14*(1+$V$20)</f>
-        <v>82186.515692358807</v>
+        <f>CP14*(1+$V$18)</f>
+        <v>65522.413131967267</v>
       </c>
       <c r="CR14" s="3">
-        <f>CQ14*(1+$V$20)</f>
-        <v>83008.380849282403</v>
+        <f>CQ14*(1+$V$18)</f>
+        <v>66177.637263286946</v>
       </c>
       <c r="CS14" s="3">
-        <f>CR14*(1+$V$20)</f>
-        <v>83838.464657775228</v>
+        <f>CR14*(1+$V$18)</f>
+        <v>66839.413635919816</v>
       </c>
       <c r="CT14" s="3">
-        <f>CS14*(1+$V$20)</f>
-        <v>84676.849304352974</v>
+        <f>CS14*(1+$V$18)</f>
+        <v>67507.807772279019</v>
       </c>
       <c r="CU14" s="3">
-        <f>CT14*(1+$V$20)</f>
-        <v>85523.61779739651</v>
+        <f>CT14*(1+$V$18)</f>
+        <v>68182.88585000181</v>
       </c>
       <c r="CV14" s="3">
-        <f>CU14*(1+$V$20)</f>
-        <v>86378.853975370483</v>
+        <f>CU14*(1+$V$18)</f>
+        <v>68864.714708501822</v>
       </c>
       <c r="CW14" s="3">
-        <f>CV14*(1+$V$20)</f>
-        <v>87242.642515124186</v>
+        <f>CV14*(1+$V$18)</f>
+        <v>69553.361855586845</v>
       </c>
       <c r="CX14" s="3">
-        <f>CW14*(1+$V$20)</f>
-        <v>88115.068940275421</v>
+        <f>CW14*(1+$V$18)</f>
+        <v>70248.895474142715</v>
       </c>
       <c r="CY14" s="3">
-        <f>CX14*(1+$V$20)</f>
-        <v>88996.219629678177</v>
+        <f>CX14*(1+$V$18)</f>
+        <v>70951.38442888415</v>
       </c>
       <c r="CZ14" s="3">
-        <f>CY14*(1+$V$20)</f>
-        <v>89886.181825974956</v>
+        <f>CY14*(1+$V$18)</f>
+        <v>71660.898273172992</v>
       </c>
       <c r="DA14" s="3">
-        <f>CZ14*(1+$V$20)</f>
-        <v>90785.043644234713</v>
+        <f>CZ14*(1+$V$18)</f>
+        <v>72377.507255904726</v>
       </c>
       <c r="DB14" s="3">
-        <f>DA14*(1+$V$20)</f>
-        <v>91692.894080677055</v>
+        <f>DA14*(1+$V$18)</f>
+        <v>73101.282328463771</v>
       </c>
       <c r="DC14" s="3">
-        <f>DB14*(1+$V$20)</f>
-        <v>92609.823021483826</v>
+        <f>DB14*(1+$V$18)</f>
+        <v>73832.295151748403</v>
       </c>
       <c r="DD14" s="3">
-        <f>DC14*(1+$V$20)</f>
-        <v>93535.921251698659</v>
+        <f>DC14*(1+$V$18)</f>
+        <v>74570.618103265893</v>
       </c>
       <c r="DE14" s="3">
-        <f>DD14*(1+$V$20)</f>
-        <v>94471.280464215641</v>
+        <f>DD14*(1+$V$18)</f>
+        <v>75316.324284298549</v>
       </c>
       <c r="DF14" s="3">
-        <f>DE14*(1+$V$20)</f>
-        <v>95415.993268857797</v>
+        <f>DE14*(1+$V$18)</f>
+        <v>76069.487527141537</v>
       </c>
       <c r="DG14" s="3">
-        <f>DF14*(1+$V$20)</f>
-        <v>96370.153201546374</v>
+        <f>DF14*(1+$V$18)</f>
+        <v>76830.182402412946</v>
       </c>
       <c r="DH14" s="3">
-        <f>DG14*(1+$V$20)</f>
-        <v>97333.854733561835</v>
+        <f>DG14*(1+$V$18)</f>
+        <v>77598.484226437082</v>
       </c>
       <c r="DI14" s="3">
-        <f>DH14*(1+$V$20)</f>
-        <v>98307.193280897452</v>
+        <f>DH14*(1+$V$18)</f>
+        <v>78374.469068701452</v>
       </c>
       <c r="DJ14" s="3">
-        <f>DI14*(1+$V$20)</f>
-        <v>99290.265213706429</v>
+        <f>DI14*(1+$V$18)</f>
+        <v>79158.213759388469</v>
       </c>
       <c r="DK14" s="3">
-        <f>DJ14*(1+$V$20)</f>
-        <v>100283.1678658435</v>
+        <f>DJ14*(1+$V$18)</f>
+        <v>79949.795896982352</v>
       </c>
       <c r="DL14" s="3">
-        <f>DK14*(1+$V$20)</f>
-        <v>101285.99954450193</v>
+        <f>DK14*(1+$V$18)</f>
+        <v>80749.293855952172</v>
       </c>
       <c r="DM14" s="3">
-        <f>DL14*(1+$V$20)</f>
-        <v>102298.85953994695</v>
+        <f>DL14*(1+$V$18)</f>
+        <v>81556.786794511689</v>
       </c>
       <c r="DN14" s="3">
-        <f>DM14*(1+$V$20)</f>
-        <v>103321.84813534642</v>
+        <f>DM14*(1+$V$18)</f>
+        <v>82372.354662456812</v>
       </c>
     </row>
     <row r="15" spans="1:118" x14ac:dyDescent="0.2">
@@ -1750,36 +1741,44 @@
         <v>10.14144144144144</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" ref="L16:R16" si="36">L14/L15</f>
+        <f t="shared" ref="L16:R16" si="37">L14/L15</f>
         <v>12.26938775510205</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>20.307226107226107</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="36"/>
-        <v>25.719102599964131</v>
+        <f t="shared" si="37"/>
+        <v>24.533901093778002</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="36"/>
-        <v>33.663875314183244</v>
+        <f t="shared" si="37"/>
+        <v>30.799006233430148</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="36"/>
-        <v>43.559289011982628</v>
+        <f t="shared" si="37"/>
+        <v>38.368937193735178</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="36"/>
-        <v>55.851811016757203</v>
+        <f t="shared" si="37"/>
+        <v>47.497833880276673</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="36"/>
-        <v>71.087315171328925</v>
+        <f t="shared" si="37"/>
+        <v>58.487868333431386</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" ref="S16" si="37">S14/S15</f>
-        <v>89.932956157450107</v>
+        <f t="shared" ref="S16" si="38">S14/S15</f>
+        <v>71.698188661323215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="U17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="6">
+        <v>0.02</v>
       </c>
     </row>
     <row r="18" spans="1:118" x14ac:dyDescent="0.2">
@@ -1795,28 +1794,34 @@
         <v>0.15647045217994671</v>
       </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18:S18" si="38">N2/M2-1</f>
+        <f t="shared" ref="N18:S18" si="39">N2/M2-1</f>
         <v>0.17948717948717952</v>
       </c>
       <c r="O18" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="P18" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="Q18" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="R18" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.15999999999999992</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0.15999999999999992</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="V18" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="19" spans="1:118" x14ac:dyDescent="0.2">
@@ -1829,10 +1834,10 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="U19" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V19" s="6">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="20" spans="1:118" x14ac:dyDescent="0.2">
@@ -1852,34 +1857,35 @@
         <v>0.46055384615384609</v>
       </c>
       <c r="N20" s="4">
-        <f>M20*1.05</f>
-        <v>0.4835815384615384</v>
+        <f>M20*1.02</f>
+        <v>0.46976492307692302</v>
       </c>
       <c r="O20" s="4">
-        <f t="shared" ref="O20:S20" si="39">N20*1.05</f>
-        <v>0.50776061538461537</v>
+        <f t="shared" ref="O20:S20" si="40">N20*1.02</f>
+        <v>0.47916022153846149</v>
       </c>
       <c r="P20" s="4">
-        <f t="shared" si="39"/>
-        <v>0.53314864615384616</v>
+        <f t="shared" si="40"/>
+        <v>0.48874342596923076</v>
       </c>
       <c r="Q20" s="4">
-        <f t="shared" si="39"/>
-        <v>0.55980607846153851</v>
+        <f t="shared" si="40"/>
+        <v>0.4985182944886154</v>
       </c>
       <c r="R20" s="4">
-        <f t="shared" si="39"/>
-        <v>0.58779638238461551</v>
+        <f t="shared" si="40"/>
+        <v>0.50848866037838769</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" si="39"/>
-        <v>0.61718620150384629</v>
+        <f t="shared" si="40"/>
+        <v>0.51865843358595543</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V20" s="6">
-        <v>0.01</v>
+        <v>30</v>
+      </c>
+      <c r="V20" s="1">
+        <f>NPV(V19,N25:XFD25)+Main!P5-Main!P6</f>
+        <v>427805.23135467822</v>
       </c>
     </row>
     <row r="21" spans="1:118" x14ac:dyDescent="0.2">
@@ -1887,746 +1893,619 @@
         <v>35</v>
       </c>
       <c r="K21" s="4">
-        <f>K9/K2</f>
+        <f t="shared" ref="K21:S21" si="41">K9/K2</f>
         <v>0.17851370372127592</v>
       </c>
       <c r="L21" s="4">
-        <f>L9/L2</f>
+        <f t="shared" si="41"/>
         <v>0.20624316125646075</v>
       </c>
       <c r="M21" s="4">
-        <f>M9/M2</f>
+        <f t="shared" si="41"/>
         <v>0.26710512820512816</v>
       </c>
       <c r="N21" s="4">
-        <f>N9/N2</f>
-        <v>0.30353958193979924</v>
+        <f t="shared" si="41"/>
+        <v>0.28972296655518381</v>
       </c>
       <c r="O21" s="4">
-        <f>O9/O2</f>
-        <v>0.33737884626917303</v>
+        <f t="shared" si="41"/>
+        <v>0.30877845242301916</v>
       </c>
       <c r="P21" s="4">
-        <f>P9/P2</f>
-        <v>0.37190641934699092</v>
+        <f t="shared" si="41"/>
+        <v>0.32750119916237541</v>
       </c>
       <c r="Q21" s="4">
-        <f>Q9/Q2</f>
-        <v>0.40721094483288234</v>
+        <f t="shared" si="41"/>
+        <v>0.34592316085995922</v>
       </c>
       <c r="R21" s="4">
-        <f>R9/R2</f>
-        <v>0.44338255395951237</v>
+        <f t="shared" si="41"/>
+        <v>0.36407483195328455</v>
       </c>
       <c r="S21" s="4">
-        <f>S9/S2</f>
-        <v>0.4805131006489316</v>
+        <f t="shared" si="41"/>
+        <v>0.38198533273104079</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V21" s="6">
-        <v>0.08</v>
+        <v>0</v>
+      </c>
+      <c r="V21" s="5">
+        <f>V20/Main!P3</f>
+        <v>1004.9850014157905</v>
       </c>
     </row>
     <row r="22" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4">
-        <f>L5/K5-1</f>
-        <v>5.0306263584271926E-2</v>
-      </c>
-      <c r="M22" s="4">
-        <f>M5/L5-1</f>
-        <v>9.771239370908269E-2</v>
-      </c>
-      <c r="N22" s="4">
-        <f t="shared" ref="N22:S22" si="40">N5/M5-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O22" s="4">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="P22" s="4">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Q22" s="4">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="R22" s="4">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S22" s="4">
-        <f t="shared" si="40"/>
-        <v>0.10000000000000009</v>
-      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
       <c r="U22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V22" s="1">
-        <f>NPV(V21,N28:XFD28)+Main!P5-Main!P6</f>
-        <v>530487.70433187962</v>
+        <v>33</v>
+      </c>
+      <c r="V22" s="4">
+        <f>V21/Main!P2-1</f>
+        <v>-0.19793695018691893</v>
       </c>
     </row>
     <row r="23" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4">
-        <f>L6/K6-1</f>
-        <v>-1.3279232755440851E-2</v>
-      </c>
-      <c r="M23" s="4">
-        <f>M6/L6-1</f>
-        <v>9.3457943925233655E-2</v>
-      </c>
-      <c r="N23" s="4">
-        <f t="shared" ref="N23:S23" si="41">N6/M6-1</f>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="O23" s="4">
-        <f t="shared" si="41"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="P23" s="4">
-        <f t="shared" si="41"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Q23" s="4">
-        <f t="shared" si="41"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="R23" s="4">
-        <f t="shared" si="41"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="S23" s="4">
-        <f t="shared" si="41"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" s="5">
-        <f>V22/Main!P3</f>
-        <v>1246.2030550697787</v>
+        <v>26</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2026</v>
+      </c>
+      <c r="L23" s="1">
+        <v>7274</v>
+      </c>
+      <c r="M23" s="1">
+        <v>7361</v>
       </c>
     </row>
     <row r="24" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4">
-        <f>L7/K7-1</f>
-        <v>0.10115236875800249</v>
-      </c>
-      <c r="M24" s="4">
-        <f>M7/L7-1</f>
-        <v>-1.0465116279069764E-2</v>
-      </c>
-      <c r="N24" s="4">
-        <f t="shared" ref="N24:S24" si="42">N7/M7-1</f>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="O24" s="4">
+        <v>27</v>
+      </c>
+      <c r="K24" s="1">
+        <f>407+911</f>
+        <v>1318</v>
+      </c>
+      <c r="L24" s="1">
+        <f>348+504</f>
+        <v>852</v>
+      </c>
+      <c r="M24" s="1">
+        <f>439+1742</f>
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="3">
+        <f>K23-K24</f>
+        <v>708</v>
+      </c>
+      <c r="L25" s="3">
+        <f t="shared" ref="L25:M25" si="42">L23-L24</f>
+        <v>6422</v>
+      </c>
+      <c r="M25" s="3">
         <f t="shared" si="42"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="P24" s="4">
-        <f t="shared" si="42"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="Q24" s="4">
-        <f t="shared" si="42"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="R24" s="4">
-        <f t="shared" si="42"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="S24" s="4">
-        <f t="shared" si="42"/>
-        <v>9.000000000000008E-2</v>
-      </c>
-      <c r="U24" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V24" s="4">
-        <f>V23/Main!P2-1</f>
-        <v>-5.4245370552444827E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+        <v>5180</v>
+      </c>
+      <c r="N25" s="3">
+        <f>N26*N14</f>
+        <v>12630.052283076917</v>
+      </c>
+      <c r="O25" s="3">
+        <f>O26*O14</f>
+        <v>15855.328408969839</v>
+      </c>
+      <c r="P25" s="3">
+        <f>P26*P14</f>
+        <v>19752.328867334869</v>
+      </c>
+      <c r="Q25" s="3">
+        <f>Q26*Q14</f>
+        <v>24451.884881566428</v>
+      </c>
+      <c r="R25" s="3">
+        <f>R26*R14</f>
+        <v>30109.554618050475</v>
+      </c>
+      <c r="S25" s="3">
+        <f>S26*S14</f>
+        <v>36910.227522849185</v>
+      </c>
+      <c r="T25" s="3">
+        <f>S25*(1+$V$18)</f>
+        <v>37279.329798077677</v>
+      </c>
+      <c r="U25" s="3">
+        <f>T25*(1+$V$18)</f>
+        <v>37652.123096058451</v>
+      </c>
+      <c r="V25" s="3">
+        <f>U25*(1+$V$18)</f>
+        <v>38028.644327019036</v>
+      </c>
+      <c r="W25" s="3">
+        <f>V25*(1+$V$18)</f>
+        <v>38408.930770289226</v>
+      </c>
+      <c r="X25" s="3">
+        <f>W25*(1+$V$18)</f>
+        <v>38793.020077992122</v>
+      </c>
+      <c r="Y25" s="3">
+        <f>X25*(1+$V$18)</f>
+        <v>39180.950278772041</v>
+      </c>
+      <c r="Z25" s="3">
+        <f>Y25*(1+$V$18)</f>
+        <v>39572.759781559762</v>
+      </c>
+      <c r="AA25" s="3">
+        <f>Z25*(1+$V$18)</f>
+        <v>39968.487379375358</v>
+      </c>
+      <c r="AB25" s="3">
+        <f>AA25*(1+$V$18)</f>
+        <v>40368.172253169112</v>
+      </c>
+      <c r="AC25" s="3">
+        <f>AB25*(1+$V$18)</f>
+        <v>40771.853975700804</v>
+      </c>
+      <c r="AD25" s="3">
+        <f>AC25*(1+$V$18)</f>
+        <v>41179.57251545781</v>
+      </c>
+      <c r="AE25" s="3">
+        <f>AD25*(1+$V$18)</f>
+        <v>41591.368240612392</v>
+      </c>
+      <c r="AF25" s="3">
+        <f>AE25*(1+$V$18)</f>
+        <v>42007.28192301852</v>
+      </c>
+      <c r="AG25" s="3">
+        <f>AF25*(1+$V$18)</f>
+        <v>42427.354742248703</v>
+      </c>
+      <c r="AH25" s="3">
+        <f>AG25*(1+$V$18)</f>
+        <v>42851.628289671193</v>
+      </c>
+      <c r="AI25" s="3">
+        <f>AH25*(1+$V$18)</f>
+        <v>43280.144572567908</v>
+      </c>
+      <c r="AJ25" s="3">
+        <f>AI25*(1+$V$18)</f>
+        <v>43712.946018293587</v>
+      </c>
+      <c r="AK25" s="3">
+        <f>AJ25*(1+$V$18)</f>
+        <v>44150.075478476523</v>
+      </c>
+      <c r="AL25" s="3">
+        <f>AK25*(1+$V$18)</f>
+        <v>44591.576233261287</v>
+      </c>
+      <c r="AM25" s="3">
+        <f>AL25*(1+$V$18)</f>
+        <v>45037.491995593897</v>
+      </c>
+      <c r="AN25" s="3">
+        <f>AM25*(1+$V$18)</f>
+        <v>45487.866915549836</v>
+      </c>
+      <c r="AO25" s="3">
+        <f>AN25*(1+$V$18)</f>
+        <v>45942.745584705335</v>
+      </c>
+      <c r="AP25" s="3">
+        <f>AO25*(1+$V$18)</f>
+        <v>46402.173040552392</v>
+      </c>
+      <c r="AQ25" s="3">
+        <f>AP25*(1+$V$18)</f>
+        <v>46866.194770957918</v>
+      </c>
+      <c r="AR25" s="3">
+        <f>AQ25*(1+$V$18)</f>
+        <v>47334.856718667499</v>
+      </c>
+      <c r="AS25" s="3">
+        <f>AR25*(1+$V$18)</f>
+        <v>47808.205285854172</v>
+      </c>
+      <c r="AT25" s="3">
+        <f>AS25*(1+$V$18)</f>
+        <v>48286.287338712711</v>
+      </c>
+      <c r="AU25" s="3">
+        <f>AT25*(1+$V$18)</f>
+        <v>48769.150212099841</v>
+      </c>
+      <c r="AV25" s="3">
+        <f>AU25*(1+$V$18)</f>
+        <v>49256.841714220842</v>
+      </c>
+      <c r="AW25" s="3">
+        <f>AV25*(1+$V$18)</f>
+        <v>49749.410131363053</v>
+      </c>
+      <c r="AX25" s="3">
+        <f>AW25*(1+$V$18)</f>
+        <v>50246.904232676687</v>
+      </c>
+      <c r="AY25" s="3">
+        <f>AX25*(1+$V$18)</f>
+        <v>50749.373275003454</v>
+      </c>
+      <c r="AZ25" s="3">
+        <f>AY25*(1+$V$18)</f>
+        <v>51256.867007753492</v>
+      </c>
+      <c r="BA25" s="3">
+        <f>AZ25*(1+$V$18)</f>
+        <v>51769.435677831025</v>
+      </c>
+      <c r="BB25" s="3">
+        <f>BA25*(1+$V$18)</f>
+        <v>52287.130034609334</v>
+      </c>
+      <c r="BC25" s="3">
+        <f>BB25*(1+$V$18)</f>
+        <v>52810.001334955428</v>
+      </c>
+      <c r="BD25" s="3">
+        <f>BC25*(1+$V$18)</f>
+        <v>53338.101348304983</v>
+      </c>
+      <c r="BE25" s="3">
+        <f>BD25*(1+$V$18)</f>
+        <v>53871.482361788032</v>
+      </c>
+      <c r="BF25" s="3">
+        <f>BE25*(1+$V$18)</f>
+        <v>54410.197185405916</v>
+      </c>
+      <c r="BG25" s="3">
+        <f>BF25*(1+$V$18)</f>
+        <v>54954.299157259979</v>
+      </c>
+      <c r="BH25" s="3">
+        <f>BG25*(1+$V$18)</f>
+        <v>55503.842148832577</v>
+      </c>
+      <c r="BI25" s="3">
+        <f>BH25*(1+$V$18)</f>
+        <v>56058.8805703209</v>
+      </c>
+      <c r="BJ25" s="3">
+        <f>BI25*(1+$V$18)</f>
+        <v>56619.469376024106</v>
+      </c>
+      <c r="BK25" s="3">
+        <f>BJ25*(1+$V$18)</f>
+        <v>57185.664069784347</v>
+      </c>
+      <c r="BL25" s="3">
+        <f>BK25*(1+$V$18)</f>
+        <v>57757.520710482189</v>
+      </c>
+      <c r="BM25" s="3">
+        <f>BL25*(1+$V$18)</f>
+        <v>58335.095917587008</v>
+      </c>
+      <c r="BN25" s="3">
+        <f>BM25*(1+$V$18)</f>
+        <v>58918.446876762879</v>
+      </c>
+      <c r="BO25" s="3">
+        <f>BN25*(1+$V$18)</f>
+        <v>59507.631345530506</v>
+      </c>
+      <c r="BP25" s="3">
+        <f>BO25*(1+$V$18)</f>
+        <v>60102.707658985812</v>
+      </c>
+      <c r="BQ25" s="3">
+        <f>BP25*(1+$V$18)</f>
+        <v>60703.734735575672</v>
+      </c>
+      <c r="BR25" s="3">
+        <f>BQ25*(1+$V$18)</f>
+        <v>61310.772082931428</v>
+      </c>
+      <c r="BS25" s="3">
+        <f>BR25*(1+$V$18)</f>
+        <v>61923.879803760741</v>
+      </c>
+      <c r="BT25" s="3">
+        <f>BS25*(1+$V$18)</f>
+        <v>62543.118601798349</v>
+      </c>
+      <c r="BU25" s="3">
+        <f>BT25*(1+$V$18)</f>
+        <v>63168.54978781633</v>
+      </c>
+      <c r="BV25" s="3">
+        <f>BU25*(1+$V$18)</f>
+        <v>63800.235285694493</v>
+      </c>
+      <c r="BW25" s="3">
+        <f>BV25*(1+$V$18)</f>
+        <v>64438.237638551436</v>
+      </c>
+      <c r="BX25" s="3">
+        <f>BW25*(1+$V$18)</f>
+        <v>65082.620014936954</v>
+      </c>
+      <c r="BY25" s="3">
+        <f>BX25*(1+$V$18)</f>
+        <v>65733.446215086326</v>
+      </c>
+      <c r="BZ25" s="3">
+        <f>BY25*(1+$V$18)</f>
+        <v>66390.780677237184</v>
+      </c>
+      <c r="CA25" s="3">
+        <f>BZ25*(1+$V$18)</f>
+        <v>67054.688484009559</v>
+      </c>
+      <c r="CB25" s="3">
+        <f>CA25*(1+$V$18)</f>
+        <v>67725.235368849651</v>
+      </c>
+      <c r="CC25" s="3">
+        <f>CB25*(1+$V$18)</f>
+        <v>68402.48772253815</v>
+      </c>
+      <c r="CD25" s="3">
+        <f>CC25*(1+$V$18)</f>
+        <v>69086.512599763533</v>
+      </c>
+      <c r="CE25" s="3">
+        <f>CD25*(1+$V$18)</f>
+        <v>69777.377725761165</v>
+      </c>
+      <c r="CF25" s="3">
+        <f>CE25*(1+$V$18)</f>
+        <v>70475.151503018773</v>
+      </c>
+      <c r="CG25" s="3">
+        <f>CF25*(1+$V$18)</f>
+        <v>71179.903018048964</v>
+      </c>
+      <c r="CH25" s="3">
+        <f>CG25*(1+$V$18)</f>
+        <v>71891.702048229461</v>
+      </c>
+      <c r="CI25" s="3">
+        <f>CH25*(1+$V$18)</f>
+        <v>72610.619068711763</v>
+      </c>
+      <c r="CJ25" s="3">
+        <f>CI25*(1+$V$18)</f>
+        <v>73336.725259398881</v>
+      </c>
+      <c r="CK25" s="3">
+        <f>CJ25*(1+$V$18)</f>
+        <v>74070.092511992872</v>
+      </c>
+      <c r="CL25" s="3">
+        <f>CK25*(1+$V$18)</f>
+        <v>74810.793437112807</v>
+      </c>
+      <c r="CM25" s="3">
+        <f>CL25*(1+$V$18)</f>
+        <v>75558.901371483938</v>
+      </c>
+      <c r="CN25" s="3">
+        <f>CM25*(1+$V$18)</f>
+        <v>76314.490385198776</v>
+      </c>
+      <c r="CO25" s="3">
+        <f>CN25*(1+$V$18)</f>
+        <v>77077.63528905077</v>
+      </c>
+      <c r="CP25" s="3">
+        <f>CO25*(1+$V$18)</f>
+        <v>77848.411641941275</v>
+      </c>
+      <c r="CQ25" s="3">
+        <f>CP25*(1+$V$18)</f>
+        <v>78626.895758360683</v>
+      </c>
+      <c r="CR25" s="3">
+        <f>CQ25*(1+$V$18)</f>
+        <v>79413.164715944295</v>
+      </c>
+      <c r="CS25" s="3">
+        <f>CR25*(1+$V$18)</f>
+        <v>80207.296363103742</v>
+      </c>
+      <c r="CT25" s="3">
+        <f>CS25*(1+$V$18)</f>
+        <v>81009.369326734784</v>
+      </c>
+      <c r="CU25" s="3">
+        <f>CT25*(1+$V$18)</f>
+        <v>81819.463020002135</v>
+      </c>
+      <c r="CV25" s="3">
+        <f>CU25*(1+$V$18)</f>
+        <v>82637.657650202163</v>
+      </c>
+      <c r="CW25" s="3">
+        <f>CV25*(1+$V$18)</f>
+        <v>83464.034226704185</v>
+      </c>
+      <c r="CX25" s="3">
+        <f>CW25*(1+$V$18)</f>
+        <v>84298.674568971226</v>
+      </c>
+      <c r="CY25" s="3">
+        <f>CX25*(1+$V$18)</f>
+        <v>85141.661314660945</v>
+      </c>
+      <c r="CZ25" s="3">
+        <f>CY25*(1+$V$18)</f>
+        <v>85993.07792780755</v>
+      </c>
+      <c r="DA25" s="3">
+        <f>CZ25*(1+$V$18)</f>
+        <v>86853.008707085624</v>
+      </c>
+      <c r="DB25" s="3">
+        <f>DA25*(1+$V$18)</f>
+        <v>87721.538794156484</v>
+      </c>
+      <c r="DC25" s="3">
+        <f>DB25*(1+$V$18)</f>
+        <v>88598.754182098055</v>
+      </c>
+      <c r="DD25" s="3">
+        <f>DC25*(1+$V$18)</f>
+        <v>89484.74172391904</v>
+      </c>
+      <c r="DE25" s="3">
+        <f>DD25*(1+$V$18)</f>
+        <v>90379.589141158227</v>
+      </c>
+      <c r="DF25" s="3">
+        <f>DE25*(1+$V$18)</f>
+        <v>91283.385032569815</v>
+      </c>
+      <c r="DG25" s="3">
+        <f>DF25*(1+$V$18)</f>
+        <v>92196.218882895511</v>
+      </c>
+      <c r="DH25" s="3">
+        <f>DG25*(1+$V$18)</f>
+        <v>93118.181071724466</v>
+      </c>
+      <c r="DI25" s="3">
+        <f>DH25*(1+$V$18)</f>
+        <v>94049.36288244171</v>
+      </c>
+      <c r="DJ25" s="3">
+        <f>DI25*(1+$V$18)</f>
+        <v>94989.856511266131</v>
+      </c>
+      <c r="DK25" s="3">
+        <f>DJ25*(1+$V$18)</f>
+        <v>95939.755076378788</v>
+      </c>
+      <c r="DL25" s="3">
+        <f>DK25*(1+$V$18)</f>
+        <v>96899.152627142583</v>
+      </c>
+      <c r="DM25" s="3">
+        <f>DL25*(1+$V$18)</f>
+        <v>97868.144153414003</v>
+      </c>
+      <c r="DN25" s="3">
+        <f>DM25*(1+$V$18)</f>
+        <v>98846.825594948139</v>
+      </c>
     </row>
     <row r="26" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="1">
-        <v>2026</v>
-      </c>
-      <c r="L26" s="1">
-        <v>7274</v>
-      </c>
-      <c r="M26" s="1">
-        <v>7361</v>
+      <c r="K26" s="4">
+        <f>K25/K14</f>
+        <v>0.15723549791241009</v>
+      </c>
+      <c r="L26" s="4">
+        <f>L25/L14</f>
+        <v>1.1868854882826931</v>
+      </c>
+      <c r="M26" s="4">
+        <f>M25/M14</f>
+        <v>0.59459583553341455</v>
+      </c>
+      <c r="N26" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="P26" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="R26" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="S26" s="4">
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:118" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K27" s="1">
-        <f>407+911</f>
-        <v>1318</v>
-      </c>
-      <c r="L27" s="1">
-        <f>348+504</f>
-        <v>852</v>
+        <v>29</v>
+      </c>
+      <c r="E27" s="1">
+        <f>E29-E31</f>
+        <v>-8547.5999999999985</v>
       </c>
       <c r="M27" s="1">
-        <f>439+1742</f>
-        <v>2181</v>
-      </c>
-    </row>
-    <row r="28" spans="1:118" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="3">
-        <f>K26-K27</f>
-        <v>708</v>
-      </c>
-      <c r="L28" s="3">
-        <f t="shared" ref="L28:M28" si="43">L26-L27</f>
-        <v>6422</v>
-      </c>
-      <c r="M28" s="3">
-        <f t="shared" si="43"/>
-        <v>5180</v>
-      </c>
-      <c r="N28" s="3">
-        <f>N29*N14</f>
-        <v>13240.194018461536</v>
-      </c>
-      <c r="O28" s="3">
-        <f>O29*O14</f>
-        <v>17330.163011741533</v>
-      </c>
-      <c r="P28" s="3">
-        <f>P29*P14</f>
-        <v>22424.321983368656</v>
-      </c>
-      <c r="Q28" s="3">
-        <f>Q29*Q14</f>
-        <v>28752.512311426606</v>
-      </c>
-      <c r="R28" s="3">
-        <f>R29*R14</f>
-        <v>36595.749850200125</v>
-      </c>
-      <c r="S28" s="3">
-        <f>S29*S14</f>
-        <v>46297.485829855308</v>
-      </c>
-      <c r="T28" s="3">
-        <f>S28*(1+$V$20)</f>
-        <v>46760.460688153864</v>
-      </c>
-      <c r="U28" s="3">
-        <f>T28*(1+$V$20)</f>
-        <v>47228.065295035405</v>
-      </c>
-      <c r="V28" s="3">
-        <f>U28*(1+$V$20)</f>
-        <v>47700.345947985763</v>
-      </c>
-      <c r="W28" s="3">
-        <f>V28*(1+$V$20)</f>
-        <v>48177.349407465619</v>
-      </c>
-      <c r="X28" s="3">
-        <f>W28*(1+$V$20)</f>
-        <v>48659.122901540279</v>
-      </c>
-      <c r="Y28" s="3">
-        <f>X28*(1+$V$20)</f>
-        <v>49145.71413055568</v>
-      </c>
-      <c r="Z28" s="3">
-        <f>Y28*(1+$V$20)</f>
-        <v>49637.17127186124</v>
-      </c>
-      <c r="AA28" s="3">
-        <f>Z28*(1+$V$20)</f>
-        <v>50133.54298457985</v>
-      </c>
-      <c r="AB28" s="3">
-        <f>AA28*(1+$V$20)</f>
-        <v>50634.87841442565</v>
-      </c>
-      <c r="AC28" s="3">
-        <f>AB28*(1+$V$20)</f>
-        <v>51141.227198569904</v>
-      </c>
-      <c r="AD28" s="3">
-        <f>AC28*(1+$V$20)</f>
-        <v>51652.639470555601</v>
-      </c>
-      <c r="AE28" s="3">
-        <f>AD28*(1+$V$20)</f>
-        <v>52169.165865261159</v>
-      </c>
-      <c r="AF28" s="3">
-        <f>AE28*(1+$V$20)</f>
-        <v>52690.857523913772</v>
-      </c>
-      <c r="AG28" s="3">
-        <f>AF28*(1+$V$20)</f>
-        <v>53217.766099152912</v>
-      </c>
-      <c r="AH28" s="3">
-        <f>AG28*(1+$V$20)</f>
-        <v>53749.943760144444</v>
-      </c>
-      <c r="AI28" s="3">
-        <f>AH28*(1+$V$20)</f>
-        <v>54287.443197745888</v>
-      </c>
-      <c r="AJ28" s="3">
-        <f>AI28*(1+$V$20)</f>
-        <v>54830.317629723344</v>
-      </c>
-      <c r="AK28" s="3">
-        <f>AJ28*(1+$V$20)</f>
-        <v>55378.620806020575</v>
-      </c>
-      <c r="AL28" s="3">
-        <f>AK28*(1+$V$20)</f>
-        <v>55932.407014080782</v>
-      </c>
-      <c r="AM28" s="3">
-        <f>AL28*(1+$V$20)</f>
-        <v>56491.731084221588</v>
-      </c>
-      <c r="AN28" s="3">
-        <f>AM28*(1+$V$20)</f>
-        <v>57056.648395063807</v>
-      </c>
-      <c r="AO28" s="3">
-        <f>AN28*(1+$V$20)</f>
-        <v>57627.214879014442</v>
-      </c>
-      <c r="AP28" s="3">
-        <f>AO28*(1+$V$20)</f>
-        <v>58203.487027804586</v>
-      </c>
-      <c r="AQ28" s="3">
-        <f>AP28*(1+$V$20)</f>
-        <v>58785.521898082632</v>
-      </c>
-      <c r="AR28" s="3">
-        <f>AQ28*(1+$V$20)</f>
-        <v>59373.377117063457</v>
-      </c>
-      <c r="AS28" s="3">
-        <f>AR28*(1+$V$20)</f>
-        <v>59967.110888234092</v>
-      </c>
-      <c r="AT28" s="3">
-        <f>AS28*(1+$V$20)</f>
-        <v>60566.781997116435</v>
-      </c>
-      <c r="AU28" s="3">
-        <f>AT28*(1+$V$20)</f>
-        <v>61172.449817087603</v>
-      </c>
-      <c r="AV28" s="3">
-        <f>AU28*(1+$V$20)</f>
-        <v>61784.174315258482</v>
-      </c>
-      <c r="AW28" s="3">
-        <f>AV28*(1+$V$20)</f>
-        <v>62402.016058411071</v>
-      </c>
-      <c r="AX28" s="3">
-        <f>AW28*(1+$V$20)</f>
-        <v>63026.036218995185</v>
-      </c>
-      <c r="AY28" s="3">
-        <f>AX28*(1+$V$20)</f>
-        <v>63656.296581185139</v>
-      </c>
-      <c r="AZ28" s="3">
-        <f>AY28*(1+$V$20)</f>
-        <v>64292.859546996988</v>
-      </c>
-      <c r="BA28" s="3">
-        <f>AZ28*(1+$V$20)</f>
-        <v>64935.788142466961</v>
-      </c>
-      <c r="BB28" s="3">
-        <f>BA28*(1+$V$20)</f>
-        <v>65585.146023891633</v>
-      </c>
-      <c r="BC28" s="3">
-        <f>BB28*(1+$V$20)</f>
-        <v>66240.997484130552</v>
-      </c>
-      <c r="BD28" s="3">
-        <f>BC28*(1+$V$20)</f>
-        <v>66903.407458971851</v>
-      </c>
-      <c r="BE28" s="3">
-        <f>BD28*(1+$V$20)</f>
-        <v>67572.441533561563</v>
-      </c>
-      <c r="BF28" s="3">
-        <f>BE28*(1+$V$20)</f>
-        <v>68248.165948897178</v>
-      </c>
-      <c r="BG28" s="3">
-        <f>BF28*(1+$V$20)</f>
-        <v>68930.647608386149</v>
-      </c>
-      <c r="BH28" s="3">
-        <f>BG28*(1+$V$20)</f>
-        <v>69619.95408447001</v>
-      </c>
-      <c r="BI28" s="3">
-        <f>BH28*(1+$V$20)</f>
-        <v>70316.153625314706</v>
-      </c>
-      <c r="BJ28" s="3">
-        <f>BI28*(1+$V$20)</f>
-        <v>71019.315161567851</v>
-      </c>
-      <c r="BK28" s="3">
-        <f>BJ28*(1+$V$20)</f>
-        <v>71729.508313183527</v>
-      </c>
-      <c r="BL28" s="3">
-        <f>BK28*(1+$V$20)</f>
-        <v>72446.803396315358</v>
-      </c>
-      <c r="BM28" s="3">
-        <f>BL28*(1+$V$20)</f>
-        <v>73171.271430278517</v>
-      </c>
-      <c r="BN28" s="3">
-        <f>BM28*(1+$V$20)</f>
-        <v>73902.984144581307</v>
-      </c>
-      <c r="BO28" s="3">
-        <f>BN28*(1+$V$20)</f>
-        <v>74642.013986027116</v>
-      </c>
-      <c r="BP28" s="3">
-        <f>BO28*(1+$V$20)</f>
-        <v>75388.43412588739</v>
-      </c>
-      <c r="BQ28" s="3">
-        <f>BP28*(1+$V$20)</f>
-        <v>76142.318467146266</v>
-      </c>
-      <c r="BR28" s="3">
-        <f>BQ28*(1+$V$20)</f>
-        <v>76903.741651817734</v>
-      </c>
-      <c r="BS28" s="3">
-        <f>BR28*(1+$V$20)</f>
-        <v>77672.779068335905</v>
-      </c>
-      <c r="BT28" s="3">
-        <f>BS28*(1+$V$20)</f>
-        <v>78449.506859019268</v>
-      </c>
-      <c r="BU28" s="3">
-        <f>BT28*(1+$V$20)</f>
-        <v>79234.001927609468</v>
-      </c>
-      <c r="BV28" s="3">
-        <f>BU28*(1+$V$20)</f>
-        <v>80026.341946885557</v>
-      </c>
-      <c r="BW28" s="3">
-        <f>BV28*(1+$V$20)</f>
-        <v>80826.605366354415</v>
-      </c>
-      <c r="BX28" s="3">
-        <f>BW28*(1+$V$20)</f>
-        <v>81634.871420017953</v>
-      </c>
-      <c r="BY28" s="3">
-        <f>BX28*(1+$V$20)</f>
-        <v>82451.220134218136</v>
-      </c>
-      <c r="BZ28" s="3">
-        <f>BY28*(1+$V$20)</f>
-        <v>83275.732335560315</v>
-      </c>
-      <c r="CA28" s="3">
-        <f>BZ28*(1+$V$20)</f>
-        <v>84108.489658915918</v>
-      </c>
-      <c r="CB28" s="3">
-        <f>CA28*(1+$V$20)</f>
-        <v>84949.574555505082</v>
-      </c>
-      <c r="CC28" s="3">
-        <f>CB28*(1+$V$20)</f>
-        <v>85799.070301060128</v>
-      </c>
-      <c r="CD28" s="3">
-        <f>CC28*(1+$V$20)</f>
-        <v>86657.061004070725</v>
-      </c>
-      <c r="CE28" s="3">
-        <f>CD28*(1+$V$20)</f>
-        <v>87523.631614111437</v>
-      </c>
-      <c r="CF28" s="3">
-        <f>CE28*(1+$V$20)</f>
-        <v>88398.867930252556</v>
-      </c>
-      <c r="CG28" s="3">
-        <f>CF28*(1+$V$20)</f>
-        <v>89282.856609555078</v>
-      </c>
-      <c r="CH28" s="3">
-        <f>CG28*(1+$V$20)</f>
-        <v>90175.685175650622</v>
-      </c>
-      <c r="CI28" s="3">
-        <f>CH28*(1+$V$20)</f>
-        <v>91077.442027407131</v>
-      </c>
-      <c r="CJ28" s="3">
-        <f>CI28*(1+$V$20)</f>
-        <v>91988.216447681203</v>
-      </c>
-      <c r="CK28" s="3">
-        <f>CJ28*(1+$V$20)</f>
-        <v>92908.098612158021</v>
-      </c>
-      <c r="CL28" s="3">
-        <f>CK28*(1+$V$20)</f>
-        <v>93837.179598279603</v>
-      </c>
-      <c r="CM28" s="3">
-        <f>CL28*(1+$V$20)</f>
-        <v>94775.551394262395</v>
-      </c>
-      <c r="CN28" s="3">
-        <f>CM28*(1+$V$20)</f>
-        <v>95723.306908205021</v>
-      </c>
-      <c r="CO28" s="3">
-        <f>CN28*(1+$V$20)</f>
-        <v>96680.539977287073</v>
-      </c>
-      <c r="CP28" s="3">
-        <f>CO28*(1+$V$20)</f>
-        <v>97647.345377059944</v>
-      </c>
-      <c r="CQ28" s="3">
-        <f>CP28*(1+$V$20)</f>
-        <v>98623.81883083054</v>
-      </c>
-      <c r="CR28" s="3">
-        <f>CQ28*(1+$V$20)</f>
-        <v>99610.05701913884</v>
-      </c>
-      <c r="CS28" s="3">
-        <f>CR28*(1+$V$20)</f>
-        <v>100606.15758933024</v>
-      </c>
-      <c r="CT28" s="3">
-        <f>CS28*(1+$V$20)</f>
-        <v>101612.21916522353</v>
-      </c>
-      <c r="CU28" s="3">
-        <f>CT28*(1+$V$20)</f>
-        <v>102628.34135687577</v>
-      </c>
-      <c r="CV28" s="3">
-        <f>CU28*(1+$V$20)</f>
-        <v>103654.62477044453</v>
-      </c>
-      <c r="CW28" s="3">
-        <f>CV28*(1+$V$20)</f>
-        <v>104691.17101814898</v>
-      </c>
-      <c r="CX28" s="3">
-        <f>CW28*(1+$V$20)</f>
-        <v>105738.08272833047</v>
-      </c>
-      <c r="CY28" s="3">
-        <f>CX28*(1+$V$20)</f>
-        <v>106795.46355561378</v>
-      </c>
-      <c r="CZ28" s="3">
-        <f>CY28*(1+$V$20)</f>
-        <v>107863.41819116991</v>
-      </c>
-      <c r="DA28" s="3">
-        <f>CZ28*(1+$V$20)</f>
-        <v>108942.05237308161</v>
-      </c>
-      <c r="DB28" s="3">
-        <f>DA28*(1+$V$20)</f>
-        <v>110031.47289681243</v>
-      </c>
-      <c r="DC28" s="3">
-        <f>DB28*(1+$V$20)</f>
-        <v>111131.78762578055</v>
-      </c>
-      <c r="DD28" s="3">
-        <f>DC28*(1+$V$20)</f>
-        <v>112243.10550203835</v>
-      </c>
-      <c r="DE28" s="3">
-        <f>DD28*(1+$V$20)</f>
-        <v>113365.53655705873</v>
-      </c>
-      <c r="DF28" s="3">
-        <f>DE28*(1+$V$20)</f>
-        <v>114499.19192262932</v>
-      </c>
-      <c r="DG28" s="3">
-        <f>DF28*(1+$V$20)</f>
-        <v>115644.18384185561</v>
-      </c>
-      <c r="DH28" s="3">
-        <f>DG28*(1+$V$20)</f>
-        <v>116800.62568027417</v>
-      </c>
-      <c r="DI28" s="3">
-        <f>DH28*(1+$V$20)</f>
-        <v>117968.63193707692</v>
-      </c>
-      <c r="DJ28" s="3">
-        <f>DI28*(1+$V$20)</f>
-        <v>119148.31825644769</v>
-      </c>
-      <c r="DK28" s="3">
-        <f>DJ28*(1+$V$20)</f>
-        <v>120339.80143901217</v>
-      </c>
-      <c r="DL28" s="3">
-        <f>DK28*(1+$V$20)</f>
-        <v>121543.1994534023</v>
-      </c>
-      <c r="DM28" s="3">
-        <f>DL28*(1+$V$20)</f>
-        <v>122758.63144793632</v>
-      </c>
-      <c r="DN28" s="3">
-        <f>DM28*(1+$V$20)</f>
-        <v>123986.21776241569</v>
+        <f>M29-M31</f>
+        <v>-8547.5999999999985</v>
+      </c>
+      <c r="N27" s="1">
+        <f>M27+N14</f>
+        <v>1977.4435692307652</v>
+      </c>
+      <c r="O27" s="1">
+        <f>N27+O14</f>
+        <v>15190.217243372299</v>
+      </c>
+      <c r="P27" s="1">
+        <f>O27+P14</f>
+        <v>31650.491299484689</v>
+      </c>
+      <c r="Q27" s="1">
+        <f>P27+Q14</f>
+        <v>52027.062034123381</v>
+      </c>
+      <c r="R27" s="1">
+        <f>Q27+R14</f>
+        <v>77118.357549165448</v>
+      </c>
+      <c r="S27" s="1">
+        <f>R27+S14</f>
+        <v>107876.88048487311</v>
       </c>
     </row>
     <row r="29" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="K29" s="4">
-        <f>K28/K14</f>
-        <v>0.15723549791241009</v>
-      </c>
-      <c r="L29" s="4">
-        <f>L28/L14</f>
-        <v>1.1868854882826931</v>
-      </c>
-      <c r="M29" s="4">
-        <f>M28/M14</f>
-        <v>0.59459583553341455</v>
-      </c>
-      <c r="N29" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="O29" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="P29" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="R29" s="4">
-        <v>1.2</v>
-      </c>
-      <c r="S29" s="4">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E30" s="1">
-        <f>E32-E34</f>
-        <v>-8547.5999999999985</v>
-      </c>
-      <c r="M30" s="1">
-        <f>M32-M34</f>
-        <v>-8547.5999999999985</v>
-      </c>
-      <c r="N30" s="1">
-        <f>M30+N14</f>
-        <v>2485.8950153846145</v>
-      </c>
-      <c r="O30" s="1">
-        <f>N30+O14</f>
-        <v>16927.697525169227</v>
-      </c>
-      <c r="P30" s="1">
-        <f>O30+P14</f>
-        <v>35614.63251130977</v>
-      </c>
-      <c r="Q30" s="1">
-        <f>P30+Q14</f>
-        <v>59575.05943749861</v>
-      </c>
-      <c r="R30" s="1">
-        <f>Q30+R14</f>
-        <v>90071.517645998712</v>
-      </c>
-      <c r="S30" s="1">
-        <f>R30+S14</f>
-        <v>128652.7558375448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:118" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E29" s="1">
         <f>7804.7+1779</f>
         <v>9583.7000000000007</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M29" s="1">
         <f>7804.7+1779</f>
         <v>9583.7000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E31" s="1">
         <f>1780.8+13798.3+2552.2</f>
         <v>18131.3</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M31" s="1">
         <f>1780.8+13798.3+2552.2</f>
         <v>18131.3</v>
       </c>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1269456-DA11-4A7B-A277-3CD25281FC64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A75C10-3877-4BB3-BE22-AA389C51FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="915" windowWidth="21540" windowHeight="14760" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
+    <workbookView xWindow="4410" yWindow="300" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1139,10 +1139,10 @@
   <dimension ref="A1:DQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q13" sqref="Q13"/>
+      <selection pane="bottomRight" activeCell="Y39" sqref="Y39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3724,7 +3724,7 @@
         <v>27</v>
       </c>
       <c r="Y39" s="4">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="40" spans="2:121" x14ac:dyDescent="0.2">
@@ -3741,7 +3741,7 @@
       </c>
       <c r="Y40" s="1">
         <f>NPV(Y39,Q73:XFD73)+Main!J5-Main!J6</f>
-        <v>621996.36710891826</v>
+        <v>533456.91678449931</v>
       </c>
     </row>
     <row r="41" spans="2:121" x14ac:dyDescent="0.2">
@@ -3826,7 +3826,7 @@
       </c>
       <c r="Y41" s="1">
         <f>Y40/Main!J3</f>
-        <v>1462.794629275626</v>
+        <v>1254.5698883248535</v>
       </c>
     </row>
     <row r="42" spans="2:121" x14ac:dyDescent="0.2">
@@ -3911,7 +3911,7 @@
       </c>
       <c r="Y42" s="4">
         <f>Y41/Main!J2-1</f>
-        <v>0.2396564654878186</v>
+        <v>6.3194820614282721E-2</v>
       </c>
     </row>
     <row r="43" spans="2:121" x14ac:dyDescent="0.2">

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A75C10-3877-4BB3-BE22-AA389C51FFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597EEFDC-57CF-46EB-BAFF-034E9B55FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="300" windowWidth="21750" windowHeight="15015" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
+    <workbookView xWindow="3810" yWindow="435" windowWidth="20805" windowHeight="15015" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1142,7 +1142,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Y39" sqref="Y39"/>
+      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/NFLX.xlsx
+++ b/NFLX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597EEFDC-57CF-46EB-BAFF-034E9B55FC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8B9CBC-E713-4C30-97A8-80D851BF70E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3810" yWindow="435" windowWidth="20805" windowHeight="15015" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
+    <workbookView xWindow="2220" yWindow="690" windowWidth="22200" windowHeight="14685" activeTab="1" xr2:uid="{87F9C278-582D-4F12-A964-BB568CD74D2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1139,10 +1139,10 @@
   <dimension ref="A1:DQ78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="X30" sqref="X30"/>
+      <selection pane="bottomRight" activeCell="Z49" sqref="Z49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
